--- a/static/sample/sna/Iranian_Influence.xlsx
+++ b/static/sample/sna/Iranian_Influence.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="1E364893CC8683BBAC371AEE5BC262997293FAB9" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{D925E690-E9C7-432C-9E2A-DA37427ADFD1}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11460" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Node Sheet" sheetId="4" r:id="rId1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -293,7 +292,16 @@
     <t>Independent</t>
   </si>
   <si>
-    <t>Revisionist</t>
+    <t>Al-Qaeda</t>
+  </si>
+  <si>
+    <t>Mukhtar Army</t>
+  </si>
+  <si>
+    <t>Al-Naqshabandiya Army</t>
+  </si>
+  <si>
+    <t>Military Council of the Tribal Revolutionaries</t>
   </si>
   <si>
     <t>Name</t>
@@ -372,7 +380,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -754,16 +762,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
-      <pane ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
@@ -773,7 +781,7 @@
     <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="12.75">
+    <row r="1" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -837,7 +845,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" ht="12.75">
+    <row r="2" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -889,7 +897,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="12.75">
+    <row r="3" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -937,7 +945,7 @@
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
     </row>
-    <row r="4" spans="1:24" ht="12.75">
+    <row r="4" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -993,7 +1001,7 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
     </row>
-    <row r="5" spans="1:24" ht="12.75">
+    <row r="5" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -1041,7 +1049,7 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" ht="12.75">
+    <row r="6" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1087,7 +1095,7 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" ht="12.75">
+    <row r="7" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1135,7 +1143,7 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" ht="12.75">
+    <row r="8" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
@@ -1193,7 +1201,7 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" ht="12.75">
+    <row r="9" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -1251,7 +1259,7 @@
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
     </row>
-    <row r="10" spans="1:24" ht="12.75">
+    <row r="10" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1303,7 +1311,7 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
     </row>
-    <row r="11" spans="1:24" ht="12.75">
+    <row r="11" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -1347,7 +1355,7 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
     </row>
-    <row r="12" spans="1:24" ht="12.75">
+    <row r="12" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1397,7 +1405,7 @@
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
     </row>
-    <row r="13" spans="1:24" ht="12.75">
+    <row r="13" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
@@ -1445,7 +1453,7 @@
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
     </row>
-    <row r="14" spans="1:24" ht="12.75">
+    <row r="14" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
@@ -1499,7 +1507,7 @@
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
     </row>
-    <row r="15" spans="1:24" ht="12.75">
+    <row r="15" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
@@ -1561,7 +1569,7 @@
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" s="3" customFormat="1" ht="12.75">
+    <row r="16" spans="1:24" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
@@ -1596,7 +1604,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="12.75">
+    <row r="17" spans="1:24" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>73</v>
       </c>
@@ -1652,7 +1660,7 @@
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1">
+    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -1704,7 +1712,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1">
+    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>78</v>
       </c>
@@ -1758,7 +1766,7 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1">
+    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>81</v>
       </c>
@@ -1814,7 +1822,7 @@
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1">
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -1858,7 +1866,7 @@
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1">
+    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -1902,7 +1910,7 @@
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>58</v>
       </c>
@@ -1936,7 +1944,7 @@
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1970,7 +1978,7 @@
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1">
+    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>59</v>
       </c>
@@ -2004,7 +2012,7 @@
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1">
+    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>84</v>
       </c>
@@ -2040,7 +2048,7 @@
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1">
+    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
@@ -2076,7 +2084,7 @@
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1">
+    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>51</v>
       </c>
@@ -2110,7 +2118,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1">
+    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>88</v>
       </c>
@@ -2146,9 +2154,9 @@
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>13</v>
+    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2159,24 +2167,33 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="K30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="O30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>14</v>
+    </row>
+    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2187,24 +2204,37 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>15</v>
+      <c r="K31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2215,74 +2245,129 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="O32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
+    </row>
+    <row r="33" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="3"/>
+      <c r="O33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S33" s="3"/>
+    </row>
+    <row r="34" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>89</v>
+      <c r="M34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="3"/>
+      <c r="O34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="3"/>
+      <c r="O35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2292,14 +2377,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31648440-34B2-41E0-A4DA-8D4AD12FC756}">
-  <dimension ref="A1:AX43"/>
+  <dimension ref="A1:AV35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0" xr3:uid="{354EE10B-ACE1-5338-88D3-2FA0829946D8}">
-      <pane xSplit="2" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W37" sqref="W37"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="6" bestFit="1" customWidth="1"/>
@@ -2323,21 +2408,21 @@
     <col min="20" max="20" width="5.7109375" style="6" customWidth="1"/>
     <col min="21" max="21" width="14.42578125" style="6"/>
     <col min="22" max="22" width="5.7109375" style="6" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="6"/>
-    <col min="24" max="24" width="5.7109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="6"/>
     <col min="26" max="26" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="6"/>
-    <col min="28" max="28" width="5.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.7109375" style="6" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="6"/>
     <col min="30" max="30" width="5.7109375" style="6" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="6"/>
+    <col min="31" max="31" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="5.7109375" style="6" customWidth="1"/>
-    <col min="33" max="33" width="18" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="6"/>
     <col min="34" max="34" width="5.7109375" style="6" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" style="6"/>
+    <col min="35" max="35" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="5.7109375" style="6" customWidth="1"/>
-    <col min="37" max="37" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.42578125" style="6"/>
     <col min="38" max="38" width="5.7109375" style="6" customWidth="1"/>
     <col min="39" max="39" width="14.42578125" style="6"/>
     <col min="40" max="40" width="5.7109375" style="6" customWidth="1"/>
@@ -2349,172 +2434,164 @@
     <col min="46" max="46" width="5.7109375" style="6" customWidth="1"/>
     <col min="47" max="47" width="14.42578125" style="6"/>
     <col min="48" max="48" width="5.7109375" style="6" customWidth="1"/>
-    <col min="49" max="49" width="14.42578125" style="6"/>
-    <col min="50" max="50" width="5.7109375" style="6" customWidth="1"/>
-    <col min="51" max="16384" width="14.42578125" style="6"/>
+    <col min="49" max="16384" width="14.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="12.75">
+    <row r="1" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>4</v>
+        <v>96</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AI1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="AM1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AO1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AQ1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AS1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AT1" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AU1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" ht="12.75">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -2543,100 +2620,94 @@
       <c r="N2" s="6">
         <v>0.3</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>12</v>
+      <c r="W2" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X2" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>13</v>
+        <v>0.8</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z2" s="6">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB2" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>-0.79</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL2" s="6">
         <v>0.87</v>
       </c>
-      <c r="AC2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD2" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH2" s="6">
-        <v>-0.28999999999999998</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ2" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL2" s="6">
-        <v>-0.79</v>
-      </c>
       <c r="AM2" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN2" s="6">
         <v>0.87</v>
       </c>
       <c r="AO2" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP2" s="6">
-        <v>0.87</v>
+        <v>-0.59</v>
       </c>
       <c r="AQ2" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR2" s="6">
-        <v>-0.59</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AS2" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT2" s="6">
-        <v>0.55000000000000004</v>
+        <v>-0.79</v>
       </c>
       <c r="AU2" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV2" s="6">
-        <v>-0.79</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX2" s="6">
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="10" customFormat="1" ht="12.75">
+    <row r="3" spans="1:48" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
@@ -2653,100 +2724,94 @@
       <c r="L3" s="10">
         <v>1</v>
       </c>
-      <c r="W3" s="9" t="s">
-        <v>23</v>
+      <c r="W3" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="X3" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>13</v>
+        <v>0.15</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="Z3" s="10">
-        <v>0.15</v>
+        <v>0.71</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB3" s="10">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="AD3" s="10">
-        <v>0.74</v>
+        <v>-1</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="AF3" s="10">
+        <v>-0.48</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH3" s="10">
         <v>-1</v>
       </c>
-      <c r="AG3" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH3" s="10">
-        <v>-0.48</v>
-      </c>
       <c r="AI3" s="9" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="AJ3" s="10">
-        <v>-1</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>57</v>
+        <v>-0.74</v>
+      </c>
+      <c r="AK3" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="AL3" s="10">
-        <v>-0.74</v>
+        <v>0.91</v>
       </c>
       <c r="AM3" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN3" s="10">
         <v>0.91</v>
       </c>
       <c r="AO3" s="10" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP3" s="10">
-        <v>0.91</v>
+        <v>-0.54</v>
       </c>
       <c r="AQ3" s="10" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR3" s="10">
-        <v>-0.54</v>
+        <v>0.74</v>
       </c>
       <c r="AS3" s="10" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT3" s="10">
-        <v>0.74</v>
+        <v>-0.74</v>
       </c>
       <c r="AU3" s="10" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV3" s="10">
-        <v>-0.74</v>
-      </c>
-      <c r="AW3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX3" s="10">
         <v>-0.48</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="12.75">
+    <row r="4" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -2787,97 +2852,91 @@
       <c r="T4" s="6">
         <v>0.3</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>23</v>
+      <c r="W4" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>13</v>
+        <v>0.71</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z4" s="6">
-        <v>0.71</v>
+        <v>0.78</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB4" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>-0.5</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ4" s="6">
+        <v>-0.75</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL4" s="6">
         <v>0.78</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD4" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF4" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH4" s="6">
-        <v>-0.5</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ4" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL4" s="6">
-        <v>-0.75</v>
-      </c>
       <c r="AM4" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN4" s="6">
         <v>0.78</v>
       </c>
       <c r="AO4" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP4" s="6">
-        <v>0.78</v>
+        <v>-0.65</v>
       </c>
       <c r="AQ4" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR4" s="6">
-        <v>-0.65</v>
+        <v>0.5</v>
       </c>
       <c r="AS4" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT4" s="6">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="AU4" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV4" s="6">
-        <v>-0.75</v>
-      </c>
-      <c r="AW4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX4" s="6">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="12.75">
+    <row r="5" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -2898,97 +2957,91 @@
       <c r="R5" s="6">
         <v>1</v>
       </c>
-      <c r="W5" s="2" t="s">
-        <v>33</v>
+      <c r="W5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X5" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>13</v>
+        <v>0.35</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z5" s="6">
-        <v>0.35</v>
+        <v>0.78</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB5" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>-0.49</v>
+      </c>
+      <c r="AG5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>-0.65</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL5" s="6">
         <v>0.78</v>
       </c>
-      <c r="AC5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD5" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="AE5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF5" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH5" s="6">
-        <v>-0.49</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ5" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL5" s="6">
-        <v>-0.65</v>
-      </c>
       <c r="AM5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN5" s="6">
         <v>0.78</v>
       </c>
       <c r="AO5" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP5" s="6">
-        <v>0.78</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="AQ5" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR5" s="6">
-        <v>-0.55000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="AS5" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT5" s="6">
-        <v>0.51</v>
+        <v>-0.65</v>
       </c>
       <c r="AU5" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV5" s="6">
-        <v>-0.65</v>
-      </c>
-      <c r="AW5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX5" s="6">
         <v>-0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="12.75">
+    <row r="6" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -3009,92 +3062,86 @@
       <c r="R6" s="6">
         <v>1</v>
       </c>
-      <c r="W6" s="2" t="s">
-        <v>33</v>
+      <c r="W6" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>13</v>
+        <v>0.35</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z6" s="6">
-        <v>0.35</v>
+        <v>0.62</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB6" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>-0.47</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>-0.35</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL6" s="6">
         <v>0.62</v>
       </c>
-      <c r="AC6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD6" s="6">
-        <v>0.47</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH6" s="6">
-        <v>-0.47</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ6" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL6" s="6">
-        <v>-0.35</v>
-      </c>
       <c r="AM6" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN6" s="6">
         <v>0.62</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP6" s="6">
-        <v>0.62</v>
+        <v>-0.33</v>
       </c>
       <c r="AQ6" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR6" s="6">
-        <v>-0.33</v>
+        <v>0.47</v>
       </c>
       <c r="AS6" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT6" s="6">
-        <v>0.47</v>
+        <v>-0.35</v>
       </c>
       <c r="AU6" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV6" s="6">
-        <v>-0.35</v>
-      </c>
-      <c r="AW6" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX6" s="6">
         <v>-0.47</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="12.75">
+    <row r="7" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -3114,100 +3161,94 @@
       <c r="L7" s="6">
         <v>1</v>
       </c>
-      <c r="W7" s="2" t="s">
-        <v>23</v>
+      <c r="W7" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="7" t="s">
-        <v>13</v>
+        <v>0.5</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z7" s="6">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB7" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL7" s="6">
         <v>0.65</v>
       </c>
-      <c r="AC7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD7" s="6">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF7" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH7" s="6">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ7" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL7" s="6">
-        <v>-0.4</v>
-      </c>
       <c r="AM7" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN7" s="6">
         <v>0.65</v>
       </c>
       <c r="AO7" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP7" s="6">
-        <v>0.65</v>
+        <v>-0.3</v>
       </c>
       <c r="AQ7" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR7" s="6">
-        <v>-0.3</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AS7" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT7" s="6">
-        <v>0.55000000000000004</v>
+        <v>-0.4</v>
       </c>
       <c r="AU7" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV7" s="6">
-        <v>-0.4</v>
-      </c>
-      <c r="AW7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX7" s="6">
         <v>-0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="12.75">
+    <row r="8" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -3254,97 +3295,91 @@
       <c r="R8" s="6">
         <v>1</v>
       </c>
-      <c r="W8" s="2" t="s">
-        <v>33</v>
+      <c r="W8" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>13</v>
+        <v>0.62</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z8" s="6">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>-0.2</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>-0.49</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL8" s="6">
         <v>0.75</v>
       </c>
-      <c r="AC8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD8" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="AE8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH8" s="6">
-        <v>-0.2</v>
-      </c>
-      <c r="AI8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ8" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL8" s="6">
-        <v>-0.49</v>
-      </c>
       <c r="AM8" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN8" s="6">
         <v>0.75</v>
       </c>
       <c r="AO8" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP8" s="6">
-        <v>0.75</v>
+        <v>-0.39</v>
       </c>
       <c r="AQ8" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR8" s="6">
-        <v>-0.39</v>
+        <v>0.5</v>
       </c>
       <c r="AS8" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT8" s="6">
-        <v>0.5</v>
+        <v>-0.49</v>
       </c>
       <c r="AU8" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV8" s="6">
-        <v>-0.49</v>
-      </c>
-      <c r="AW8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX8" s="6">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="12.75">
+    <row r="9" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>46</v>
@@ -3382,97 +3417,91 @@
       <c r="T9" s="6">
         <v>0.2</v>
       </c>
-      <c r="W9" s="2" t="s">
-        <v>33</v>
+      <c r="W9" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="7" t="s">
-        <v>13</v>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z9" s="6">
-        <v>0.57999999999999996</v>
+        <v>0.8</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB9" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF9" s="6">
+        <v>-0.6</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>-0.35</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>-0.47</v>
+      </c>
+      <c r="AK9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL9" s="6">
         <v>0.8</v>
       </c>
-      <c r="AC9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD9" s="6">
-        <v>0.79</v>
-      </c>
-      <c r="AE9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF9" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH9" s="6">
-        <v>-0.6</v>
-      </c>
-      <c r="AI9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ9" s="6">
-        <v>-0.35</v>
-      </c>
-      <c r="AK9" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL9" s="6">
-        <v>-0.47</v>
-      </c>
       <c r="AM9" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN9" s="6">
         <v>0.8</v>
       </c>
       <c r="AO9" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP9" s="6">
-        <v>0.8</v>
+        <v>-0.37</v>
       </c>
       <c r="AQ9" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR9" s="6">
-        <v>-0.37</v>
+        <v>0.79</v>
       </c>
       <c r="AS9" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT9" s="6">
-        <v>0.79</v>
+        <v>-0.47</v>
       </c>
       <c r="AU9" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV9" s="6">
-        <v>-0.47</v>
-      </c>
-      <c r="AW9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX9" s="6">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="12.75">
+    <row r="10" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>52</v>
@@ -3504,97 +3533,91 @@
       <c r="R10" s="6">
         <v>1</v>
       </c>
-      <c r="W10" s="2" t="s">
-        <v>33</v>
+      <c r="W10" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X10" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>13</v>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z10" s="6">
-        <v>0.28000000000000003</v>
+        <v>0.81</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB10" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF10" s="6">
+        <v>-0.74</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH10" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ10" s="6">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="AK10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL10" s="6">
         <v>0.81</v>
       </c>
-      <c r="AC10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD10" s="6">
-        <v>0.88</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF10" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH10" s="6">
-        <v>-0.74</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ10" s="6">
-        <v>0.42</v>
-      </c>
-      <c r="AK10" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL10" s="6">
-        <v>-0.55000000000000004</v>
-      </c>
       <c r="AM10" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN10" s="6">
         <v>0.81</v>
       </c>
       <c r="AO10" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP10" s="6">
-        <v>0.81</v>
+        <v>-0.45</v>
       </c>
       <c r="AQ10" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR10" s="6">
-        <v>-0.45</v>
+        <v>0.88</v>
       </c>
       <c r="AS10" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT10" s="6">
-        <v>0.88</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="AU10" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV10" s="6">
-        <v>-0.55000000000000004</v>
-      </c>
-      <c r="AW10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX10" s="6">
         <v>-0.74</v>
       </c>
     </row>
-    <row r="11" spans="1:50" ht="12.75">
+    <row r="11" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>21</v>
@@ -3608,100 +3631,94 @@
       <c r="L11" s="6">
         <v>1</v>
       </c>
-      <c r="W11" s="2" t="s">
-        <v>55</v>
+      <c r="W11" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X11" s="6">
+        <v>-0.88</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z11" s="6">
+        <v>-0.9</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>-0.95</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD11" s="6">
         <v>1</v>
       </c>
-      <c r="Y11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>-0.88</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB11" s="6">
+      <c r="AE11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF11" s="6">
+        <v>-0.75</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL11" s="6">
         <v>-0.9</v>
       </c>
-      <c r="AC11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD11" s="6">
-        <v>-0.95</v>
-      </c>
-      <c r="AE11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH11" s="6">
-        <v>-0.75</v>
-      </c>
-      <c r="AI11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ11" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL11" s="6">
-        <v>1</v>
-      </c>
       <c r="AM11" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN11" s="6">
         <v>-0.9</v>
       </c>
       <c r="AO11" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP11" s="6">
-        <v>-0.9</v>
+        <v>0.89</v>
       </c>
       <c r="AQ11" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR11" s="6">
-        <v>0.89</v>
+        <v>-0.95</v>
       </c>
       <c r="AS11" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT11" s="6">
-        <v>-0.95</v>
+        <v>1</v>
       </c>
       <c r="AU11" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV11" s="6">
-        <v>1</v>
-      </c>
-      <c r="AW11" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX11" s="6">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="12.75">
+    <row r="12" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -3724,100 +3741,94 @@
       <c r="R12" s="6">
         <v>1</v>
       </c>
-      <c r="W12" s="2" t="s">
-        <v>23</v>
+      <c r="W12" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>13</v>
+        <v>0.75</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z12" s="6">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB12" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>-0.6</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ12" s="6">
+        <v>-0.26</v>
+      </c>
+      <c r="AK12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL12" s="6">
         <v>0.74</v>
       </c>
-      <c r="AC12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD12" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="AE12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH12" s="6">
-        <v>-0.6</v>
-      </c>
-      <c r="AI12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ12" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL12" s="6">
-        <v>-0.26</v>
-      </c>
       <c r="AM12" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN12" s="6">
         <v>0.74</v>
       </c>
       <c r="AO12" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP12" s="6">
-        <v>0.74</v>
+        <v>-0.16</v>
       </c>
       <c r="AQ12" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR12" s="6">
-        <v>-0.16</v>
+        <v>0.7</v>
       </c>
       <c r="AS12" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT12" s="6">
-        <v>0.7</v>
+        <v>-0.26</v>
       </c>
       <c r="AU12" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV12" s="6">
-        <v>-0.26</v>
-      </c>
-      <c r="AW12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX12" s="6">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="12.75">
+    <row r="13" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D13" s="6">
         <v>1</v>
@@ -3834,97 +3845,91 @@
       <c r="L13" s="6">
         <v>1</v>
       </c>
-      <c r="W13" s="2" t="s">
-        <v>33</v>
+      <c r="W13" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X13" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>13</v>
+        <v>0.6</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z13" s="6">
-        <v>0.6</v>
+        <v>0.73</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB13" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AG13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ13" s="6">
+        <v>-0.48</v>
+      </c>
+      <c r="AK13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL13" s="6">
         <v>0.73</v>
       </c>
-      <c r="AC13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD13" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="AE13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH13" s="6">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="AI13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ13" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL13" s="6">
-        <v>-0.48</v>
-      </c>
       <c r="AM13" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN13" s="6">
         <v>0.73</v>
       </c>
       <c r="AO13" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP13" s="6">
-        <v>0.73</v>
+        <v>-0.38</v>
       </c>
       <c r="AQ13" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR13" s="6">
-        <v>-0.38</v>
+        <v>0.51</v>
       </c>
       <c r="AS13" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT13" s="6">
-        <v>0.51</v>
+        <v>-0.48</v>
       </c>
       <c r="AU13" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV13" s="6">
-        <v>-0.48</v>
-      </c>
-      <c r="AW13" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX13" s="6">
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="12.75">
+    <row r="14" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>38</v>
@@ -3956,97 +3961,91 @@
       <c r="R14" s="6">
         <v>1</v>
       </c>
-      <c r="W14" s="2" t="s">
-        <v>23</v>
+      <c r="W14" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X14" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>13</v>
+        <v>0.77</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z14" s="6">
-        <v>0.77</v>
+        <v>0.86</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB14" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>-0.35</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH14" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ14" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="AK14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL14" s="6">
         <v>0.86</v>
       </c>
-      <c r="AC14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD14" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF14" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH14" s="6">
-        <v>-0.35</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ14" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL14" s="6">
-        <v>-0.4</v>
-      </c>
       <c r="AM14" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN14" s="6">
         <v>0.86</v>
       </c>
       <c r="AO14" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP14" s="6">
-        <v>0.86</v>
+        <v>-0.35</v>
       </c>
       <c r="AQ14" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR14" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AS14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT14" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="AU14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV14" s="6">
         <v>-0.35</v>
       </c>
-      <c r="AS14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AT14" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="AU14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV14" s="6">
-        <v>-0.4</v>
-      </c>
-      <c r="AW14" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX14" s="6">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" ht="12.75">
+    </row>
+    <row r="15" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>46</v>
@@ -4102,97 +4101,91 @@
       <c r="V15" s="6">
         <v>0.15</v>
       </c>
-      <c r="W15" s="2" t="s">
-        <v>55</v>
+      <c r="W15" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X15" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y15" s="7" t="s">
-        <v>13</v>
+        <v>-0.65</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z15" s="6">
-        <v>-0.65</v>
+        <v>-0.32</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB15" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF15" s="6">
+        <v>-0.05</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ15" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="AK15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL15" s="6">
         <v>-0.32</v>
       </c>
-      <c r="AC15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD15" s="6">
-        <v>0.86</v>
-      </c>
-      <c r="AE15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF15" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG15" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH15" s="6">
-        <v>-0.05</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ15" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL15" s="6">
-        <v>0.85</v>
-      </c>
       <c r="AM15" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN15" s="6">
         <v>-0.32</v>
       </c>
       <c r="AO15" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP15" s="6">
-        <v>-0.32</v>
+        <v>0.75</v>
       </c>
       <c r="AQ15" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR15" s="6">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AS15" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT15" s="6">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="AU15" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV15" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="AW15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX15" s="6">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="12.75">
+    <row r="16" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>72</v>
@@ -4218,97 +4211,91 @@
       <c r="N16" s="6">
         <v>0.15</v>
       </c>
-      <c r="W16" s="2" t="s">
-        <v>55</v>
+      <c r="W16" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X16" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="7" t="s">
-        <v>13</v>
+        <v>-0.65</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z16" s="6">
-        <v>-0.65</v>
+        <v>-0.42</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB16" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF16" s="6">
+        <v>-0.02</v>
+      </c>
+      <c r="AG16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ16" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="AK16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL16" s="6">
         <v>-0.42</v>
       </c>
-      <c r="AC16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD16" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="AE16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF16" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH16" s="6">
-        <v>-0.02</v>
-      </c>
-      <c r="AI16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ16" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL16" s="6">
-        <v>0.85</v>
-      </c>
       <c r="AM16" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN16" s="6">
         <v>-0.42</v>
       </c>
       <c r="AO16" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP16" s="6">
-        <v>-0.42</v>
+        <v>0.75</v>
       </c>
       <c r="AQ16" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR16" s="6">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="AS16" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT16" s="6">
         <v>0.85</v>
       </c>
       <c r="AU16" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV16" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="AW16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX16" s="6">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:50" ht="12.75">
+    <row r="17" spans="1:48" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>46</v>
@@ -4352,97 +4339,91 @@
       <c r="R17" s="6">
         <v>1</v>
       </c>
-      <c r="W17" s="2" t="s">
-        <v>55</v>
+      <c r="W17" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X17" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="7" t="s">
-        <v>13</v>
+        <v>-0.35</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z17" s="6">
-        <v>-0.35</v>
+        <v>0.2</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB17" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="AG17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ17" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AK17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL17" s="6">
         <v>0.2</v>
       </c>
-      <c r="AC17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD17" s="6">
-        <v>0.85</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF17" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH17" s="6">
-        <v>-0.1</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ17" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL17" s="6">
-        <v>0.7</v>
-      </c>
       <c r="AM17" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN17" s="6">
         <v>0.2</v>
       </c>
       <c r="AO17" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP17" s="6">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AQ17" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR17" s="6">
-        <v>0.6</v>
+        <v>0.85</v>
       </c>
       <c r="AS17" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT17" s="6">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="AU17" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV17" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="AW17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX17" s="6">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:50" ht="15.75" customHeight="1">
+    <row r="18" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>38</v>
@@ -4468,97 +4449,91 @@
       <c r="N18" s="6">
         <v>0.2</v>
       </c>
-      <c r="W18" s="6" t="s">
-        <v>33</v>
+      <c r="W18" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X18" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="7" t="s">
-        <v>13</v>
+        <v>0.35</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z18" s="6">
-        <v>0.35</v>
+        <v>0.02</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB18" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD18" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF18" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH18" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ18" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AK18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL18" s="6">
         <v>0.02</v>
       </c>
-      <c r="AC18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD18" s="6">
-        <v>0.89</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF18" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH18" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ18" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="AK18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL18" s="6">
-        <v>0.75</v>
-      </c>
       <c r="AM18" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN18" s="6">
         <v>0.02</v>
       </c>
       <c r="AO18" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP18" s="6">
-        <v>0.02</v>
+        <v>0.65</v>
       </c>
       <c r="AQ18" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR18" s="6">
-        <v>0.65</v>
+        <v>0.89</v>
       </c>
       <c r="AS18" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT18" s="6">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="AU18" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV18" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AW18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX18" s="6">
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:50" ht="15.75" customHeight="1">
+    <row r="19" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>52</v>
@@ -4590,97 +4565,91 @@
       <c r="R19" s="6">
         <v>1</v>
       </c>
-      <c r="W19" s="6" t="s">
-        <v>23</v>
+      <c r="W19" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X19" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="7" t="s">
-        <v>13</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z19" s="6">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.45</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB19" s="6">
+        <v>0.32</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD19" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AG19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH19" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ19" s="6">
+        <v>0.64</v>
+      </c>
+      <c r="AK19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL19" s="6">
         <v>-0.45</v>
       </c>
-      <c r="AC19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD19" s="6">
-        <v>0.32</v>
-      </c>
-      <c r="AE19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF19" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH19" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="AI19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ19" s="6">
-        <v>0.65</v>
-      </c>
-      <c r="AK19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL19" s="6">
-        <v>0.64</v>
-      </c>
       <c r="AM19" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN19" s="6">
         <v>-0.45</v>
       </c>
       <c r="AO19" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP19" s="6">
-        <v>-0.45</v>
+        <v>0.54</v>
       </c>
       <c r="AQ19" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR19" s="6">
-        <v>0.54</v>
+        <v>0.32</v>
       </c>
       <c r="AS19" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT19" s="6">
-        <v>0.32</v>
+        <v>0.64</v>
       </c>
       <c r="AU19" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV19" s="6">
-        <v>0.64</v>
-      </c>
-      <c r="AW19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX19" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:50" ht="15.75" customHeight="1">
+    <row r="20" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>38</v>
@@ -4718,705 +4687,1049 @@
       <c r="T20" s="6">
         <v>0.3</v>
       </c>
-      <c r="W20" s="6" t="s">
-        <v>23</v>
+      <c r="W20" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X20" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="7" t="s">
-        <v>13</v>
+        <v>0.12</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z20" s="6">
-        <v>0.12</v>
+        <v>0.38</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB20" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD20" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="AG20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH20" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ20" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="AK20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL20" s="6">
         <v>0.38</v>
       </c>
-      <c r="AC20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD20" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="AE20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF20" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AG20" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH20" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="AI20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ20" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="AK20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL20" s="6">
-        <v>0.72</v>
-      </c>
       <c r="AM20" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN20" s="6">
         <v>0.38</v>
       </c>
       <c r="AO20" s="6" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="AP20" s="6">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="AQ20" s="6" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="AR20" s="6">
-        <v>0.62</v>
+        <v>0.3</v>
       </c>
       <c r="AS20" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="AT20" s="6">
-        <v>0.3</v>
+        <v>0.72</v>
       </c>
       <c r="AU20" s="6" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="AV20" s="6">
-        <v>0.72</v>
-      </c>
-      <c r="AW20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="AX20" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="15.75" customHeight="1">
+    <row r="21" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="W21" s="6" t="s">
-        <v>33</v>
+      <c r="W21" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X21" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="7" t="s">
-        <v>13</v>
+        <v>0.82</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z21" s="6">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="AA21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB21" s="6">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="AC21" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="AD21" s="6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="AF21" s="6">
+        <v>-0.6</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH21" s="6">
         <v>-1</v>
       </c>
-      <c r="AG21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH21" s="6">
-        <v>-0.6</v>
-      </c>
       <c r="AI21" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="AJ21" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL21" s="6">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:50" ht="15.75" customHeight="1">
+    <row r="22" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="W22" s="6" t="s">
-        <v>86</v>
+      <c r="W22" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X22" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="7" t="s">
-        <v>13</v>
+        <v>0.75</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z22" s="6">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB22" s="6">
-        <v>0.91</v>
+        <v>0.61</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="AD22" s="6">
-        <v>0.61</v>
+        <v>-1</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="AF22" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH22" s="6">
         <v>-1</v>
       </c>
-      <c r="AG22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH22" s="6">
-        <v>-0.4</v>
-      </c>
       <c r="AI22" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="AJ22" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL22" s="6">
         <v>-0.85</v>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="15.75" customHeight="1">
+    <row r="23" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="6" t="s">
-        <v>55</v>
+      <c r="W23" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X23" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="7" t="s">
-        <v>13</v>
+        <v>0.01</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z23" s="6">
-        <v>0.01</v>
+        <v>-0.74</v>
       </c>
       <c r="AA23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB23" s="6">
-        <v>-0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="AD23" s="6">
-        <v>0.85</v>
+        <v>-1</v>
       </c>
       <c r="AE23" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="AF23" s="6">
+        <v>-0.1</v>
+      </c>
+      <c r="AG23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH23" s="6">
         <v>-1</v>
       </c>
-      <c r="AG23" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH23" s="6">
-        <v>-0.1</v>
-      </c>
       <c r="AI23" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="AJ23" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK23" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL23" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:50" ht="15.75" customHeight="1">
+    <row r="24" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="W24" s="6" t="s">
-        <v>87</v>
+      <c r="W24" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X24" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="7" t="s">
-        <v>13</v>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z24" s="6">
-        <v>0.28999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB24" s="6">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="AD24" s="6">
-        <v>0.9</v>
+        <v>-1</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="AF24" s="6">
+        <v>-0.2</v>
+      </c>
+      <c r="AG24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH24" s="6">
         <v>-1</v>
       </c>
-      <c r="AG24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH24" s="6">
-        <v>-0.2</v>
-      </c>
       <c r="AI24" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="AJ24" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL24" s="6">
         <v>0.42</v>
       </c>
     </row>
-    <row r="25" spans="1:50" ht="15.75" customHeight="1">
+    <row r="25" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="W25" s="6" t="s">
-        <v>87</v>
+      <c r="W25" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X25" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y25" s="7" t="s">
-        <v>13</v>
+        <v>-0.4</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z25" s="6">
-        <v>-0.4</v>
+        <v>-0.48</v>
       </c>
       <c r="AA25" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB25" s="6">
-        <v>-0.48</v>
+        <v>0.84</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="AD25" s="6">
-        <v>0.84</v>
+        <v>-1</v>
       </c>
       <c r="AE25" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="AF25" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="AG25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH25" s="6">
         <v>-1</v>
       </c>
-      <c r="AG25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH25" s="6">
-        <v>0.1</v>
-      </c>
       <c r="AI25" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="AJ25" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL25" s="6">
         <v>0.73</v>
       </c>
     </row>
-    <row r="26" spans="1:50" ht="15.75" customHeight="1">
+    <row r="26" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="W26" s="6" t="s">
-        <v>23</v>
+      <c r="W26" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X26" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="7" t="s">
-        <v>13</v>
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z26" s="6">
-        <v>-0.55000000000000004</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB26" s="6">
-        <v>-0.5</v>
+        <v>-0.1</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="AD26" s="6">
-        <v>-0.1</v>
+        <v>-1</v>
       </c>
       <c r="AE26" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="AF26" s="6">
-        <v>-1</v>
+        <v>0.91</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH26" s="6">
-        <v>0.91</v>
+        <v>0.72</v>
       </c>
       <c r="AI26" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="AJ26" s="6">
-        <v>0.72</v>
-      </c>
-      <c r="AK26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL26" s="6">
         <v>0.78</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="15.75" customHeight="1">
+    <row r="27" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="W27" s="6" t="s">
-        <v>86</v>
+      <c r="W27" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X27" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="7" t="s">
-        <v>13</v>
+        <v>0.75</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z27" s="6">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB27" s="6">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="AD27" s="6">
-        <v>0.9</v>
+        <v>-1</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="AF27" s="6">
+        <v>-0.65</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH27" s="6">
         <v>-1</v>
       </c>
-      <c r="AG27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH27" s="6">
-        <v>-0.65</v>
-      </c>
       <c r="AI27" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="AJ27" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL27" s="6">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="15.75" customHeight="1">
+    <row r="28" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="W28" s="6" t="s">
-        <v>55</v>
+      <c r="W28" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X28" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="7" t="s">
-        <v>13</v>
+        <v>-0.69</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="Z28" s="6">
-        <v>-0.69</v>
+        <v>-0.85</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB28" s="6">
-        <v>-0.85</v>
+        <v>0.74</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="AD28" s="6">
-        <v>0.74</v>
+        <v>-1</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="AF28" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="AG28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH28" s="6">
         <v>-1</v>
       </c>
-      <c r="AG28" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH28" s="6">
-        <v>0.42</v>
-      </c>
       <c r="AI28" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="AJ28" s="6">
-        <v>-1</v>
-      </c>
-      <c r="AK28" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL28" s="6">
         <v>0.98</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="15.75" customHeight="1">
+    <row r="29" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="W29" s="6" t="s">
-        <v>89</v>
+      <c r="W29" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="X29" s="6">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z29" s="6">
+        <v>-0.69</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB29" s="6">
+        <v>-0.4</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD29" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF29" s="6">
+        <v>0.98</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH29" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="AI29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ29" s="6">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X30" s="6">
+        <v>-0.88</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z30" s="6">
+        <v>-0.9</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB30" s="6">
+        <v>-0.95</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD30" s="6">
         <v>1</v>
       </c>
-      <c r="Y29" s="7" t="s">
+      <c r="AE30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF30" s="6">
+        <v>-0.75</v>
+      </c>
+      <c r="AG30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH30" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ30" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL30" s="6">
+        <v>-0.9</v>
+      </c>
+      <c r="AM30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN30" s="6">
+        <v>-0.9</v>
+      </c>
+      <c r="AO30" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP30" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="AQ30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR30" s="6">
+        <v>-0.95</v>
+      </c>
+      <c r="AS30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT30" s="6">
+        <v>1</v>
+      </c>
+      <c r="AU30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV30" s="6">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W31" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Z29" s="6">
-        <v>-0.56999999999999995</v>
-      </c>
-      <c r="AA29" s="2" t="s">
+      <c r="X31" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AB29" s="6">
-        <v>-0.69</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD29" s="6">
-        <v>-0.4</v>
-      </c>
-      <c r="AE29" s="2" t="s">
+      <c r="Z31" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB31" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="AC31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AF29" s="6">
+      <c r="AD31" s="6">
         <v>-1</v>
       </c>
-      <c r="AG29" s="2" t="s">
+      <c r="AE31" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AH29" s="6">
-        <v>0.98</v>
-      </c>
-      <c r="AI29" s="2" t="s">
+      <c r="AF31" s="6">
+        <v>-0.74</v>
+      </c>
+      <c r="AG31" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AJ29" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="AK29" s="2" t="s">
+      <c r="AH31" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="AI31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AL29" s="6">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:50" ht="15.75" customHeight="1">
-      <c r="A30" s="7" t="s">
+      <c r="AJ31" s="6">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="AK31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL31" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="AM31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN31" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="AO31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP31" s="6">
+        <v>-0.45</v>
+      </c>
+      <c r="AQ31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR31" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="AS31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT31" s="6">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="AU31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV31" s="6">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="W32" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="X32" s="6">
+        <v>-0.88</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z32" s="6">
+        <v>-0.9</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB32" s="6">
+        <v>-0.15</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD32" s="6">
+        <v>0.35</v>
+      </c>
+      <c r="AE32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF32" s="6">
+        <v>-0.25</v>
+      </c>
+      <c r="AG32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH32" s="6">
+        <v>-0.75</v>
+      </c>
+      <c r="AI32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ32" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL32" s="6">
+        <v>-0.9</v>
+      </c>
+      <c r="AM32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN32" s="6">
+        <v>-0.9</v>
+      </c>
+      <c r="AO32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP32" s="6">
+        <v>0.89</v>
+      </c>
+      <c r="AQ32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR32" s="6">
+        <v>-0.15</v>
+      </c>
+      <c r="AS32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT32" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="AU32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV32" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="W33" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:50" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="X33" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="Y33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="Z33" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB33" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF33" s="6">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="AG33" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH33" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AI33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ33" s="6">
+        <v>-0.79</v>
+      </c>
+      <c r="AK33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL33" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="AM33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN33" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="AO33" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP33" s="6">
+        <v>-0.59</v>
+      </c>
+      <c r="AQ33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR33" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AS33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT33" s="6">
+        <v>-0.79</v>
+      </c>
+      <c r="AU33" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV33" s="6">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X34" s="6">
+        <v>-0.8</v>
+      </c>
+      <c r="Y34" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:50" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="Z34" s="6">
+        <v>-0.75</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>-0.95</v>
+      </c>
+      <c r="AC34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="AD34" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AF34" s="6">
+        <v>-0.49</v>
+      </c>
+      <c r="AG34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH34" s="6">
+        <v>-0.8</v>
+      </c>
+      <c r="AI34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ34" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="AK34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL34" s="6">
+        <v>-0.7</v>
+      </c>
+      <c r="AM34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN34" s="6">
+        <v>-0.7</v>
+      </c>
+      <c r="AO34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP34" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="AQ34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR34" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="AS34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT34" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="AU34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV34" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X35" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z35" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB35" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="AC35" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="AD35" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AE35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="AF35" s="6">
+        <v>-0.74</v>
+      </c>
+      <c r="AG35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="AH35" s="6">
+        <v>0.42</v>
+      </c>
+      <c r="AI35" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A41" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>89</v>
+      <c r="AJ35" s="6">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="AK35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL35" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="AM35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN35" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="AO35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP35" s="6">
+        <v>-0.45</v>
+      </c>
+      <c r="AQ35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR35" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="AS35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT35" s="6">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="AU35" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV35" s="6">
+        <v>-0.74</v>
       </c>
     </row>
   </sheetData>

--- a/static/sample/sna/Iranian_Influence.xlsx
+++ b/static/sample/sna/Iranian_Influence.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ryan/lucas/GAT/static/sample/sna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8DE4F7F18873AAAEAC159E79BD9484246A76BABD" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{6947FAB2-336D-4D88-BB7A-381E26D09AA2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data Node Sheet" sheetId="4" r:id="rId1"/>
     <sheet name="Attribute Sheet" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -383,8 +390,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -427,12 +434,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -447,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -470,6 +483,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,32 +799,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U10" sqref="U10"/>
+      <selection pane="topRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.42578125" style="4"/>
+    <col min="1" max="1" width="37.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="12.75">
+    <row r="1" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -876,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="12.75">
+    <row r="2" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -930,7 +946,7 @@
       </c>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="12.75">
+    <row r="3" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -978,7 +994,7 @@
       </c>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="12.75">
+    <row r="4" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -1034,7 +1050,7 @@
       </c>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="12.75">
+    <row r="5" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1082,7 +1098,7 @@
       </c>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="12.75">
+    <row r="6" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -1128,7 +1144,7 @@
       </c>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="12.75">
+    <row r="7" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -1176,7 +1192,7 @@
       </c>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="12.75">
+    <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -1234,7 +1250,7 @@
       </c>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="12.75">
+    <row r="9" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -1292,7 +1308,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="12.75">
+    <row r="10" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1344,7 +1360,7 @@
       </c>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="12.75">
+    <row r="11" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -1392,7 +1408,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="12.75">
+    <row r="12" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1444,7 +1460,7 @@
       </c>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="12.75">
+    <row r="13" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
@@ -1494,7 +1510,7 @@
       </c>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75">
+    <row r="14" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
@@ -1550,7 +1566,7 @@
       </c>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="12.75">
+    <row r="15" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1612,7 +1628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="12.75">
+    <row r="16" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -1658,7 +1674,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" ht="12.75">
+    <row r="17" spans="1:22" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -1712,7 +1728,7 @@
       </c>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" ht="15.75" customHeight="1">
+    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1764,7 +1780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1">
+    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -1818,7 +1834,7 @@
       </c>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1">
+    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -1874,7 +1890,7 @@
       </c>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1">
+    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1922,7 +1938,7 @@
       </c>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1970,7 +1986,7 @@
       </c>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1">
+    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -2004,7 +2020,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1">
+    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -2038,7 +2054,7 @@
       <c r="U24" s="5"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1">
+    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -2072,7 +2088,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1">
+    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>86</v>
       </c>
@@ -2110,7 +2126,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1">
+    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -2150,7 +2166,7 @@
       <c r="U27" s="5"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1">
+    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -2186,7 +2202,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1">
+    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -2222,7 +2238,7 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1">
+    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -2264,7 +2280,7 @@
       </c>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1">
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -2312,7 +2328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1">
+    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -2350,7 +2366,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1">
+    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -2393,7 +2409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -2430,7 +2446,7 @@
       </c>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1">
+    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -2475,82 +2491,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31648440-34B2-41E0-A4DA-8D4AD12FC756}">
-  <dimension ref="A1:BJ35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BK35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0" xr3:uid="{354EE10B-ACE1-5338-88D3-2FA0829946D8}">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AB27" sqref="AB27"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="32.28515625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="6"/>
-    <col min="16" max="16" width="5.7109375" style="6" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="7" style="6" customWidth="1"/>
-    <col min="19" max="19" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.140625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="9.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" style="6" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" style="6" customWidth="1"/>
-    <col min="25" max="25" width="22.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="39.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="6" customWidth="1"/>
-    <col min="29" max="29" width="31.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.28515625" style="6" customWidth="1"/>
-    <col min="31" max="31" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.7109375" style="6" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" style="6"/>
-    <col min="34" max="34" width="5.7109375" style="6" customWidth="1"/>
-    <col min="35" max="35" width="17.140625" style="6" customWidth="1"/>
-    <col min="36" max="36" width="6.7109375" style="6" customWidth="1"/>
-    <col min="37" max="37" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8" style="6" customWidth="1"/>
-    <col min="39" max="39" width="14.42578125" style="6"/>
-    <col min="40" max="40" width="7.140625" style="6" customWidth="1"/>
-    <col min="41" max="41" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="7.140625" style="6" customWidth="1"/>
-    <col min="43" max="43" width="14.42578125" style="6"/>
-    <col min="44" max="44" width="8.28515625" style="6" customWidth="1"/>
-    <col min="45" max="45" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.28515625" style="6" customWidth="1"/>
-    <col min="47" max="47" width="14.42578125" style="6"/>
-    <col min="48" max="48" width="7.5703125" style="6" customWidth="1"/>
-    <col min="49" max="49" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.7109375" style="6" customWidth="1"/>
-    <col min="51" max="51" width="14.42578125" style="6"/>
-    <col min="52" max="52" width="5.7109375" style="6" customWidth="1"/>
-    <col min="53" max="53" width="14.42578125" style="6"/>
-    <col min="54" max="54" width="5.7109375" style="6" customWidth="1"/>
-    <col min="55" max="55" width="14.42578125" style="6"/>
-    <col min="56" max="56" width="5.7109375" style="6" customWidth="1"/>
-    <col min="57" max="57" width="14.42578125" style="6"/>
-    <col min="58" max="58" width="6.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="14.42578125" style="6"/>
-    <col min="60" max="60" width="5.7109375" style="6" customWidth="1"/>
-    <col min="61" max="61" width="14.42578125" style="6"/>
-    <col min="62" max="62" width="8.28515625" style="6" customWidth="1"/>
-    <col min="63" max="16384" width="14.42578125" style="6"/>
+    <col min="1" max="1" width="23.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="32.33203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="6"/>
+    <col min="17" max="17" width="5.6640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="7" style="6" customWidth="1"/>
+    <col min="20" max="20" width="25.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.1640625" style="6" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.6640625" style="6" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" style="6" customWidth="1"/>
+    <col min="26" max="26" width="22.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.33203125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="39.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8" style="6" customWidth="1"/>
+    <col min="30" max="30" width="31.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.33203125" style="6" customWidth="1"/>
+    <col min="32" max="32" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.6640625" style="6" customWidth="1"/>
+    <col min="34" max="34" width="14.5" style="6"/>
+    <col min="35" max="35" width="5.6640625" style="6" customWidth="1"/>
+    <col min="36" max="36" width="17.1640625" style="6" customWidth="1"/>
+    <col min="37" max="37" width="6.6640625" style="6" customWidth="1"/>
+    <col min="38" max="38" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" style="6" customWidth="1"/>
+    <col min="40" max="40" width="14.5" style="6"/>
+    <col min="41" max="41" width="7.1640625" style="6" customWidth="1"/>
+    <col min="42" max="42" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.1640625" style="6" customWidth="1"/>
+    <col min="44" max="44" width="14.5" style="6"/>
+    <col min="45" max="45" width="8.33203125" style="6" customWidth="1"/>
+    <col min="46" max="46" width="18" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.33203125" style="6" customWidth="1"/>
+    <col min="48" max="48" width="14.5" style="6"/>
+    <col min="49" max="49" width="7.5" style="6" customWidth="1"/>
+    <col min="50" max="50" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="7.6640625" style="6" customWidth="1"/>
+    <col min="52" max="52" width="14.5" style="6"/>
+    <col min="53" max="53" width="5.6640625" style="6" customWidth="1"/>
+    <col min="54" max="54" width="14.5" style="6"/>
+    <col min="55" max="55" width="5.6640625" style="6" customWidth="1"/>
+    <col min="56" max="56" width="14.5" style="6"/>
+    <col min="57" max="57" width="5.6640625" style="6" customWidth="1"/>
+    <col min="58" max="58" width="14.5" style="6"/>
+    <col min="59" max="59" width="6.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="14.5" style="6"/>
+    <col min="61" max="61" width="5.6640625" style="6" customWidth="1"/>
+    <col min="62" max="62" width="14.5" style="6"/>
+    <col min="63" max="63" width="8.33203125" style="6" customWidth="1"/>
+    <col min="64" max="16384" width="14.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="12.75">
+    <row r="1" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2581,164 +2598,165 @@
       <c r="J1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="15"/>
+      <c r="L1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AL1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:62" ht="12.75">
+    <row r="2" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2765,57 +2783,57 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>0.7</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>0.3</v>
       </c>
-      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="1">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>0.77</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>0.78</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AC2" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
@@ -2823,86 +2841,87 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
-      <c r="AK2" s="9" t="s">
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AM2" s="1">
         <v>0.78</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN2" s="1">
+      <c r="AO2" s="1">
         <v>0.77</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AP2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP2" s="1">
+      <c r="AQ2" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AR2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT2" s="1">
+      <c r="AU2" s="1">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="AU2" s="5" t="s">
+      <c r="AV2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV2" s="1">
+      <c r="AW2" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX2" s="1">
+      <c r="AY2" s="1">
         <v>-0.79</v>
       </c>
-      <c r="AY2" s="1" t="s">
+      <c r="AZ2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ2" s="1">
+      <c r="BA2" s="1">
         <v>0.87</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB2" s="1">
+      <c r="BC2" s="1">
         <v>0.77</v>
       </c>
-      <c r="BC2" s="1" t="s">
+      <c r="BD2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD2" s="1">
+      <c r="BE2" s="1">
         <v>-0.59</v>
       </c>
-      <c r="BE2" s="1" t="s">
+      <c r="BF2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF2" s="1">
+      <c r="BG2" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BG2" s="1" t="s">
+      <c r="BH2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH2" s="1">
+      <c r="BI2" s="1">
         <v>-0.79</v>
       </c>
-      <c r="BI2" s="1" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ2" s="1">
+      <c r="BK2" s="1">
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:62" s="8" customFormat="1" ht="12.75">
+    <row r="3" spans="1:63" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -2925,53 +2944,53 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="16"/>
+      <c r="L3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="12">
+      <c r="M3" s="12">
         <v>0.65</v>
       </c>
-      <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="1">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="12">
+      <c r="U3" s="12">
         <v>0.71</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="12">
+      <c r="Y3" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA3" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AC3" s="1">
         <v>-0.65</v>
       </c>
-      <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
@@ -2979,86 +2998,87 @@
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
-      <c r="AK3" s="13" t="s">
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AL3" s="12">
+      <c r="AM3" s="12">
         <v>0.15</v>
       </c>
-      <c r="AM3" s="11" t="s">
+      <c r="AN3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AN3" s="12">
+      <c r="AO3" s="12">
         <v>0.71</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AP3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AP3" s="12">
+      <c r="AQ3" s="12">
         <v>0.74</v>
       </c>
-      <c r="AQ3" s="11" t="s">
+      <c r="AR3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AR3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AS3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AT3" s="12">
+      <c r="AU3" s="12">
         <v>-0.48</v>
       </c>
-      <c r="AU3" s="11" t="s">
+      <c r="AV3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AV3" s="1">
+      <c r="AW3" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AX3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX3" s="12">
+      <c r="AY3" s="12">
         <v>-0.74</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="AZ3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AZ3" s="12">
+      <c r="BA3" s="12">
         <v>0.81</v>
       </c>
-      <c r="BA3" s="12" t="s">
+      <c r="BB3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="BB3" s="12">
+      <c r="BC3" s="12">
         <v>0.71</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BD3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BD3" s="12">
+      <c r="BE3" s="12">
         <v>-0.54</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BF3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="BF3" s="12">
+      <c r="BG3" s="12">
         <v>0.74</v>
       </c>
-      <c r="BG3" s="12" t="s">
+      <c r="BH3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BH3" s="12">
+      <c r="BI3" s="12">
         <v>-0.74</v>
       </c>
-      <c r="BI3" s="12" t="s">
+      <c r="BJ3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="BJ3" s="12">
+      <c r="BK3" s="12">
         <v>-0.48</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="12.75">
+    <row r="4" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -3085,152 +3105,153 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="16"/>
+      <c r="L4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>0.8</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>0.2</v>
       </c>
-      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="1">
-        <v>0</v>
-      </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>0.78</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="12">
+      <c r="Y4" s="12">
         <v>-0.2</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA4" s="1">
         <v>-0.71</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB4" s="1">
+      <c r="AC4" s="1">
         <v>-0.76</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AD4" s="1">
+      <c r="AE4" s="1">
         <v>0.7</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <v>0.3</v>
       </c>
-      <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="9" t="s">
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <v>0.71</v>
       </c>
-      <c r="AM4" s="5" t="s">
+      <c r="AN4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN4" s="1">
+      <c r="AO4" s="1">
         <v>0.78</v>
       </c>
-      <c r="AO4" s="5" t="s">
+      <c r="AP4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP4" s="1">
+      <c r="AQ4" s="1">
         <v>0.5</v>
       </c>
-      <c r="AQ4" s="5" t="s">
+      <c r="AR4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="5" t="s">
+      <c r="AS4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AU4" s="1">
         <v>-0.5</v>
       </c>
-      <c r="AU4" s="5" t="s">
+      <c r="AV4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV4" s="1">
+      <c r="AW4" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW4" s="5" t="s">
+      <c r="AX4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX4" s="1">
+      <c r="AY4" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ4" s="1">
+      <c r="BA4" s="1">
         <v>0.78</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BB4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB4" s="1">
+      <c r="BC4" s="1">
         <v>0.78</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BD4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD4" s="1">
+      <c r="BE4" s="1">
         <v>-0.65</v>
       </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BF4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF4" s="1">
+      <c r="BG4" s="1">
         <v>0.5</v>
       </c>
-      <c r="BG4" s="1" t="s">
+      <c r="BH4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH4" s="1">
+      <c r="BI4" s="1">
         <v>-0.75</v>
       </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BJ4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ4" s="1">
+      <c r="BK4" s="1">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="12.75">
+    <row r="5" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -3249,140 +3270,141 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R5" s="1">
-        <v>0</v>
-      </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>0.78</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X5" s="12">
+      <c r="Y5" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA5" s="1">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB5" s="1">
+      <c r="AC5" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AC5" s="5" t="s">
+      <c r="AD5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AD5" s="1">
+      <c r="AE5" s="1">
         <v>0.7</v>
       </c>
-      <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
-      <c r="AK5" s="9" t="s">
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AM5" s="1">
         <v>0.35</v>
       </c>
-      <c r="AM5" s="5" t="s">
+      <c r="AN5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN5" s="1">
+      <c r="AO5" s="1">
         <v>0.78</v>
       </c>
-      <c r="AO5" s="5" t="s">
+      <c r="AP5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP5" s="1">
+      <c r="AQ5" s="1">
         <v>0.51</v>
       </c>
-      <c r="AQ5" s="5" t="s">
+      <c r="AR5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="5" t="s">
+      <c r="AS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT5" s="1">
+      <c r="AU5" s="1">
         <v>-0.49</v>
       </c>
-      <c r="AU5" s="5" t="s">
+      <c r="AV5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV5" s="1">
+      <c r="AW5" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX5" s="1">
+      <c r="AY5" s="1">
         <v>-0.65</v>
       </c>
-      <c r="AY5" s="1" t="s">
+      <c r="AZ5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ5" s="1">
+      <c r="BA5" s="1">
         <v>0.78</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BB5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB5" s="1">
+      <c r="BC5" s="1">
         <v>0.78</v>
       </c>
-      <c r="BC5" s="1" t="s">
+      <c r="BD5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD5" s="1">
+      <c r="BE5" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="BE5" s="1" t="s">
+      <c r="BF5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="1">
+      <c r="BG5" s="1">
         <v>0.51</v>
       </c>
-      <c r="BG5" s="1" t="s">
+      <c r="BH5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH5" s="1">
+      <c r="BI5" s="1">
         <v>-0.65</v>
       </c>
-      <c r="BI5" s="1" t="s">
+      <c r="BJ5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ5" s="1">
+      <c r="BK5" s="1">
         <v>-0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="12.75">
+    <row r="6" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -3401,144 +3423,145 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>0.78</v>
       </c>
-      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="1">
-        <v>0</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>0.62</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X6" s="12">
+      <c r="Y6" s="12">
         <v>-0.12</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="Z6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA6" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AC6" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AC6" s="5" t="s">
+      <c r="AD6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AE6" s="1">
         <v>0.7</v>
       </c>
-      <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="9" t="s">
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AM6" s="1">
         <v>0.35</v>
       </c>
-      <c r="AM6" s="5" t="s">
+      <c r="AN6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN6" s="1">
+      <c r="AO6" s="1">
         <v>0.62</v>
       </c>
-      <c r="AO6" s="5" t="s">
+      <c r="AP6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP6" s="1">
+      <c r="AQ6" s="1">
         <v>0.47</v>
       </c>
-      <c r="AQ6" s="5" t="s">
+      <c r="AR6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="5" t="s">
+      <c r="AS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT6" s="1">
+      <c r="AU6" s="1">
         <v>-0.47</v>
       </c>
-      <c r="AU6" s="5" t="s">
+      <c r="AV6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV6" s="1">
+      <c r="AW6" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW6" s="5" t="s">
+      <c r="AX6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX6" s="1">
+      <c r="AY6" s="1">
         <v>-0.35</v>
       </c>
-      <c r="AY6" s="1" t="s">
+      <c r="AZ6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ6" s="1">
+      <c r="BA6" s="1">
         <v>0.62</v>
       </c>
-      <c r="BA6" s="1" t="s">
+      <c r="BB6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB6" s="1">
+      <c r="BC6" s="1">
         <v>0.62</v>
       </c>
-      <c r="BC6" s="1" t="s">
+      <c r="BD6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD6" s="1">
+      <c r="BE6" s="1">
         <v>-0.33</v>
       </c>
-      <c r="BE6" s="1" t="s">
+      <c r="BF6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF6" s="1">
+      <c r="BG6" s="1">
         <v>0.47</v>
       </c>
-      <c r="BG6" s="1" t="s">
+      <c r="BH6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH6" s="1">
+      <c r="BI6" s="1">
         <v>-0.35</v>
       </c>
-      <c r="BI6" s="1" t="s">
+      <c r="BJ6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ6" s="1">
+      <c r="BK6" s="1">
         <v>-0.47</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="12.75">
+    <row r="7" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -3557,53 +3580,53 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="16"/>
+      <c r="L7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>0.7</v>
       </c>
-      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R7" s="1">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>0.65</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="12">
+      <c r="Y7" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AA7" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AC7" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
@@ -3611,86 +3634,87 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AK7" s="9" t="s">
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL7" s="1">
+      <c r="AM7" s="1">
         <v>0.5</v>
       </c>
-      <c r="AM7" s="5" t="s">
+      <c r="AN7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN7" s="1">
+      <c r="AO7" s="1">
         <v>0.65</v>
       </c>
-      <c r="AO7" s="5" t="s">
+      <c r="AP7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP7" s="1">
+      <c r="AQ7" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AQ7" s="5" t="s">
+      <c r="AR7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="5" t="s">
+      <c r="AS7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT7" s="1">
+      <c r="AU7" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AU7" s="5" t="s">
+      <c r="AV7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV7" s="1">
+      <c r="AW7" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW7" s="5" t="s">
+      <c r="AX7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX7" s="1">
+      <c r="AY7" s="1">
         <v>-0.4</v>
       </c>
-      <c r="AY7" s="1" t="s">
+      <c r="AZ7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ7" s="1">
+      <c r="BA7" s="1">
         <v>0.65</v>
       </c>
-      <c r="BA7" s="1" t="s">
+      <c r="BB7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB7" s="1">
+      <c r="BC7" s="1">
         <v>0.65</v>
       </c>
-      <c r="BC7" s="1" t="s">
+      <c r="BD7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD7" s="1">
+      <c r="BE7" s="1">
         <v>-0.3</v>
       </c>
-      <c r="BE7" s="1" t="s">
+      <c r="BF7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF7" s="1">
+      <c r="BG7" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BG7" s="1" t="s">
+      <c r="BH7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH7" s="1">
+      <c r="BI7" s="1">
         <v>-0.4</v>
       </c>
-      <c r="BI7" s="1" t="s">
+      <c r="BJ7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ7" s="1">
+      <c r="BK7" s="1">
         <v>-0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:62" ht="12.75">
+    <row r="8" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -3721,152 +3745,153 @@
       <c r="J8" s="1">
         <v>0.2</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="16"/>
+      <c r="L8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>0.4</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>0.05</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R8" s="1">
-        <v>0</v>
-      </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>0.75</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W8" s="1" t="s">
+      <c r="X8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="12">
+      <c r="Y8" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="Z8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AA8" s="1">
         <v>-0.74</v>
       </c>
-      <c r="AA8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB8" s="1">
+      <c r="AC8" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AC8" s="5" t="s">
+      <c r="AD8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AE8" s="1">
         <v>0.7</v>
       </c>
-      <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-      <c r="AK8" s="9" t="s">
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AM8" s="1">
         <v>0.62</v>
       </c>
-      <c r="AM8" s="5" t="s">
+      <c r="AN8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="1">
+      <c r="AO8" s="1">
         <v>0.75</v>
       </c>
-      <c r="AO8" s="5" t="s">
+      <c r="AP8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP8" s="1">
+      <c r="AQ8" s="1">
         <v>0.5</v>
       </c>
-      <c r="AQ8" s="5" t="s">
+      <c r="AR8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="5" t="s">
+      <c r="AS8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT8" s="1">
+      <c r="AU8" s="1">
         <v>-0.2</v>
       </c>
-      <c r="AU8" s="5" t="s">
+      <c r="AV8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV8" s="1">
+      <c r="AW8" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW8" s="5" t="s">
+      <c r="AX8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX8" s="1">
+      <c r="AY8" s="1">
         <v>-0.49</v>
       </c>
-      <c r="AY8" s="1" t="s">
+      <c r="AZ8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ8" s="1">
+      <c r="BA8" s="1">
         <v>0.75</v>
       </c>
-      <c r="BA8" s="1" t="s">
+      <c r="BB8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB8" s="1">
+      <c r="BC8" s="1">
         <v>0.75</v>
       </c>
-      <c r="BC8" s="1" t="s">
+      <c r="BD8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD8" s="1">
+      <c r="BE8" s="1">
         <v>-0.39</v>
       </c>
-      <c r="BE8" s="1" t="s">
+      <c r="BF8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF8" s="1">
+      <c r="BG8" s="1">
         <v>0.5</v>
       </c>
-      <c r="BG8" s="1" t="s">
+      <c r="BH8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH8" s="1">
+      <c r="BI8" s="1">
         <v>-0.49</v>
       </c>
-      <c r="BI8" s="1" t="s">
+      <c r="BJ8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ8" s="1">
+      <c r="BK8" s="1">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="12.75">
+    <row r="9" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -3889,152 +3914,153 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
+      <c r="K9" s="16"/>
+      <c r="L9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>0.75</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>0.25</v>
       </c>
-      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1" t="s">
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R9" s="1">
-        <v>0</v>
-      </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>0.79</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W9" s="1" t="s">
+      <c r="X9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X9" s="12">
+      <c r="Y9" s="12">
         <v>-0.31</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA9" s="1" t="s">
+      <c r="AB9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AC9" s="1">
         <v>-0.35</v>
       </c>
-      <c r="AC9" s="1" t="s">
+      <c r="AD9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AE9" s="1">
         <v>0.68</v>
       </c>
-      <c r="AE9" s="5" t="s">
+      <c r="AF9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AF9" s="1">
+      <c r="AG9" s="1">
         <v>0.2</v>
       </c>
-      <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
-      <c r="AK9" s="9" t="s">
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL9" s="1">
+      <c r="AM9" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AM9" s="5" t="s">
+      <c r="AN9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN9" s="1">
+      <c r="AO9" s="1">
         <v>0.79</v>
       </c>
-      <c r="AO9" s="5" t="s">
+      <c r="AP9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP9" s="1">
+      <c r="AQ9" s="1">
         <v>0.79</v>
       </c>
-      <c r="AQ9" s="5" t="s">
+      <c r="AR9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="5" t="s">
+      <c r="AS9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT9" s="1">
+      <c r="AU9" s="1">
         <v>-0.6</v>
       </c>
-      <c r="AU9" s="5" t="s">
+      <c r="AV9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV9" s="1">
+      <c r="AW9" s="1">
         <v>-0.35</v>
       </c>
-      <c r="AW9" s="5" t="s">
+      <c r="AX9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX9" s="1">
+      <c r="AY9" s="1">
         <v>-0.47</v>
       </c>
-      <c r="AY9" s="1" t="s">
+      <c r="AZ9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ9" s="1">
+      <c r="BA9" s="1">
         <v>0.8</v>
       </c>
-      <c r="BA9" s="1" t="s">
+      <c r="BB9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB9" s="1">
+      <c r="BC9" s="1">
         <v>0.7</v>
       </c>
-      <c r="BC9" s="1" t="s">
+      <c r="BD9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD9" s="1">
+      <c r="BE9" s="1">
         <v>-0.37</v>
       </c>
-      <c r="BE9" s="1" t="s">
+      <c r="BF9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF9" s="1">
+      <c r="BG9" s="1">
         <v>0.79</v>
       </c>
-      <c r="BG9" s="1" t="s">
+      <c r="BH9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH9" s="1">
+      <c r="BI9" s="1">
         <v>-0.47</v>
       </c>
-      <c r="BI9" s="1" t="s">
+      <c r="BJ9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ9" s="1">
+      <c r="BK9" s="1">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:62" ht="12.75">
+    <row r="10" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -4057,148 +4083,149 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
+      <c r="K10" s="16"/>
+      <c r="L10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>0.75</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>0.25</v>
       </c>
-      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R10" s="1">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>0.71</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W10" s="1" t="s">
+      <c r="X10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X10" s="12">
+      <c r="Y10" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="Z10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AA10" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA10" s="1" t="s">
+      <c r="AB10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="AC10" s="1">
         <v>-0.43</v>
       </c>
-      <c r="AC10" s="1" t="s">
+      <c r="AD10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="AE10" s="1">
         <v>0.65</v>
       </c>
-      <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="9" t="s">
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="AM10" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AM10" s="5" t="s">
+      <c r="AN10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="AO10" s="1">
         <v>0.71</v>
       </c>
-      <c r="AO10" s="5" t="s">
+      <c r="AP10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="AQ10" s="1">
         <v>0.78</v>
       </c>
-      <c r="AQ10" s="5" t="s">
+      <c r="AR10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="5" t="s">
+      <c r="AS10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT10" s="1">
+      <c r="AU10" s="1">
         <v>-0.74</v>
       </c>
-      <c r="AU10" s="5" t="s">
+      <c r="AV10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV10" s="1">
+      <c r="AW10" s="1">
         <v>0.42</v>
       </c>
-      <c r="AW10" s="5" t="s">
+      <c r="AX10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX10" s="1">
+      <c r="AY10" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AY10" s="1" t="s">
+      <c r="AZ10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ10" s="1">
+      <c r="BA10" s="1">
         <v>0.81</v>
       </c>
-      <c r="BA10" s="1" t="s">
+      <c r="BB10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB10" s="1">
+      <c r="BC10" s="1">
         <v>0.71</v>
       </c>
-      <c r="BC10" s="1" t="s">
+      <c r="BD10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD10" s="1">
+      <c r="BE10" s="1">
         <v>-0.45</v>
       </c>
-      <c r="BE10" s="1" t="s">
+      <c r="BF10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF10" s="1">
+      <c r="BG10" s="1">
         <v>0.68</v>
       </c>
-      <c r="BG10" s="1" t="s">
+      <c r="BH10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH10" s="1">
+      <c r="BI10" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="BI10" s="1" t="s">
+      <c r="BJ10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ10" s="1">
+      <c r="BK10" s="1">
         <v>-0.74</v>
       </c>
     </row>
-    <row r="11" spans="1:62" ht="12.75">
+    <row r="11" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -4217,49 +4244,49 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R11" s="1">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T11" s="1">
-        <v>0</v>
-      </c>
-      <c r="U11" s="1" t="s">
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="1" t="s">
+      <c r="Y11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="1" t="s">
+      <c r="AA11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="1"/>
+      <c r="AC11" s="1">
+        <v>0</v>
+      </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -4267,86 +4294,87 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="9" t="s">
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AM11" s="1">
         <v>-0.78</v>
       </c>
-      <c r="AM11" s="5" t="s">
+      <c r="AN11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN11" s="1">
+      <c r="AO11" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AO11" s="5" t="s">
+      <c r="AP11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP11" s="1">
+      <c r="AQ11" s="1">
         <v>-0.65</v>
       </c>
-      <c r="AQ11" s="5" t="s">
+      <c r="AR11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR11" s="1">
+      <c r="AS11" s="1">
         <v>0.8</v>
       </c>
-      <c r="AS11" s="5" t="s">
+      <c r="AT11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT11" s="1">
+      <c r="AU11" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AU11" s="5" t="s">
+      <c r="AV11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV11" s="1">
+      <c r="AW11" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW11" s="5" t="s">
+      <c r="AX11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX11" s="1">
+      <c r="AY11" s="1">
         <v>0.7</v>
       </c>
-      <c r="AY11" s="1" t="s">
+      <c r="AZ11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ11" s="1">
+      <c r="BA11" s="1">
         <v>-0.78</v>
       </c>
-      <c r="BA11" s="1" t="s">
+      <c r="BB11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB11" s="1">
+      <c r="BC11" s="1">
         <v>-0.7</v>
       </c>
-      <c r="BC11" s="1" t="s">
+      <c r="BD11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD11" s="1">
+      <c r="BE11" s="1">
         <v>0.69</v>
       </c>
-      <c r="BE11" s="1" t="s">
+      <c r="BF11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF11" s="1">
+      <c r="BG11" s="1">
         <v>-0.95</v>
       </c>
-      <c r="BG11" s="1" t="s">
+      <c r="BH11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH11" s="1">
+      <c r="BI11" s="1">
         <v>0.78</v>
       </c>
-      <c r="BI11" s="1" t="s">
+      <c r="BJ11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ11" s="1">
+      <c r="BK11" s="1">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:62" ht="12.75">
+    <row r="12" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -4369,144 +4397,145 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="16"/>
+      <c r="L12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>0.74</v>
       </c>
-      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>0.74</v>
       </c>
-      <c r="U12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="X12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <v>0.78</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="Z12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AA12" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA12" s="1" t="s">
+      <c r="AB12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB12" s="12">
+      <c r="AC12" s="12">
         <v>-0.42</v>
       </c>
-      <c r="AC12" s="5" t="s">
+      <c r="AD12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AD12" s="1">
+      <c r="AE12" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="9" t="s">
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AM12" s="1">
         <v>0.75</v>
       </c>
-      <c r="AM12" s="5" t="s">
+      <c r="AN12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN12" s="1">
+      <c r="AO12" s="1">
         <v>0.74</v>
       </c>
-      <c r="AO12" s="5" t="s">
+      <c r="AP12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP12" s="1">
+      <c r="AQ12" s="1">
         <v>0.7</v>
       </c>
-      <c r="AQ12" s="5" t="s">
+      <c r="AR12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="5" t="s">
+      <c r="AS12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT12" s="1">
+      <c r="AU12" s="1">
         <v>-0.6</v>
       </c>
-      <c r="AU12" s="5" t="s">
+      <c r="AV12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV12" s="1">
+      <c r="AW12" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW12" s="5" t="s">
+      <c r="AX12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX12" s="1">
+      <c r="AY12" s="1">
         <v>-0.26</v>
       </c>
-      <c r="AY12" s="1" t="s">
+      <c r="AZ12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ12" s="1">
+      <c r="BA12" s="1">
         <v>0.74</v>
       </c>
-      <c r="BA12" s="1" t="s">
+      <c r="BB12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB12" s="1">
+      <c r="BC12" s="1">
         <v>0.74</v>
       </c>
-      <c r="BC12" s="1" t="s">
+      <c r="BD12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD12" s="1">
+      <c r="BE12" s="1">
         <v>-0.16</v>
       </c>
-      <c r="BE12" s="1" t="s">
+      <c r="BF12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF12" s="1">
+      <c r="BG12" s="1">
         <v>0.7</v>
       </c>
-      <c r="BG12" s="1" t="s">
+      <c r="BH12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH12" s="1">
+      <c r="BI12" s="1">
         <v>-0.26</v>
       </c>
-      <c r="BI12" s="1" t="s">
+      <c r="BJ12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ12" s="1">
+      <c r="BK12" s="1">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="12.75">
+    <row r="13" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
@@ -4529,53 +4558,53 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="16"/>
+      <c r="L13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>0.74</v>
       </c>
-      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R13" s="1">
-        <v>0</v>
-      </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>0.73</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W13" s="1" t="s">
+      <c r="X13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <v>0.78</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="Z13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AA13" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA13" s="1" t="s">
+      <c r="AB13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB13" s="12">
+      <c r="AC13" s="12">
         <v>-0.65</v>
       </c>
-      <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
@@ -4583,86 +4612,87 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="9" t="s">
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AM13" s="1">
         <v>0.6</v>
       </c>
-      <c r="AM13" s="5" t="s">
+      <c r="AN13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN13" s="1">
+      <c r="AO13" s="1">
         <v>0.73</v>
       </c>
-      <c r="AO13" s="5" t="s">
+      <c r="AP13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP13" s="1">
+      <c r="AQ13" s="1">
         <v>0.51</v>
       </c>
-      <c r="AQ13" s="5" t="s">
+      <c r="AR13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="5" t="s">
+      <c r="AS13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT13" s="1">
+      <c r="AU13" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AU13" s="5" t="s">
+      <c r="AV13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV13" s="1">
+      <c r="AW13" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW13" s="5" t="s">
+      <c r="AX13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX13" s="1">
+      <c r="AY13" s="1">
         <v>-0.48</v>
       </c>
-      <c r="AY13" s="1" t="s">
+      <c r="AZ13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ13" s="1">
+      <c r="BA13" s="1">
         <v>0.73</v>
       </c>
-      <c r="BA13" s="1" t="s">
+      <c r="BB13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB13" s="1">
+      <c r="BC13" s="1">
         <v>0.73</v>
       </c>
-      <c r="BC13" s="1" t="s">
+      <c r="BD13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD13" s="1">
+      <c r="BE13" s="1">
         <v>-0.38</v>
       </c>
-      <c r="BE13" s="1" t="s">
+      <c r="BF13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF13" s="1">
+      <c r="BG13" s="1">
         <v>0.51</v>
       </c>
-      <c r="BG13" s="1" t="s">
+      <c r="BH13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH13" s="1">
+      <c r="BI13" s="1">
         <v>-0.48</v>
       </c>
-      <c r="BI13" s="1" t="s">
+      <c r="BJ13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ13" s="1">
+      <c r="BK13" s="1">
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:62" ht="12.75">
+    <row r="14" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
@@ -4685,148 +4715,149 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
+      <c r="K14" s="16"/>
+      <c r="L14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>0.7</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="N14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>0.3</v>
       </c>
-      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1" t="s">
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R14" s="1">
-        <v>0</v>
-      </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="1">
         <v>0.76</v>
       </c>
-      <c r="U14" s="1" t="s">
+      <c r="V14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W14" s="1" t="s">
+      <c r="X14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <v>0.78</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="Z14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z14" s="1">
+      <c r="AA14" s="1">
         <v>-0.54</v>
       </c>
-      <c r="AA14" s="1" t="s">
+      <c r="AB14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB14" s="12">
+      <c r="AC14" s="12">
         <v>-0.42</v>
       </c>
-      <c r="AC14" s="5" t="s">
+      <c r="AD14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AD14" s="1">
+      <c r="AE14" s="1">
         <v>0.67</v>
       </c>
-      <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
-      <c r="AK14" s="9" t="s">
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AM14" s="1">
         <v>0.77</v>
       </c>
-      <c r="AM14" s="5" t="s">
+      <c r="AN14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN14" s="1">
+      <c r="AO14" s="1">
         <v>0.76</v>
       </c>
-      <c r="AO14" s="5" t="s">
+      <c r="AP14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP14" s="1">
+      <c r="AQ14" s="1">
         <v>0.6</v>
       </c>
-      <c r="AQ14" s="5" t="s">
+      <c r="AR14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="5" t="s">
+      <c r="AS14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT14" s="1">
+      <c r="AU14" s="1">
         <v>-0.35</v>
       </c>
-      <c r="AU14" s="5" t="s">
+      <c r="AV14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV14" s="1">
+      <c r="AW14" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW14" s="5" t="s">
+      <c r="AX14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX14" s="1">
+      <c r="AY14" s="1">
         <v>-0.4</v>
       </c>
-      <c r="AY14" s="1" t="s">
+      <c r="AZ14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ14" s="1">
+      <c r="BA14" s="1">
         <v>0.76</v>
       </c>
-      <c r="BA14" s="1" t="s">
+      <c r="BB14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB14" s="1">
+      <c r="BC14" s="1">
         <v>0.76</v>
       </c>
-      <c r="BC14" s="1" t="s">
+      <c r="BD14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD14" s="1">
+      <c r="BE14" s="1">
         <v>-0.35</v>
       </c>
-      <c r="BE14" s="1" t="s">
+      <c r="BF14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF14" s="1">
+      <c r="BG14" s="1">
         <v>0.6</v>
       </c>
-      <c r="BG14" s="1" t="s">
+      <c r="BH14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH14" s="1">
+      <c r="BI14" s="1">
         <v>-0.4</v>
       </c>
-      <c r="BI14" s="1" t="s">
+      <c r="BJ14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ14" s="1">
+      <c r="BK14" s="1">
         <v>-0.35</v>
       </c>
     </row>
-    <row r="15" spans="1:62" ht="12.75">
+    <row r="15" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -4853,160 +4884,161 @@
       <c r="J15" s="1">
         <v>0.05</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" s="16"/>
+      <c r="L15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>0.65</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="N15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>0.15</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="1">
-        <v>0</v>
-      </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <v>-0.32</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X15" s="12">
+      <c r="Y15" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="AA15" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA15" s="1" t="s">
+      <c r="AB15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB15" s="12">
+      <c r="AC15" s="12">
         <v>-0.53</v>
       </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AE15" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AE15" s="5" t="s">
+      <c r="AF15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AF15" s="1">
+      <c r="AG15" s="1">
         <v>0.3</v>
       </c>
-      <c r="AG15" s="5" t="s">
+      <c r="AH15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AH15" s="1">
+      <c r="AI15" s="1">
         <v>0.15</v>
       </c>
-      <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
-      <c r="AK15" s="9" t="s">
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AM15" s="1">
         <v>-0.65</v>
       </c>
-      <c r="AM15" s="5" t="s">
+      <c r="AN15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN15" s="1">
+      <c r="AO15" s="1">
         <v>-0.32</v>
       </c>
-      <c r="AO15" s="5" t="s">
+      <c r="AP15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP15" s="1">
+      <c r="AQ15" s="1">
         <v>0.86</v>
       </c>
-      <c r="AQ15" s="5" t="s">
+      <c r="AR15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="5" t="s">
+      <c r="AS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT15" s="1">
+      <c r="AU15" s="1">
         <v>-0.05</v>
       </c>
-      <c r="AU15" s="5" t="s">
+      <c r="AV15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV15" s="1">
+      <c r="AW15" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW15" s="5" t="s">
+      <c r="AX15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX15" s="1">
+      <c r="AY15" s="1">
         <v>0.75</v>
       </c>
-      <c r="AY15" s="1" t="s">
+      <c r="AZ15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ15" s="1">
+      <c r="BA15" s="1">
         <v>-0.32</v>
       </c>
-      <c r="BA15" s="1" t="s">
+      <c r="BB15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB15" s="1">
+      <c r="BC15" s="1">
         <v>-0.32</v>
       </c>
-      <c r="BC15" s="1" t="s">
+      <c r="BD15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD15" s="1">
+      <c r="BE15" s="1">
         <v>0.75</v>
       </c>
-      <c r="BE15" s="1" t="s">
+      <c r="BF15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF15" s="1">
+      <c r="BG15" s="1">
         <v>0.76</v>
       </c>
-      <c r="BG15" s="1" t="s">
+      <c r="BH15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH15" s="1">
+      <c r="BI15" s="1">
         <v>0.65</v>
       </c>
-      <c r="BI15" s="1" t="s">
+      <c r="BJ15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ15" s="1">
+      <c r="BK15" s="1">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="12.75">
+    <row r="16" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -5029,57 +5061,57 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1" t="s">
+      <c r="K16" s="16"/>
+      <c r="L16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>0.65</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="N16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>0.15</v>
       </c>
-      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1" t="s">
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R16" s="1">
-        <v>0</v>
-      </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="1">
         <v>-0.42</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="V16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X16" s="12">
+      <c r="Y16" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="Z16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="AA16" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA16" s="1" t="s">
+      <c r="AB16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB16" s="12">
+      <c r="AC16" s="12">
         <v>-0.42</v>
       </c>
-      <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
@@ -5087,86 +5119,87 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
-      <c r="AK16" s="9" t="s">
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AM16" s="1">
         <v>-0.65</v>
       </c>
-      <c r="AM16" s="5" t="s">
+      <c r="AN16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN16" s="1">
+      <c r="AO16" s="1">
         <v>-0.42</v>
       </c>
-      <c r="AO16" s="5" t="s">
+      <c r="AP16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP16" s="1">
+      <c r="AQ16" s="1">
         <v>0.85</v>
       </c>
-      <c r="AQ16" s="5" t="s">
+      <c r="AR16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="5" t="s">
+      <c r="AS16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT16" s="1">
+      <c r="AU16" s="1">
         <v>-0.02</v>
       </c>
-      <c r="AU16" s="5" t="s">
+      <c r="AV16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV16" s="1">
+      <c r="AW16" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW16" s="5" t="s">
+      <c r="AX16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX16" s="1">
+      <c r="AY16" s="1">
         <v>0.75</v>
       </c>
-      <c r="AY16" s="1" t="s">
+      <c r="AZ16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ16" s="1">
+      <c r="BA16" s="1">
         <v>-0.42</v>
       </c>
-      <c r="BA16" s="1" t="s">
+      <c r="BB16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB16" s="1">
+      <c r="BC16" s="1">
         <v>-0.42</v>
       </c>
-      <c r="BC16" s="1" t="s">
+      <c r="BD16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD16" s="1">
+      <c r="BE16" s="1">
         <v>0.75</v>
       </c>
-      <c r="BE16" s="1" t="s">
+      <c r="BF16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF16" s="1">
+      <c r="BG16" s="1">
         <v>0.75</v>
       </c>
-      <c r="BG16" s="1" t="s">
+      <c r="BH16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH16" s="1">
+      <c r="BI16" s="1">
         <v>0.65</v>
       </c>
-      <c r="BI16" s="1" t="s">
+      <c r="BJ16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ16" s="1">
+      <c r="BK16" s="1">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:62" ht="12.75">
+    <row r="17" spans="1:63" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -5193,152 +5226,153 @@
       <c r="J17" s="1">
         <v>0.1</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" s="16"/>
+      <c r="L17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>0.65</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>0.15</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R17" s="1">
-        <v>0</v>
-      </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="1">
         <v>0.2</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="V17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X17" s="12">
+      <c r="Y17" s="12">
         <v>-0.31</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="AA17" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA17" s="1" t="s">
+      <c r="AB17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB17" s="12">
+      <c r="AC17" s="12">
         <v>-0.41</v>
       </c>
-      <c r="AC17" s="1" t="s">
+      <c r="AD17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD17" s="1">
+      <c r="AE17" s="1">
         <v>0.76</v>
       </c>
-      <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
-      <c r="AK17" s="9" t="s">
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AM17" s="1">
         <v>-0.35</v>
       </c>
-      <c r="AM17" s="5" t="s">
+      <c r="AN17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN17" s="1">
+      <c r="AO17" s="1">
         <v>0.2</v>
       </c>
-      <c r="AO17" s="5" t="s">
+      <c r="AP17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP17" s="1">
+      <c r="AQ17" s="1">
         <v>0.85</v>
       </c>
-      <c r="AQ17" s="5" t="s">
+      <c r="AR17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="5" t="s">
+      <c r="AS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT17" s="1">
+      <c r="AU17" s="1">
         <v>-0.1</v>
       </c>
-      <c r="AU17" s="5" t="s">
+      <c r="AV17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV17" s="1">
+      <c r="AW17" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW17" s="5" t="s">
+      <c r="AX17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX17" s="1">
+      <c r="AY17" s="1">
         <v>0.7</v>
       </c>
-      <c r="AY17" s="1" t="s">
+      <c r="AZ17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ17" s="1">
+      <c r="BA17" s="1">
         <v>0.2</v>
       </c>
-      <c r="BA17" s="1" t="s">
+      <c r="BB17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB17" s="1">
+      <c r="BC17" s="1">
         <v>0.2</v>
       </c>
-      <c r="BC17" s="1" t="s">
+      <c r="BD17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD17" s="1">
+      <c r="BE17" s="1">
         <v>0.6</v>
       </c>
-      <c r="BE17" s="1" t="s">
+      <c r="BF17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF17" s="1">
+      <c r="BG17" s="1">
         <v>0.75</v>
       </c>
-      <c r="BG17" s="1" t="s">
+      <c r="BH17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH17" s="1">
+      <c r="BI17" s="1">
         <v>0.7</v>
       </c>
-      <c r="BI17" s="1" t="s">
+      <c r="BJ17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ17" s="1">
+      <c r="BK17" s="1">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:62" ht="15.75" customHeight="1">
+    <row r="18" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -5361,57 +5395,57 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1" t="s">
+      <c r="K18" s="16"/>
+      <c r="L18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>0.8</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="N18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="N18" s="1">
+      <c r="O18" s="1">
         <v>0.2</v>
       </c>
-      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R18" s="1">
-        <v>0</v>
-      </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <v>0.02</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X18" s="12">
+      <c r="Y18" s="12">
         <v>-0.42</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="Z18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="AA18" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA18" s="1" t="s">
+      <c r="AB18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB18" s="12">
+      <c r="AC18" s="12">
         <v>-0.42</v>
       </c>
-      <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
@@ -5419,86 +5453,87 @@
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
-      <c r="AK18" s="9" t="s">
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AM18" s="1">
         <v>0.35</v>
       </c>
-      <c r="AM18" s="5" t="s">
+      <c r="AN18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN18" s="1">
+      <c r="AO18" s="1">
         <v>0.02</v>
       </c>
-      <c r="AO18" s="5" t="s">
+      <c r="AP18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP18" s="1">
+      <c r="AQ18" s="1">
         <v>0.79</v>
       </c>
-      <c r="AQ18" s="5" t="s">
+      <c r="AR18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="5" t="s">
+      <c r="AS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT18" s="1">
+      <c r="AU18" s="1">
         <v>0.05</v>
       </c>
-      <c r="AU18" s="5" t="s">
+      <c r="AV18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV18" s="1">
+      <c r="AW18" s="1">
         <v>0.2</v>
       </c>
-      <c r="AW18" s="5" t="s">
+      <c r="AX18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX18" s="1">
+      <c r="AY18" s="1">
         <v>0.75</v>
       </c>
-      <c r="AY18" s="1" t="s">
+      <c r="AZ18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ18" s="1">
+      <c r="BA18" s="1">
         <v>0.02</v>
       </c>
-      <c r="BA18" s="1" t="s">
+      <c r="BB18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB18" s="1">
+      <c r="BC18" s="1">
         <v>0.02</v>
       </c>
-      <c r="BC18" s="1" t="s">
+      <c r="BD18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD18" s="1">
+      <c r="BE18" s="1">
         <v>0.65</v>
       </c>
-      <c r="BE18" s="1" t="s">
+      <c r="BF18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF18" s="1">
+      <c r="BG18" s="1">
         <v>0.75</v>
       </c>
-      <c r="BG18" s="1" t="s">
+      <c r="BH18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH18" s="1">
+      <c r="BI18" s="1">
         <v>0.75</v>
       </c>
-      <c r="BI18" s="1" t="s">
+      <c r="BJ18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ18" s="1">
+      <c r="BK18" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:62" ht="15.75" customHeight="1">
+    <row r="19" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -5521,148 +5556,149 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1" t="s">
+      <c r="K19" s="16"/>
+      <c r="L19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>0.8</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>0.2</v>
       </c>
-      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R19" s="1">
-        <v>0</v>
-      </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T19" s="1">
+      <c r="U19" s="1">
         <v>-0.45</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="X19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X19" s="12">
+      <c r="Y19" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="Z19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="AA19" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA19" s="1" t="s">
+      <c r="AB19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB19" s="1">
+      <c r="AC19" s="1">
         <v>0.3</v>
       </c>
-      <c r="AC19" s="1" t="s">
+      <c r="AD19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AD19" s="1">
+      <c r="AE19" s="1">
         <v>0.75</v>
       </c>
-      <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
-      <c r="AK19" s="9" t="s">
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL19" s="1">
+      <c r="AM19" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AM19" s="5" t="s">
+      <c r="AN19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN19" s="1">
+      <c r="AO19" s="1">
         <v>-0.45</v>
       </c>
-      <c r="AO19" s="5" t="s">
+      <c r="AP19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP19" s="1">
+      <c r="AQ19" s="1">
         <v>0.32</v>
       </c>
-      <c r="AQ19" s="5" t="s">
+      <c r="AR19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="5" t="s">
+      <c r="AS19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT19" s="1">
+      <c r="AU19" s="1">
         <v>0.7</v>
       </c>
-      <c r="AU19" s="5" t="s">
+      <c r="AV19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV19" s="1">
+      <c r="AW19" s="1">
         <v>0.65</v>
       </c>
-      <c r="AW19" s="5" t="s">
+      <c r="AX19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX19" s="1">
+      <c r="AY19" s="1">
         <v>0.64</v>
       </c>
-      <c r="AY19" s="1" t="s">
+      <c r="AZ19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ19" s="1">
+      <c r="BA19" s="1">
         <v>-0.45</v>
       </c>
-      <c r="BA19" s="1" t="s">
+      <c r="BB19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB19" s="1">
+      <c r="BC19" s="1">
         <v>-0.45</v>
       </c>
-      <c r="BC19" s="1" t="s">
+      <c r="BD19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD19" s="1">
+      <c r="BE19" s="1">
         <v>0.54</v>
       </c>
-      <c r="BE19" s="1" t="s">
+      <c r="BF19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF19" s="1">
+      <c r="BG19" s="1">
         <v>0.32</v>
       </c>
-      <c r="BG19" s="1" t="s">
+      <c r="BH19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH19" s="1">
+      <c r="BI19" s="1">
         <v>0.64</v>
       </c>
-      <c r="BI19" s="1" t="s">
+      <c r="BJ19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ19" s="1">
+      <c r="BK19" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:62" ht="15.75" customHeight="1">
+    <row r="20" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -5685,152 +5721,153 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="16"/>
+      <c r="L20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>0.8</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>0.2</v>
       </c>
-      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1" t="s">
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R20" s="1">
-        <v>0</v>
-      </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>0.38</v>
       </c>
-      <c r="U20" s="1" t="s">
+      <c r="V20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X20" s="12">
+      <c r="Y20" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Z20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="AA20" s="1">
         <v>-0.78</v>
       </c>
-      <c r="AA20" s="1" t="s">
+      <c r="AB20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB20" s="1">
+      <c r="AC20" s="1">
         <v>0.3</v>
       </c>
-      <c r="AC20" s="1" t="s">
+      <c r="AD20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AE20" s="1">
         <v>0.7</v>
       </c>
-      <c r="AE20" s="1" t="s">
+      <c r="AF20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AF20" s="1">
+      <c r="AG20" s="1">
         <v>0.3</v>
       </c>
-      <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
-      <c r="AK20" s="9" t="s">
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AM20" s="1">
         <v>0.12</v>
       </c>
-      <c r="AM20" s="5" t="s">
+      <c r="AN20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN20" s="1">
+      <c r="AO20" s="1">
         <v>0.38</v>
       </c>
-      <c r="AO20" s="5" t="s">
+      <c r="AP20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP20" s="1">
+      <c r="AQ20" s="1">
         <v>0.3</v>
       </c>
-      <c r="AQ20" s="5" t="s">
+      <c r="AR20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="5" t="s">
+      <c r="AS20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT20" s="1">
+      <c r="AU20" s="1">
         <v>0.7</v>
       </c>
-      <c r="AU20" s="5" t="s">
+      <c r="AV20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV20" s="1">
+      <c r="AW20" s="1">
         <v>0.6</v>
       </c>
-      <c r="AW20" s="5" t="s">
+      <c r="AX20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX20" s="1">
+      <c r="AY20" s="1">
         <v>0.72</v>
       </c>
-      <c r="AY20" s="1" t="s">
+      <c r="AZ20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ20" s="1">
+      <c r="BA20" s="1">
         <v>0.38</v>
       </c>
-      <c r="BA20" s="1" t="s">
+      <c r="BB20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB20" s="1">
+      <c r="BC20" s="1">
         <v>0.38</v>
       </c>
-      <c r="BC20" s="1" t="s">
+      <c r="BD20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD20" s="1">
+      <c r="BE20" s="1">
         <v>0.62</v>
       </c>
-      <c r="BE20" s="1" t="s">
+      <c r="BF20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF20" s="1">
+      <c r="BG20" s="1">
         <v>0.3</v>
       </c>
-      <c r="BG20" s="1" t="s">
+      <c r="BH20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH20" s="1">
+      <c r="BI20" s="1">
         <v>0.72</v>
       </c>
-      <c r="BI20" s="1" t="s">
+      <c r="BJ20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ20" s="1">
+      <c r="BK20" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:62" ht="15.75" customHeight="1">
+    <row r="21" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -5845,115 +5882,115 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R21" s="1">
-        <v>0</v>
-      </c>
-      <c r="S21" s="1" t="s">
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <v>0.65</v>
       </c>
-      <c r="U21" s="1" t="s">
+      <c r="V21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Y21" s="1">
         <v>0.65</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="AA21" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA21" s="1" t="s">
+      <c r="AB21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AC21" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AC21" s="5" t="s">
+      <c r="AD21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD21" s="5">
+      <c r="AE21" s="5">
         <v>0.79</v>
       </c>
-      <c r="AE21" s="5" t="s">
+      <c r="AF21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF21" s="5">
+      <c r="AG21" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AG21" s="5" t="s">
+      <c r="AH21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH21" s="1">
+      <c r="AI21" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI21" s="5" t="s">
+      <c r="AJ21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="9" t="s">
+      <c r="AK21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AM21" s="1">
         <v>0.74</v>
       </c>
-      <c r="AM21" s="5" t="s">
+      <c r="AN21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN21" s="1">
+      <c r="AO21" s="1">
         <v>0.7</v>
       </c>
-      <c r="AO21" s="5" t="s">
+      <c r="AP21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP21" s="1">
+      <c r="AQ21" s="1">
         <v>0.8</v>
       </c>
-      <c r="AQ21" s="5" t="s">
+      <c r="AR21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="5" t="s">
+      <c r="AS21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT21" s="1">
+      <c r="AU21" s="1">
         <v>-0.6</v>
       </c>
-      <c r="AU21" s="5" t="s">
+      <c r="AV21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV21" s="1">
+      <c r="AW21" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW21" s="5" t="s">
+      <c r="AX21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX21" s="1">
+      <c r="AY21" s="1">
         <v>-0.65</v>
       </c>
-      <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
@@ -5965,8 +6002,9 @@
       <c r="BH21" s="1"/>
       <c r="BI21" s="1"/>
       <c r="BJ21" s="1"/>
+      <c r="BK21" s="1"/>
     </row>
-    <row r="22" spans="1:62" ht="15.75" customHeight="1">
+    <row r="22" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -5981,115 +6019,115 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="K22" s="16"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <v>0.65</v>
       </c>
-      <c r="U22" s="1" t="s">
+      <c r="V22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W22" s="1" t="s">
+      <c r="X22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <v>0.65</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="Z22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="AA22" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA22" s="1" t="s">
+      <c r="AB22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AC22" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AC22" s="5" t="s">
+      <c r="AD22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD22" s="5">
+      <c r="AE22" s="5">
         <v>0.79</v>
       </c>
-      <c r="AE22" s="5" t="s">
+      <c r="AF22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF22" s="5">
+      <c r="AG22" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AG22" s="5" t="s">
+      <c r="AH22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH22" s="1">
+      <c r="AI22" s="1">
         <v>0.47</v>
       </c>
-      <c r="AI22" s="5" t="s">
+      <c r="AJ22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="9" t="s">
+      <c r="AK22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AM22" s="1">
         <v>0.75</v>
       </c>
-      <c r="AM22" s="5" t="s">
+      <c r="AN22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN22" s="1">
+      <c r="AO22" s="1">
         <v>0.71</v>
       </c>
-      <c r="AO22" s="5" t="s">
+      <c r="AP22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP22" s="1">
+      <c r="AQ22" s="1">
         <v>0.61</v>
       </c>
-      <c r="AQ22" s="5" t="s">
+      <c r="AR22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="5" t="s">
+      <c r="AS22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT22" s="1">
+      <c r="AU22" s="1">
         <v>-0.4</v>
       </c>
-      <c r="AU22" s="5" t="s">
+      <c r="AV22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV22" s="1">
+      <c r="AW22" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW22" s="5" t="s">
+      <c r="AX22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX22" s="1">
+      <c r="AY22" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
@@ -6101,8 +6139,9 @@
       <c r="BH22" s="1"/>
       <c r="BI22" s="1"/>
       <c r="BJ22" s="1"/>
+      <c r="BK22" s="1"/>
     </row>
-    <row r="23" spans="1:62" ht="15.75" customHeight="1">
+    <row r="23" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -6117,115 +6156,115 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="16"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R23" s="1">
-        <v>0</v>
-      </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <v>0.65</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V23" s="1">
+      <c r="W23" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X23" s="12">
+      <c r="Y23" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="AA23" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA23" s="1" t="s">
+      <c r="AB23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB23" s="12">
+      <c r="AC23" s="12">
         <v>-0.41</v>
       </c>
-      <c r="AC23" s="5" t="s">
+      <c r="AD23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD23" s="5">
+      <c r="AE23" s="5">
         <v>0.4</v>
       </c>
-      <c r="AE23" s="5" t="s">
+      <c r="AF23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF23" s="5">
+      <c r="AG23" s="5">
         <v>-0.3</v>
       </c>
-      <c r="AG23" s="5" t="s">
+      <c r="AH23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH23" s="1">
+      <c r="AI23" s="1">
         <v>0.7</v>
       </c>
-      <c r="AI23" s="5" t="s">
+      <c r="AJ23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="9" t="s">
+      <c r="AK23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AM23" s="1">
         <v>0.01</v>
       </c>
-      <c r="AM23" s="5" t="s">
+      <c r="AN23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN23" s="1">
+      <c r="AO23" s="1">
         <v>-0.74</v>
       </c>
-      <c r="AO23" s="5" t="s">
+      <c r="AP23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP23" s="1">
+      <c r="AQ23" s="1">
         <v>0.75</v>
       </c>
-      <c r="AQ23" s="5" t="s">
+      <c r="AR23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="5" t="s">
+      <c r="AS23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT23" s="1">
+      <c r="AU23" s="1">
         <v>-0.1</v>
       </c>
-      <c r="AU23" s="5" t="s">
+      <c r="AV23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV23" s="1">
+      <c r="AW23" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW23" s="5" t="s">
+      <c r="AX23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX23" s="1">
+      <c r="AY23" s="1">
         <v>0.7</v>
       </c>
-      <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
@@ -6237,8 +6276,9 @@
       <c r="BH23" s="1"/>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
+      <c r="BK23" s="1"/>
     </row>
-    <row r="24" spans="1:62" ht="15.75" customHeight="1">
+    <row r="24" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -6253,115 +6293,115 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="K24" s="16"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1" t="s">
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R24" s="1">
-        <v>0</v>
-      </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T24" s="1">
+      <c r="U24" s="1">
         <v>0.75</v>
       </c>
-      <c r="U24" s="1" t="s">
+      <c r="V24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X24" s="12">
+      <c r="Y24" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Z24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="AA24" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA24" s="1" t="s">
+      <c r="AB24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB24" s="1">
+      <c r="AC24" s="1">
         <v>-0.77</v>
       </c>
-      <c r="AC24" s="5" t="s">
+      <c r="AD24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD24" s="5">
+      <c r="AE24" s="5">
         <v>0.65</v>
       </c>
-      <c r="AE24" s="5" t="s">
+      <c r="AF24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF24" s="5">
+      <c r="AG24" s="5">
         <v>0.25</v>
       </c>
-      <c r="AG24" s="5" t="s">
+      <c r="AH24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH24" s="1">
+      <c r="AI24" s="1">
         <v>0.73</v>
       </c>
-      <c r="AI24" s="5" t="s">
+      <c r="AJ24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="9" t="s">
+      <c r="AK24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AM24" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AM24" s="5" t="s">
+      <c r="AN24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN24" s="1">
+      <c r="AO24" s="1">
         <v>0.2</v>
       </c>
-      <c r="AO24" s="5" t="s">
+      <c r="AP24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP24" s="1">
+      <c r="AQ24" s="1">
         <v>0.9</v>
       </c>
-      <c r="AQ24" s="5" t="s">
+      <c r="AR24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="5" t="s">
+      <c r="AS24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT24" s="1">
+      <c r="AU24" s="1">
         <v>-0.2</v>
       </c>
-      <c r="AU24" s="5" t="s">
+      <c r="AV24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV24" s="1">
+      <c r="AW24" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW24" s="5" t="s">
+      <c r="AX24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX24" s="1">
+      <c r="AY24" s="1">
         <v>0.42</v>
       </c>
-      <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
@@ -6373,8 +6413,9 @@
       <c r="BH24" s="1"/>
       <c r="BI24" s="1"/>
       <c r="BJ24" s="1"/>
+      <c r="BK24" s="1"/>
     </row>
-    <row r="25" spans="1:62" ht="15.75" customHeight="1">
+    <row r="25" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -6389,115 +6430,115 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="16"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1" t="s">
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R25" s="1">
-        <v>0</v>
-      </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T25" s="1">
+      <c r="U25" s="1">
         <v>0.65</v>
       </c>
-      <c r="U25" s="1" t="s">
+      <c r="V25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X25" s="12">
+      <c r="Y25" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="Z25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="AA25" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA25" s="1" t="s">
+      <c r="AB25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB25" s="12">
+      <c r="AC25" s="12">
         <v>-0.41</v>
       </c>
-      <c r="AC25" s="5" t="s">
+      <c r="AD25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD25" s="5">
+      <c r="AE25" s="5">
         <v>0.5</v>
       </c>
-      <c r="AE25" s="5" t="s">
+      <c r="AF25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF25" s="5">
+      <c r="AG25" s="5">
         <v>0.05</v>
       </c>
-      <c r="AG25" s="5" t="s">
+      <c r="AH25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH25" s="1">
+      <c r="AI25" s="1">
         <v>0.68</v>
       </c>
-      <c r="AI25" s="5" t="s">
+      <c r="AJ25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="9" t="s">
+      <c r="AK25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AM25" s="1">
         <v>-0.4</v>
       </c>
-      <c r="AM25" s="5" t="s">
+      <c r="AN25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN25" s="1">
+      <c r="AO25" s="1">
         <v>-0.48</v>
       </c>
-      <c r="AO25" s="5" t="s">
+      <c r="AP25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP25" s="1">
+      <c r="AQ25" s="1">
         <v>0.74</v>
       </c>
-      <c r="AQ25" s="5" t="s">
+      <c r="AR25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="5" t="s">
+      <c r="AS25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT25" s="1">
+      <c r="AU25" s="1">
         <v>0.1</v>
       </c>
-      <c r="AU25" s="5" t="s">
+      <c r="AV25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV25" s="1">
+      <c r="AW25" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW25" s="5" t="s">
+      <c r="AX25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX25" s="1">
+      <c r="AY25" s="1">
         <v>0.73</v>
       </c>
-      <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
@@ -6509,8 +6550,9 @@
       <c r="BH25" s="1"/>
       <c r="BI25" s="1"/>
       <c r="BJ25" s="1"/>
+      <c r="BK25" s="1"/>
     </row>
-    <row r="26" spans="1:62" ht="15.75" customHeight="1">
+    <row r="26" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>86</v>
       </c>
@@ -6525,115 +6567,115 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1" t="s">
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R26" s="1">
-        <v>0</v>
-      </c>
-      <c r="S26" s="1" t="s">
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T26" s="1">
+      <c r="U26" s="1">
         <v>0.12</v>
       </c>
-      <c r="U26" s="1" t="s">
+      <c r="V26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V26" s="1">
+      <c r="W26" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X26" s="12">
+      <c r="Y26" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="Z26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="AA26" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA26" s="1" t="s">
+      <c r="AB26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB26" s="1">
+      <c r="AC26" s="1">
         <v>-0.67</v>
       </c>
-      <c r="AC26" s="5" t="s">
+      <c r="AD26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD26" s="5">
+      <c r="AE26" s="5">
         <v>0.35</v>
       </c>
-      <c r="AE26" s="5" t="s">
+      <c r="AF26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF26" s="5">
+      <c r="AG26" s="5">
         <v>-0.4</v>
       </c>
-      <c r="AG26" s="5" t="s">
+      <c r="AH26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH26" s="1">
+      <c r="AI26" s="1">
         <v>0.3</v>
       </c>
-      <c r="AI26" s="5" t="s">
+      <c r="AJ26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="9" t="s">
+      <c r="AK26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AM26" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AM26" s="5" t="s">
+      <c r="AN26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN26" s="1">
+      <c r="AO26" s="1">
         <v>-0.5</v>
       </c>
-      <c r="AO26" s="5" t="s">
+      <c r="AP26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP26" s="1">
+      <c r="AQ26" s="1">
         <v>-0.1</v>
       </c>
-      <c r="AQ26" s="5" t="s">
+      <c r="AR26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="5" t="s">
+      <c r="AS26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT26" s="1">
+      <c r="AU26" s="1">
         <v>0.71</v>
       </c>
-      <c r="AU26" s="5" t="s">
+      <c r="AV26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV26" s="1">
+      <c r="AW26" s="1">
         <v>0.72</v>
       </c>
-      <c r="AW26" s="5" t="s">
+      <c r="AX26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX26" s="1">
+      <c r="AY26" s="1">
         <v>0.78</v>
       </c>
-      <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
@@ -6645,8 +6687,9 @@
       <c r="BH26" s="1"/>
       <c r="BI26" s="1"/>
       <c r="BJ26" s="1"/>
+      <c r="BK26" s="1"/>
     </row>
-    <row r="27" spans="1:62" ht="15.75" customHeight="1">
+    <row r="27" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -6661,115 +6704,115 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="K27" s="16"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1" t="s">
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R27" s="1">
-        <v>0</v>
-      </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T27" s="1">
+      <c r="U27" s="1">
         <v>0.65</v>
       </c>
-      <c r="U27" s="1" t="s">
+      <c r="V27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V27" s="1">
+      <c r="W27" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W27" s="1" t="s">
+      <c r="X27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X27" s="1">
+      <c r="Y27" s="1">
         <v>0.65</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="Z27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="AA27" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AB27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB27" s="1">
+      <c r="AC27" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AC27" s="5" t="s">
+      <c r="AD27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD27" s="5">
+      <c r="AE27" s="5">
         <v>0.8</v>
       </c>
-      <c r="AE27" s="5" t="s">
+      <c r="AF27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF27" s="5">
+      <c r="AG27" s="5">
         <v>0.69</v>
       </c>
-      <c r="AG27" s="5" t="s">
+      <c r="AH27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH27" s="1">
+      <c r="AI27" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI27" s="5" t="s">
+      <c r="AJ27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="9" t="s">
+      <c r="AK27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL27" s="1">
+      <c r="AM27" s="1">
         <v>0.75</v>
       </c>
-      <c r="AM27" s="5" t="s">
+      <c r="AN27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN27" s="1">
+      <c r="AO27" s="1">
         <v>0.7</v>
       </c>
-      <c r="AO27" s="5" t="s">
+      <c r="AP27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP27" s="1">
+      <c r="AQ27" s="1">
         <v>0.9</v>
       </c>
-      <c r="AQ27" s="5" t="s">
+      <c r="AR27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="5" t="s">
+      <c r="AS27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT27" s="1">
+      <c r="AU27" s="1">
         <v>-0.65</v>
       </c>
-      <c r="AU27" s="5" t="s">
+      <c r="AV27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV27" s="1">
+      <c r="AW27" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW27" s="5" t="s">
+      <c r="AX27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX27" s="1">
+      <c r="AY27" s="1">
         <v>-0.6</v>
       </c>
-      <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
@@ -6781,8 +6824,9 @@
       <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
+      <c r="BK27" s="1"/>
     </row>
-    <row r="28" spans="1:62" ht="15.75" customHeight="1">
+    <row r="28" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -6797,115 +6841,115 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="K28" s="16"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="1" t="s">
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R28" s="1">
-        <v>0</v>
-      </c>
-      <c r="S28" s="1" t="s">
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T28" s="1">
+      <c r="U28" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="U28" s="1" t="s">
+      <c r="V28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V28" s="1">
+      <c r="W28" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W28" s="1" t="s">
+      <c r="X28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X28" s="1">
+      <c r="Y28" s="1">
         <v>-0.2</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="Z28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="AA28" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA28" s="1" t="s">
+      <c r="AB28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB28" s="12">
+      <c r="AC28" s="12">
         <v>-0.41</v>
       </c>
-      <c r="AC28" s="5" t="s">
+      <c r="AD28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD28" s="5">
+      <c r="AE28" s="5">
         <v>0.4</v>
       </c>
-      <c r="AE28" s="5" t="s">
+      <c r="AF28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF28" s="5">
+      <c r="AG28" s="5">
         <v>-0.45</v>
       </c>
-      <c r="AG28" s="5" t="s">
+      <c r="AH28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH28" s="1">
+      <c r="AI28" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AI28" s="5" t="s">
+      <c r="AJ28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="9" t="s">
+      <c r="AK28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL28" s="1">
+      <c r="AM28" s="1">
         <v>-0.69</v>
       </c>
-      <c r="AM28" s="5" t="s">
+      <c r="AN28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN28" s="1">
+      <c r="AO28" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AO28" s="5" t="s">
+      <c r="AP28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP28" s="1">
+      <c r="AQ28" s="1">
         <v>0.74</v>
       </c>
-      <c r="AQ28" s="5" t="s">
+      <c r="AR28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="5" t="s">
+      <c r="AS28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT28" s="1">
+      <c r="AU28" s="1">
         <v>0.42</v>
       </c>
-      <c r="AU28" s="5" t="s">
+      <c r="AV28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV28" s="1">
+      <c r="AW28" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW28" s="5" t="s">
+      <c r="AX28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX28" s="1">
+      <c r="AY28" s="1">
         <v>0.78</v>
       </c>
-      <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
@@ -6917,8 +6961,9 @@
       <c r="BH28" s="1"/>
       <c r="BI28" s="1"/>
       <c r="BJ28" s="1"/>
+      <c r="BK28" s="1"/>
     </row>
-    <row r="29" spans="1:62" ht="15.75" customHeight="1">
+    <row r="29" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -6933,115 +6978,115 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="K29" s="16"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="1" t="s">
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R29" s="1">
-        <v>0</v>
-      </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
         <v>0.12</v>
       </c>
-      <c r="U29" s="1" t="s">
+      <c r="V29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V29" s="1">
+      <c r="W29" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="X29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X29" s="1">
+      <c r="Y29" s="1">
         <v>0.1</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Z29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="AA29" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AA29" s="1" t="s">
+      <c r="AB29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB29" s="12">
+      <c r="AC29" s="12">
         <v>-0.41</v>
       </c>
-      <c r="AC29" s="5" t="s">
+      <c r="AD29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD29" s="5">
+      <c r="AE29" s="5">
         <v>0.4</v>
       </c>
-      <c r="AE29" s="5" t="s">
+      <c r="AF29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF29" s="5">
+      <c r="AG29" s="5">
         <v>-0.3</v>
       </c>
-      <c r="AG29" s="5" t="s">
+      <c r="AH29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH29" s="1">
+      <c r="AI29" s="1">
         <v>0.3</v>
       </c>
-      <c r="AI29" s="5" t="s">
+      <c r="AJ29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="9" t="s">
+      <c r="AK29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL29" s="1">
+      <c r="AM29" s="1">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="AM29" s="5" t="s">
+      <c r="AN29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN29" s="1">
+      <c r="AO29" s="1">
         <v>-0.69</v>
       </c>
-      <c r="AO29" s="5" t="s">
+      <c r="AP29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP29" s="1">
+      <c r="AQ29" s="1">
         <v>-0.4</v>
       </c>
-      <c r="AQ29" s="5" t="s">
+      <c r="AR29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS29" s="5" t="s">
+      <c r="AS29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT29" s="1">
+      <c r="AU29" s="1">
         <v>0.78</v>
       </c>
-      <c r="AU29" s="5" t="s">
+      <c r="AV29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV29" s="1">
+      <c r="AW29" s="1">
         <v>0.75</v>
       </c>
-      <c r="AW29" s="5" t="s">
+      <c r="AX29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX29" s="1">
+      <c r="AY29" s="1">
         <v>0.72</v>
       </c>
-      <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
@@ -7053,8 +7098,9 @@
       <c r="BH29" s="1"/>
       <c r="BI29" s="1"/>
       <c r="BJ29" s="1"/>
+      <c r="BK29" s="1"/>
     </row>
-    <row r="30" spans="1:62" ht="15.75" customHeight="1">
+    <row r="30" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -7069,152 +7115,153 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="K30" s="16"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="1" t="s">
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R30" s="1">
-        <v>0</v>
-      </c>
-      <c r="S30" s="1" t="s">
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T30" s="1">
-        <v>0</v>
-      </c>
-      <c r="U30" s="1" t="s">
+      <c r="U30" s="1">
+        <v>0</v>
+      </c>
+      <c r="V30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V30" s="1">
+      <c r="W30" s="1">
         <v>-0.79</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="X30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X30" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="1" t="s">
+      <c r="Y30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="Z30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="1" t="s">
+      <c r="AA30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="5" t="s">
+      <c r="AC30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD30" s="5">
+      <c r="AE30" s="5">
         <v>-0.75</v>
       </c>
-      <c r="AE30" s="5" t="s">
+      <c r="AF30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF30" s="5">
+      <c r="AG30" s="5">
         <v>-0.75</v>
       </c>
-      <c r="AG30" s="5" t="s">
+      <c r="AH30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH30" s="1">
+      <c r="AI30" s="1">
         <v>-0.6</v>
       </c>
-      <c r="AI30" s="5" t="s">
+      <c r="AJ30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="9" t="s">
+      <c r="AK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL30" s="1">
+      <c r="AM30" s="1">
         <v>-0.78</v>
       </c>
-      <c r="AM30" s="5" t="s">
+      <c r="AN30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN30" s="1">
+      <c r="AO30" s="1">
         <v>-0.79</v>
       </c>
-      <c r="AO30" s="5" t="s">
+      <c r="AP30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP30" s="1">
+      <c r="AQ30" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AQ30" s="5" t="s">
+      <c r="AR30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS30" s="5" t="s">
+      <c r="AS30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT30" s="1">
+      <c r="AU30" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AU30" s="5" t="s">
+      <c r="AV30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV30" s="1">
+      <c r="AW30" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW30" s="5" t="s">
+      <c r="AX30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX30" s="1">
+      <c r="AY30" s="1">
         <v>0.7</v>
       </c>
-      <c r="AY30" s="1" t="s">
+      <c r="AZ30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ30" s="1">
+      <c r="BA30" s="1">
         <v>-0.7</v>
       </c>
-      <c r="BA30" s="1" t="s">
+      <c r="BB30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB30" s="1">
+      <c r="BC30" s="1">
         <v>-0.7</v>
       </c>
-      <c r="BC30" s="1" t="s">
+      <c r="BD30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD30" s="1">
+      <c r="BE30" s="1">
         <v>0.71</v>
       </c>
-      <c r="BE30" s="1" t="s">
+      <c r="BF30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF30" s="1">
+      <c r="BG30" s="1">
         <v>-0.75</v>
       </c>
-      <c r="BG30" s="1" t="s">
+      <c r="BH30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH30" s="1">
+      <c r="BI30" s="1">
         <v>0.78</v>
       </c>
-      <c r="BI30" s="1" t="s">
+      <c r="BJ30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ30" s="1">
+      <c r="BK30" s="1">
         <v>-0.35</v>
       </c>
     </row>
-    <row r="31" spans="1:62" ht="15.75" customHeight="1">
+    <row r="31" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -7229,7 +7276,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="K31" s="16"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -7247,110 +7294,111 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="5" t="s">
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD31" s="5">
+      <c r="AE31" s="5">
         <v>0.72</v>
       </c>
-      <c r="AE31" s="5" t="s">
+      <c r="AF31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF31" s="5">
+      <c r="AG31" s="5">
         <v>0.77</v>
       </c>
-      <c r="AG31" s="5" t="s">
+      <c r="AH31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH31" s="1">
+      <c r="AI31" s="1">
         <v>0.5</v>
       </c>
-      <c r="AI31" s="5" t="s">
+      <c r="AJ31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="9" t="s">
+      <c r="AK31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AM31" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AM31" s="5" t="s">
+      <c r="AN31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN31" s="1">
+      <c r="AO31" s="1">
         <v>0.71</v>
       </c>
-      <c r="AO31" s="5" t="s">
+      <c r="AP31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP31" s="1">
+      <c r="AQ31" s="1">
         <v>0.78</v>
       </c>
-      <c r="AQ31" s="5" t="s">
+      <c r="AR31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS31" s="5" t="s">
+      <c r="AS31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT31" s="1">
+      <c r="AU31" s="1">
         <v>-0.74</v>
       </c>
-      <c r="AU31" s="5" t="s">
+      <c r="AV31" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV31" s="1">
+      <c r="AW31" s="1">
         <v>0.42</v>
       </c>
-      <c r="AW31" s="5" t="s">
+      <c r="AX31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX31" s="1">
+      <c r="AY31" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AY31" s="1" t="s">
+      <c r="AZ31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ31" s="1">
+      <c r="BA31" s="1">
         <v>0.71</v>
       </c>
-      <c r="BA31" s="1" t="s">
+      <c r="BB31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB31" s="1">
+      <c r="BC31" s="1">
         <v>0.71</v>
       </c>
-      <c r="BC31" s="1" t="s">
+      <c r="BD31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD31" s="1">
+      <c r="BE31" s="1">
         <v>-0.45</v>
       </c>
-      <c r="BE31" s="1" t="s">
+      <c r="BF31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF31" s="1">
+      <c r="BG31" s="1">
         <v>0.78</v>
       </c>
-      <c r="BG31" s="1" t="s">
+      <c r="BH31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH31" s="1">
+      <c r="BI31" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="BI31" s="1" t="s">
+      <c r="BJ31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ31" s="1">
+      <c r="BK31" s="1">
         <v>-0.74</v>
       </c>
     </row>
-    <row r="32" spans="1:62" ht="15.75" customHeight="1">
+    <row r="32" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -7365,7 +7413,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -7383,110 +7431,111 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="5" t="s">
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD32" s="5">
+      <c r="AE32" s="5">
         <v>-0.6</v>
       </c>
-      <c r="AE32" s="5" t="s">
+      <c r="AF32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF32" s="5">
+      <c r="AG32" s="5">
         <v>-0.6</v>
       </c>
-      <c r="AG32" s="5" t="s">
+      <c r="AH32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH32" s="1">
+      <c r="AI32" s="1">
         <v>-0.64</v>
       </c>
-      <c r="AI32" s="5" t="s">
+      <c r="AJ32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="9" t="s">
+      <c r="AK32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL32" s="1">
+      <c r="AM32" s="1">
         <v>-0.78</v>
       </c>
-      <c r="AM32" s="5" t="s">
+      <c r="AN32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN32" s="1">
+      <c r="AO32" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AO32" s="5" t="s">
+      <c r="AP32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP32" s="1">
+      <c r="AQ32" s="1">
         <v>-0.15</v>
       </c>
-      <c r="AQ32" s="5" t="s">
+      <c r="AR32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR32" s="1">
+      <c r="AS32" s="1">
         <v>0.35</v>
       </c>
-      <c r="AS32" s="5" t="s">
+      <c r="AT32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT32" s="1">
+      <c r="AU32" s="1">
         <v>-0.25</v>
       </c>
-      <c r="AU32" s="5" t="s">
+      <c r="AV32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV32" s="1">
+      <c r="AW32" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW32" s="5" t="s">
+      <c r="AX32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX32" s="1">
+      <c r="AY32" s="1">
         <v>0.7</v>
       </c>
-      <c r="AY32" s="1" t="s">
+      <c r="AZ32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ32" s="1">
+      <c r="BA32" s="1">
         <v>-0.7</v>
       </c>
-      <c r="BA32" s="1" t="s">
+      <c r="BB32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB32" s="1">
+      <c r="BC32" s="1">
         <v>-0.7</v>
       </c>
-      <c r="BC32" s="1" t="s">
+      <c r="BD32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD32" s="1">
+      <c r="BE32" s="1">
         <v>0.75</v>
       </c>
-      <c r="BE32" s="1" t="s">
+      <c r="BF32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF32" s="1">
+      <c r="BG32" s="1">
         <v>-0.15</v>
       </c>
-      <c r="BG32" s="1" t="s">
+      <c r="BH32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH32" s="1">
+      <c r="BI32" s="1">
         <v>0.7</v>
       </c>
-      <c r="BI32" s="1" t="s">
+      <c r="BJ32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ32" s="1">
+      <c r="BK32" s="1">
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:62" ht="15.75" customHeight="1">
+    <row r="33" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -7501,7 +7550,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="K33" s="16"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -7519,110 +7568,111 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="5" t="s">
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD33" s="5">
+      <c r="AE33" s="5">
         <v>0.69</v>
       </c>
-      <c r="AE33" s="5" t="s">
+      <c r="AF33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF33" s="5">
+      <c r="AG33" s="5">
         <v>0.73</v>
       </c>
-      <c r="AG33" s="5" t="s">
+      <c r="AH33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH33" s="1">
+      <c r="AI33" s="1">
         <v>0.2</v>
       </c>
-      <c r="AI33" s="5" t="s">
+      <c r="AJ33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="9" t="s">
+      <c r="AK33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL33" s="1">
+      <c r="AM33" s="1">
         <v>0.7</v>
       </c>
-      <c r="AM33" s="5" t="s">
+      <c r="AN33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN33" s="1">
+      <c r="AO33" s="1">
         <v>0.75</v>
       </c>
-      <c r="AO33" s="5" t="s">
+      <c r="AP33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP33" s="1">
+      <c r="AQ33" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AQ33" s="5" t="s">
+      <c r="AR33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS33" s="5" t="s">
+      <c r="AS33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT33" s="1">
+      <c r="AU33" s="1">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="AU33" s="5" t="s">
+      <c r="AV33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV33" s="1">
+      <c r="AW33" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AW33" s="5" t="s">
+      <c r="AX33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX33" s="1">
+      <c r="AY33" s="1">
         <v>-0.79</v>
       </c>
-      <c r="AY33" s="1" t="s">
+      <c r="AZ33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ33" s="1">
+      <c r="BA33" s="1">
         <v>0.77</v>
       </c>
-      <c r="BA33" s="1" t="s">
+      <c r="BB33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB33" s="1">
+      <c r="BC33" s="1">
         <v>0.77</v>
       </c>
-      <c r="BC33" s="1" t="s">
+      <c r="BD33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD33" s="1">
+      <c r="BE33" s="1">
         <v>-0.59</v>
       </c>
-      <c r="BE33" s="1" t="s">
+      <c r="BF33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF33" s="1">
+      <c r="BG33" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BG33" s="1" t="s">
+      <c r="BH33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH33" s="1">
+      <c r="BI33" s="1">
         <v>-0.73</v>
       </c>
-      <c r="BI33" s="1" t="s">
+      <c r="BJ33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ33" s="1">
+      <c r="BK33" s="1">
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:62" ht="15.75" customHeight="1">
+    <row r="34" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -7637,7 +7687,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="16"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -7655,110 +7705,111 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="5" t="s">
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD34" s="5">
+      <c r="AE34" s="5">
         <v>-0.7</v>
       </c>
-      <c r="AE34" s="5" t="s">
+      <c r="AF34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF34" s="5">
+      <c r="AG34" s="5">
         <v>-0.54</v>
       </c>
-      <c r="AG34" s="5" t="s">
+      <c r="AH34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH34" s="1">
+      <c r="AI34" s="1">
         <v>-0.59</v>
       </c>
-      <c r="AI34" s="5" t="s">
+      <c r="AJ34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="9" t="s">
+      <c r="AK34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL34" s="1">
+      <c r="AM34" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AM34" s="5" t="s">
+      <c r="AN34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN34" s="1">
+      <c r="AO34" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AO34" s="5" t="s">
+      <c r="AP34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP34" s="1">
+      <c r="AQ34" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AQ34" s="5" t="s">
+      <c r="AR34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS34" s="5" t="s">
+      <c r="AS34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT34" s="1">
+      <c r="AU34" s="1">
         <v>-0.49</v>
       </c>
-      <c r="AU34" s="5" t="s">
+      <c r="AV34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV34" s="1">
+      <c r="AW34" s="1">
         <v>-0.8</v>
       </c>
-      <c r="AW34" s="5" t="s">
+      <c r="AX34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX34" s="1">
+      <c r="AY34" s="1">
         <v>0.79</v>
       </c>
-      <c r="AY34" s="1" t="s">
+      <c r="AZ34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ34" s="1">
+      <c r="BA34" s="1">
         <v>-0.7</v>
       </c>
-      <c r="BA34" s="1" t="s">
+      <c r="BB34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB34" s="1">
+      <c r="BC34" s="1">
         <v>-0.7</v>
       </c>
-      <c r="BC34" s="1" t="s">
+      <c r="BD34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD34" s="1">
+      <c r="BE34" s="1">
         <v>0.71</v>
       </c>
-      <c r="BE34" s="1" t="s">
+      <c r="BF34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF34" s="1">
+      <c r="BG34" s="1">
         <v>0.68</v>
       </c>
-      <c r="BG34" s="1" t="s">
+      <c r="BH34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH34" s="1">
+      <c r="BI34" s="1">
         <v>0.7</v>
       </c>
-      <c r="BI34" s="1" t="s">
+      <c r="BJ34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ34" s="1">
+      <c r="BK34" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:62" ht="15.75" customHeight="1">
+    <row r="35" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -7773,7 +7824,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="K35" s="16"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -7791,106 +7842,107 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
-      <c r="AC35" s="5" t="s">
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AD35" s="5">
+      <c r="AE35" s="5">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AE35" s="5" t="s">
+      <c r="AF35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AF35" s="5">
+      <c r="AG35" s="5">
         <v>-0.5</v>
       </c>
-      <c r="AG35" s="5" t="s">
+      <c r="AH35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH35" s="1">
+      <c r="AI35" s="1">
         <v>-0.45</v>
       </c>
-      <c r="AI35" s="5" t="s">
+      <c r="AJ35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AJ35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="9" t="s">
+      <c r="AK35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AL35" s="1">
+      <c r="AM35" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AM35" s="5" t="s">
+      <c r="AN35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AN35" s="1">
+      <c r="AO35" s="1">
         <v>0.71</v>
       </c>
-      <c r="AO35" s="5" t="s">
+      <c r="AP35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AP35" s="1">
+      <c r="AQ35" s="1">
         <v>0.78</v>
       </c>
-      <c r="AQ35" s="5" t="s">
+      <c r="AR35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AR35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS35" s="5" t="s">
+      <c r="AS35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AT35" s="1">
+      <c r="AU35" s="1">
         <v>-0.74</v>
       </c>
-      <c r="AU35" s="5" t="s">
+      <c r="AV35" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AV35" s="1">
+      <c r="AW35" s="1">
         <v>0.42</v>
       </c>
-      <c r="AW35" s="5" t="s">
+      <c r="AX35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AX35" s="1">
+      <c r="AY35" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AY35" s="1" t="s">
+      <c r="AZ35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AZ35" s="1">
+      <c r="BA35" s="1">
         <v>0.71</v>
       </c>
-      <c r="BA35" s="1" t="s">
+      <c r="BB35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BB35" s="1">
+      <c r="BC35" s="1">
         <v>0.71</v>
       </c>
-      <c r="BC35" s="1" t="s">
+      <c r="BD35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BD35" s="1">
+      <c r="BE35" s="1">
         <v>-0.45</v>
       </c>
-      <c r="BE35" s="1" t="s">
+      <c r="BF35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BF35" s="1">
+      <c r="BG35" s="1">
         <v>0.68</v>
       </c>
-      <c r="BG35" s="1" t="s">
+      <c r="BH35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH35" s="1">
+      <c r="BI35" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="BI35" s="1" t="s">
+      <c r="BJ35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BJ35" s="1">
+      <c r="BK35" s="1">
         <v>-0.74</v>
       </c>
     </row>

--- a/static/sample/sna/Iranian_Influence.xlsx
+++ b/static/sample/sna/Iranian_Influence.xlsx
@@ -1,29 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ryan/lucas/GAT/static/sample/sna/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxer\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="51" documentId="8DE4F7F18873AAAEAC159E79BD9484246A76BABD" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{6947FAB2-336D-4D88-BB7A-381E26D09AA2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Node Sheet" sheetId="4" r:id="rId1"/>
     <sheet name="Attribute Sheet" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171026"/>
 </workbook>
 </file>
 
@@ -390,8 +383,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -434,18 +427,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -460,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -483,9 +470,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,32 +783,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+      <selection pane="topRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.5" style="4"/>
+    <col min="1" max="1" width="37.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" ht="12.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -892,7 +876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" ht="12.75">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -946,7 +930,7 @@
       </c>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="12.75">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -994,7 +978,7 @@
       </c>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="12.75">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -1050,7 +1034,7 @@
       </c>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="12.75">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1098,7 +1082,7 @@
       </c>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="12.75">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -1144,7 +1128,7 @@
       </c>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" ht="12.75">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -1192,7 +1176,7 @@
       </c>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" ht="12.75">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -1250,7 +1234,7 @@
       </c>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" ht="12.75">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -1308,7 +1292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" ht="12.75">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1360,7 +1344,7 @@
       </c>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" ht="12.75">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -1408,7 +1392,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="12.75">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1460,7 +1444,7 @@
       </c>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" ht="12.75">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
@@ -1510,7 +1494,7 @@
       </c>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" ht="12.75">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
@@ -1566,7 +1550,7 @@
       </c>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" ht="12.75">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1628,7 +1612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="12.75">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -1674,7 +1658,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" ht="12.75">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -1728,7 +1712,7 @@
       </c>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1780,7 +1764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -1834,7 +1818,7 @@
       </c>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -1890,7 +1874,7 @@
       </c>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1938,7 +1922,7 @@
       </c>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1986,7 +1970,7 @@
       </c>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -2020,7 +2004,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -2054,7 +2038,7 @@
       <c r="U24" s="5"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -2088,7 +2072,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>86</v>
       </c>
@@ -2126,7 +2110,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -2166,7 +2150,7 @@
       <c r="U27" s="5"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -2202,7 +2186,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -2238,7 +2222,7 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -2280,7 +2264,7 @@
       </c>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -2328,7 +2312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -2366,7 +2350,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -2409,7 +2393,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -2446,7 +2430,7 @@
       </c>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -2491,83 +2475,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31648440-34B2-41E0-A4DA-8D4AD12FC756}">
+  <dimension ref="A1:BJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0" xr3:uid="{354EE10B-ACE1-5338-88D3-2FA0829946D8}">
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="14" customWidth="1"/>
-    <col min="12" max="12" width="32.33203125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="30.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="14.5" style="6"/>
-    <col min="17" max="17" width="5.6640625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" style="6" customWidth="1"/>
-    <col min="19" max="19" width="7" style="6" customWidth="1"/>
-    <col min="20" max="20" width="25.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.1640625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="9.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.6640625" style="6" customWidth="1"/>
-    <col min="26" max="26" width="22.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.33203125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="39.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8" style="6" customWidth="1"/>
-    <col min="30" max="30" width="31.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.33203125" style="6" customWidth="1"/>
-    <col min="32" max="32" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.6640625" style="6" customWidth="1"/>
-    <col min="34" max="34" width="14.5" style="6"/>
-    <col min="35" max="35" width="5.6640625" style="6" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="6" customWidth="1"/>
-    <col min="37" max="37" width="6.6640625" style="6" customWidth="1"/>
-    <col min="38" max="38" width="18" style="7" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" style="6" customWidth="1"/>
-    <col min="40" max="40" width="14.5" style="6"/>
-    <col min="41" max="41" width="7.1640625" style="6" customWidth="1"/>
-    <col min="42" max="42" width="15" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.1640625" style="6" customWidth="1"/>
-    <col min="44" max="44" width="14.5" style="6"/>
-    <col min="45" max="45" width="8.33203125" style="6" customWidth="1"/>
-    <col min="46" max="46" width="18" style="6" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.33203125" style="6" customWidth="1"/>
-    <col min="48" max="48" width="14.5" style="6"/>
-    <col min="49" max="49" width="7.5" style="6" customWidth="1"/>
-    <col min="50" max="50" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="7.6640625" style="6" customWidth="1"/>
-    <col min="52" max="52" width="14.5" style="6"/>
-    <col min="53" max="53" width="5.6640625" style="6" customWidth="1"/>
-    <col min="54" max="54" width="14.5" style="6"/>
-    <col min="55" max="55" width="5.6640625" style="6" customWidth="1"/>
-    <col min="56" max="56" width="14.5" style="6"/>
-    <col min="57" max="57" width="5.6640625" style="6" customWidth="1"/>
-    <col min="58" max="58" width="14.5" style="6"/>
-    <col min="59" max="59" width="6.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="14.5" style="6"/>
-    <col min="61" max="61" width="5.6640625" style="6" customWidth="1"/>
-    <col min="62" max="62" width="14.5" style="6"/>
-    <col min="63" max="63" width="8.33203125" style="6" customWidth="1"/>
-    <col min="64" max="16384" width="14.5" style="6"/>
+    <col min="1" max="1" width="23.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="6"/>
+    <col min="16" max="16" width="5.7109375" style="6" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="7" style="6" customWidth="1"/>
+    <col min="19" max="19" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.140625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" style="6" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.7109375" style="6" customWidth="1"/>
+    <col min="25" max="25" width="22.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.28515625" style="6" customWidth="1"/>
+    <col min="27" max="27" width="39.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="6" customWidth="1"/>
+    <col min="29" max="29" width="31.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.28515625" style="6" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.7109375" style="6" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="6"/>
+    <col min="34" max="34" width="5.7109375" style="6" customWidth="1"/>
+    <col min="35" max="35" width="17.140625" style="6" customWidth="1"/>
+    <col min="36" max="36" width="6.7109375" style="6" customWidth="1"/>
+    <col min="37" max="37" width="18" style="7" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8" style="6" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="6"/>
+    <col min="40" max="40" width="7.140625" style="6" customWidth="1"/>
+    <col min="41" max="41" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7.140625" style="6" customWidth="1"/>
+    <col min="43" max="43" width="14.42578125" style="6"/>
+    <col min="44" max="44" width="8.28515625" style="6" customWidth="1"/>
+    <col min="45" max="45" width="18" style="6" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.28515625" style="6" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" style="6"/>
+    <col min="48" max="48" width="7.5703125" style="6" customWidth="1"/>
+    <col min="49" max="49" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.7109375" style="6" customWidth="1"/>
+    <col min="51" max="51" width="14.42578125" style="6"/>
+    <col min="52" max="52" width="5.7109375" style="6" customWidth="1"/>
+    <col min="53" max="53" width="14.42578125" style="6"/>
+    <col min="54" max="54" width="5.7109375" style="6" customWidth="1"/>
+    <col min="55" max="55" width="14.42578125" style="6"/>
+    <col min="56" max="56" width="5.7109375" style="6" customWidth="1"/>
+    <col min="57" max="57" width="14.42578125" style="6"/>
+    <col min="58" max="58" width="6.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="14.42578125" style="6"/>
+    <col min="60" max="60" width="5.7109375" style="6" customWidth="1"/>
+    <col min="61" max="61" width="14.42578125" style="6"/>
+    <col min="62" max="62" width="8.28515625" style="6" customWidth="1"/>
+    <col min="63" max="16384" width="14.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:62" ht="12.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2598,165 +2581,164 @@
       <c r="J1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="15"/>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="L1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="AC1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AJ1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AM1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AX1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AY1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="BJ1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>95</v>
-      </c>
     </row>
-    <row r="2" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:62" ht="12.75">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2783,57 +2765,57 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1">
+      <c r="L2" s="1">
         <v>0.7</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="1">
+      <c r="N2" s="1">
         <v>0.3</v>
       </c>
+      <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="1">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="1">
+      <c r="T2" s="1">
         <v>0.77</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="1">
+      <c r="V2" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="X2" s="1">
         <v>0.78</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="Z2" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC2" s="1">
+      <c r="AB2" s="1">
         <v>-0.75</v>
       </c>
+      <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
@@ -2841,87 +2823,86 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
-      <c r="AK2" s="1"/>
-      <c r="AL2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="1">
+      <c r="AL2" s="1">
         <v>0.78</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO2" s="1">
+      <c r="AN2" s="1">
         <v>0.77</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ2" s="1">
+      <c r="AP2" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS2" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU2" s="1">
+      <c r="AT2" s="1">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="AV2" s="5" t="s">
+      <c r="AU2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW2" s="1">
+      <c r="AV2" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX2" s="5" t="s">
+      <c r="AW2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY2" s="1">
+      <c r="AX2" s="1">
         <v>-0.79</v>
       </c>
-      <c r="AZ2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA2" s="1">
+      <c r="AZ2" s="1">
         <v>0.87</v>
       </c>
-      <c r="BB2" s="1" t="s">
+      <c r="BA2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC2" s="1">
+      <c r="BB2" s="1">
         <v>0.77</v>
       </c>
-      <c r="BD2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE2" s="1">
+      <c r="BD2" s="1">
         <v>-0.59</v>
       </c>
-      <c r="BF2" s="1" t="s">
+      <c r="BE2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG2" s="1">
+      <c r="BF2" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BH2" s="1" t="s">
+      <c r="BG2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI2" s="1">
+      <c r="BH2" s="1">
         <v>-0.79</v>
       </c>
-      <c r="BJ2" s="1" t="s">
+      <c r="BI2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK2" s="1">
+      <c r="BJ2" s="1">
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:62" s="8" customFormat="1" ht="12.75">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -2944,53 +2925,53 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="12">
+      <c r="L3" s="12">
         <v>0.65</v>
       </c>
+      <c r="M3" s="12"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S3" s="1">
-        <v>0</v>
-      </c>
-      <c r="T3" s="1" t="s">
+      <c r="R3" s="1">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="12">
+      <c r="T3" s="12">
         <v>0.71</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W3" s="1">
+      <c r="V3" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="12">
+      <c r="X3" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="Z3" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC3" s="1">
+      <c r="AB3" s="1">
         <v>-0.65</v>
       </c>
+      <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
@@ -2998,87 +2979,86 @@
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
       <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="13" t="s">
+      <c r="AK3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="AM3" s="12">
+      <c r="AL3" s="12">
         <v>0.15</v>
       </c>
-      <c r="AN3" s="11" t="s">
+      <c r="AM3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="AO3" s="12">
+      <c r="AN3" s="12">
         <v>0.71</v>
       </c>
-      <c r="AP3" s="11" t="s">
+      <c r="AO3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AQ3" s="12">
+      <c r="AP3" s="12">
         <v>0.74</v>
       </c>
-      <c r="AR3" s="11" t="s">
+      <c r="AQ3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="AS3" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="11" t="s">
+      <c r="AR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AU3" s="12">
+      <c r="AT3" s="12">
         <v>-0.48</v>
       </c>
-      <c r="AV3" s="11" t="s">
+      <c r="AU3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AW3" s="1">
+      <c r="AV3" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX3" s="11" t="s">
+      <c r="AW3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AY3" s="12">
+      <c r="AX3" s="12">
         <v>-0.74</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="AY3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="BA3" s="12">
+      <c r="AZ3" s="12">
         <v>0.81</v>
       </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BA3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="BC3" s="12">
+      <c r="BB3" s="12">
         <v>0.71</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BC3" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BE3" s="12">
+      <c r="BD3" s="12">
         <v>-0.54</v>
       </c>
-      <c r="BF3" s="12" t="s">
+      <c r="BE3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="BG3" s="12">
+      <c r="BF3" s="12">
         <v>0.74</v>
       </c>
-      <c r="BH3" s="12" t="s">
+      <c r="BG3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BI3" s="12">
+      <c r="BH3" s="12">
         <v>-0.74</v>
       </c>
-      <c r="BJ3" s="12" t="s">
+      <c r="BI3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="BK3" s="12">
+      <c r="BJ3" s="12">
         <v>-0.48</v>
       </c>
     </row>
-    <row r="4" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:62" ht="12.75">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -3105,153 +3085,152 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="1">
+      <c r="L4" s="1">
         <v>0.8</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="1">
+      <c r="N4" s="1">
         <v>0.2</v>
       </c>
+      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="1">
-        <v>0</v>
-      </c>
-      <c r="T4" s="1" t="s">
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="1">
+      <c r="T4" s="1">
         <v>0.78</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="1">
+      <c r="V4" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="12">
+      <c r="X4" s="12">
         <v>-0.2</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA4" s="1">
+      <c r="Z4" s="1">
         <v>-0.71</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC4" s="1">
+      <c r="AB4" s="1">
         <v>-0.76</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AE4" s="1">
+      <c r="AD4" s="1">
         <v>0.7</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AG4" s="1">
+      <c r="AF4" s="1">
         <v>0.3</v>
       </c>
+      <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="9" t="s">
+      <c r="AK4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM4" s="1">
+      <c r="AL4" s="1">
         <v>0.71</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AM4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO4" s="1">
+      <c r="AN4" s="1">
         <v>0.78</v>
       </c>
-      <c r="AP4" s="5" t="s">
+      <c r="AO4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ4" s="1">
+      <c r="AP4" s="1">
         <v>0.5</v>
       </c>
-      <c r="AR4" s="5" t="s">
+      <c r="AQ4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS4" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="5" t="s">
+      <c r="AR4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AT4" s="1">
         <v>-0.5</v>
       </c>
-      <c r="AV4" s="5" t="s">
+      <c r="AU4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW4" s="1">
+      <c r="AV4" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX4" s="5" t="s">
+      <c r="AW4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY4" s="1">
+      <c r="AX4" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA4" s="1">
+      <c r="AZ4" s="1">
         <v>0.78</v>
       </c>
-      <c r="BB4" s="1" t="s">
+      <c r="BA4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC4" s="1">
+      <c r="BB4" s="1">
         <v>0.78</v>
       </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BC4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE4" s="1">
+      <c r="BD4" s="1">
         <v>-0.65</v>
       </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BE4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG4" s="1">
+      <c r="BF4" s="1">
         <v>0.5</v>
       </c>
-      <c r="BH4" s="1" t="s">
+      <c r="BG4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI4" s="1">
+      <c r="BH4" s="1">
         <v>-0.75</v>
       </c>
-      <c r="BJ4" s="1" t="s">
+      <c r="BI4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK4" s="1">
+      <c r="BJ4" s="1">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:62" ht="12.75">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -3270,141 +3249,140 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="16"/>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="1">
-        <v>0</v>
-      </c>
-      <c r="T5" s="1" t="s">
+      <c r="R5" s="1">
+        <v>0</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="1">
+      <c r="T5" s="1">
         <v>0.78</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W5" s="1">
+      <c r="V5" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="12">
+      <c r="X5" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="Z5" s="1">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC5" s="1">
+      <c r="AB5" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AC5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AE5" s="1">
+      <c r="AD5" s="1">
         <v>0.7</v>
       </c>
+      <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="9" t="s">
+      <c r="AK5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM5" s="1">
+      <c r="AL5" s="1">
         <v>0.35</v>
       </c>
-      <c r="AN5" s="5" t="s">
+      <c r="AM5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO5" s="1">
+      <c r="AN5" s="1">
         <v>0.78</v>
       </c>
-      <c r="AP5" s="5" t="s">
+      <c r="AO5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ5" s="1">
+      <c r="AP5" s="1">
         <v>0.51</v>
       </c>
-      <c r="AR5" s="5" t="s">
+      <c r="AQ5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS5" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="5" t="s">
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU5" s="1">
+      <c r="AT5" s="1">
         <v>-0.49</v>
       </c>
-      <c r="AV5" s="5" t="s">
+      <c r="AU5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW5" s="1">
+      <c r="AV5" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX5" s="5" t="s">
+      <c r="AW5" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY5" s="1">
+      <c r="AX5" s="1">
         <v>-0.65</v>
       </c>
-      <c r="AZ5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA5" s="1">
+      <c r="AZ5" s="1">
         <v>0.78</v>
       </c>
-      <c r="BB5" s="1" t="s">
+      <c r="BA5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC5" s="1">
+      <c r="BB5" s="1">
         <v>0.78</v>
       </c>
-      <c r="BD5" s="1" t="s">
+      <c r="BC5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE5" s="1">
+      <c r="BD5" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="BF5" s="1" t="s">
+      <c r="BE5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG5" s="1">
+      <c r="BF5" s="1">
         <v>0.51</v>
       </c>
-      <c r="BH5" s="1" t="s">
+      <c r="BG5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI5" s="1">
+      <c r="BH5" s="1">
         <v>-0.65</v>
       </c>
-      <c r="BJ5" s="1" t="s">
+      <c r="BI5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK5" s="1">
+      <c r="BJ5" s="1">
         <v>-0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:62" ht="12.75">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -3423,145 +3401,144 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="1">
+      <c r="L6" s="1">
         <v>0.78</v>
       </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S6" s="1">
-        <v>0</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="1">
+      <c r="T6" s="1">
         <v>0.62</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W6" s="1">
+      <c r="V6" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="12">
+      <c r="X6" s="12">
         <v>-0.12</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="Z6" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AB6" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AC6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AE6" s="1">
+      <c r="AD6" s="1">
         <v>0.7</v>
       </c>
+      <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="9" t="s">
+      <c r="AK6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM6" s="1">
+      <c r="AL6" s="1">
         <v>0.35</v>
       </c>
-      <c r="AN6" s="5" t="s">
+      <c r="AM6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO6" s="1">
+      <c r="AN6" s="1">
         <v>0.62</v>
       </c>
-      <c r="AP6" s="5" t="s">
+      <c r="AO6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ6" s="1">
+      <c r="AP6" s="1">
         <v>0.47</v>
       </c>
-      <c r="AR6" s="5" t="s">
+      <c r="AQ6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="5" t="s">
+      <c r="AR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU6" s="1">
+      <c r="AT6" s="1">
         <v>-0.47</v>
       </c>
-      <c r="AV6" s="5" t="s">
+      <c r="AU6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW6" s="1">
+      <c r="AV6" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX6" s="5" t="s">
+      <c r="AW6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY6" s="1">
+      <c r="AX6" s="1">
         <v>-0.35</v>
       </c>
-      <c r="AZ6" s="1" t="s">
+      <c r="AY6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA6" s="1">
+      <c r="AZ6" s="1">
         <v>0.62</v>
       </c>
-      <c r="BB6" s="1" t="s">
+      <c r="BA6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC6" s="1">
+      <c r="BB6" s="1">
         <v>0.62</v>
       </c>
-      <c r="BD6" s="1" t="s">
+      <c r="BC6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE6" s="1">
+      <c r="BD6" s="1">
         <v>-0.33</v>
       </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BE6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG6" s="1">
+      <c r="BF6" s="1">
         <v>0.47</v>
       </c>
-      <c r="BH6" s="1" t="s">
+      <c r="BG6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI6" s="1">
+      <c r="BH6" s="1">
         <v>-0.35</v>
       </c>
-      <c r="BJ6" s="1" t="s">
+      <c r="BI6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK6" s="1">
+      <c r="BJ6" s="1">
         <v>-0.47</v>
       </c>
     </row>
-    <row r="7" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:62" ht="12.75">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -3580,53 +3557,53 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="1">
+      <c r="L7" s="1">
         <v>0.7</v>
       </c>
+      <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="1">
-        <v>0</v>
-      </c>
-      <c r="T7" s="1" t="s">
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="1">
+      <c r="T7" s="1">
         <v>0.65</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W7" s="1">
+      <c r="V7" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="X7" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="Z7" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC7" s="1">
+      <c r="AB7" s="1">
         <v>-0.75</v>
       </c>
+      <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
@@ -3634,87 +3611,86 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="9" t="s">
+      <c r="AK7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM7" s="1">
+      <c r="AL7" s="1">
         <v>0.5</v>
       </c>
-      <c r="AN7" s="5" t="s">
+      <c r="AM7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO7" s="1">
+      <c r="AN7" s="1">
         <v>0.65</v>
       </c>
-      <c r="AP7" s="5" t="s">
+      <c r="AO7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ7" s="1">
+      <c r="AP7" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AR7" s="5" t="s">
+      <c r="AQ7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="5" t="s">
+      <c r="AR7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU7" s="1">
+      <c r="AT7" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AV7" s="5" t="s">
+      <c r="AU7" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW7" s="1">
+      <c r="AV7" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX7" s="5" t="s">
+      <c r="AW7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY7" s="1">
+      <c r="AX7" s="1">
         <v>-0.4</v>
       </c>
-      <c r="AZ7" s="1" t="s">
+      <c r="AY7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA7" s="1">
+      <c r="AZ7" s="1">
         <v>0.65</v>
       </c>
-      <c r="BB7" s="1" t="s">
+      <c r="BA7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC7" s="1">
+      <c r="BB7" s="1">
         <v>0.65</v>
       </c>
-      <c r="BD7" s="1" t="s">
+      <c r="BC7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE7" s="1">
+      <c r="BD7" s="1">
         <v>-0.3</v>
       </c>
-      <c r="BF7" s="1" t="s">
+      <c r="BE7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG7" s="1">
+      <c r="BF7" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BH7" s="1" t="s">
+      <c r="BG7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI7" s="1">
+      <c r="BH7" s="1">
         <v>-0.4</v>
       </c>
-      <c r="BJ7" s="1" t="s">
+      <c r="BI7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK7" s="1">
+      <c r="BJ7" s="1">
         <v>-0.55000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:62" ht="12.75">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -3745,153 +3721,152 @@
       <c r="J8" s="1">
         <v>0.2</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M8" s="1">
+      <c r="L8" s="1">
         <v>0.4</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="1">
+      <c r="N8" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="P8" s="1">
         <v>0.05</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S8" s="1">
-        <v>0</v>
-      </c>
-      <c r="T8" s="1" t="s">
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U8" s="1">
+      <c r="T8" s="1">
         <v>0.75</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W8" s="1">
+      <c r="V8" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="X8" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="Z8" s="1">
         <v>-0.74</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC8" s="1">
+      <c r="AB8" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AD8" s="5" t="s">
+      <c r="AC8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AE8" s="1">
+      <c r="AD8" s="1">
         <v>0.7</v>
       </c>
+      <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="9" t="s">
+      <c r="AK8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM8" s="1">
+      <c r="AL8" s="1">
         <v>0.62</v>
       </c>
-      <c r="AN8" s="5" t="s">
+      <c r="AM8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO8" s="1">
+      <c r="AN8" s="1">
         <v>0.75</v>
       </c>
-      <c r="AP8" s="5" t="s">
+      <c r="AO8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ8" s="1">
+      <c r="AP8" s="1">
         <v>0.5</v>
       </c>
-      <c r="AR8" s="5" t="s">
+      <c r="AQ8" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="5" t="s">
+      <c r="AR8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU8" s="1">
+      <c r="AT8" s="1">
         <v>-0.2</v>
       </c>
-      <c r="AV8" s="5" t="s">
+      <c r="AU8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW8" s="1">
+      <c r="AV8" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX8" s="5" t="s">
+      <c r="AW8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY8" s="1">
+      <c r="AX8" s="1">
         <v>-0.49</v>
       </c>
-      <c r="AZ8" s="1" t="s">
+      <c r="AY8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA8" s="1">
+      <c r="AZ8" s="1">
         <v>0.75</v>
       </c>
-      <c r="BB8" s="1" t="s">
+      <c r="BA8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC8" s="1">
+      <c r="BB8" s="1">
         <v>0.75</v>
       </c>
-      <c r="BD8" s="1" t="s">
+      <c r="BC8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE8" s="1">
+      <c r="BD8" s="1">
         <v>-0.39</v>
       </c>
-      <c r="BF8" s="1" t="s">
+      <c r="BE8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG8" s="1">
+      <c r="BF8" s="1">
         <v>0.5</v>
       </c>
-      <c r="BH8" s="1" t="s">
+      <c r="BG8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI8" s="1">
+      <c r="BH8" s="1">
         <v>-0.49</v>
       </c>
-      <c r="BJ8" s="1" t="s">
+      <c r="BI8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK8" s="1">
+      <c r="BJ8" s="1">
         <v>-0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:62" ht="12.75">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -3914,153 +3889,152 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M9" s="1">
+      <c r="L9" s="1">
         <v>0.75</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O9" s="1">
+      <c r="N9" s="1">
         <v>0.25</v>
       </c>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S9" s="1">
-        <v>0</v>
-      </c>
-      <c r="T9" s="1" t="s">
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U9" s="1">
+      <c r="T9" s="1">
         <v>0.79</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W9" s="1">
+      <c r="V9" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="X9" s="12">
         <v>-0.31</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="Z9" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AB9" s="1">
         <v>-0.35</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE9" s="1">
+      <c r="AD9" s="1">
         <v>0.68</v>
       </c>
-      <c r="AF9" s="5" t="s">
+      <c r="AE9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AG9" s="1">
+      <c r="AF9" s="1">
         <v>0.2</v>
       </c>
+      <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="9" t="s">
+      <c r="AK9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM9" s="1">
+      <c r="AL9" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AN9" s="5" t="s">
+      <c r="AM9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO9" s="1">
+      <c r="AN9" s="1">
         <v>0.79</v>
       </c>
-      <c r="AP9" s="5" t="s">
+      <c r="AO9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ9" s="1">
+      <c r="AP9" s="1">
         <v>0.79</v>
       </c>
-      <c r="AR9" s="5" t="s">
+      <c r="AQ9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="5" t="s">
+      <c r="AR9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU9" s="1">
+      <c r="AT9" s="1">
         <v>-0.6</v>
       </c>
-      <c r="AV9" s="5" t="s">
+      <c r="AU9" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW9" s="1">
+      <c r="AV9" s="1">
         <v>-0.35</v>
       </c>
-      <c r="AX9" s="5" t="s">
+      <c r="AW9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY9" s="1">
+      <c r="AX9" s="1">
         <v>-0.47</v>
       </c>
-      <c r="AZ9" s="1" t="s">
+      <c r="AY9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA9" s="1">
+      <c r="AZ9" s="1">
         <v>0.8</v>
       </c>
-      <c r="BB9" s="1" t="s">
+      <c r="BA9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC9" s="1">
+      <c r="BB9" s="1">
         <v>0.7</v>
       </c>
-      <c r="BD9" s="1" t="s">
+      <c r="BC9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE9" s="1">
+      <c r="BD9" s="1">
         <v>-0.37</v>
       </c>
-      <c r="BF9" s="1" t="s">
+      <c r="BE9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG9" s="1">
+      <c r="BF9" s="1">
         <v>0.79</v>
       </c>
-      <c r="BH9" s="1" t="s">
+      <c r="BG9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI9" s="1">
+      <c r="BH9" s="1">
         <v>-0.47</v>
       </c>
-      <c r="BJ9" s="1" t="s">
+      <c r="BI9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK9" s="1">
+      <c r="BJ9" s="1">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:62" ht="12.75">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -4083,149 +4057,148 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M10" s="1">
+      <c r="L10" s="1">
         <v>0.75</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="O10" s="1">
+      <c r="N10" s="1">
         <v>0.25</v>
       </c>
+      <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S10" s="1">
-        <v>0</v>
-      </c>
-      <c r="T10" s="1" t="s">
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="1">
+      <c r="T10" s="1">
         <v>0.71</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W10" s="1">
+      <c r="V10" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="X10" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Z10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="Z10" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="AB10" s="1">
         <v>-0.43</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="AD10" s="1">
         <v>0.65</v>
       </c>
+      <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="9" t="s">
+      <c r="AK10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="AL10" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AN10" s="5" t="s">
+      <c r="AM10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="AN10" s="1">
         <v>0.71</v>
       </c>
-      <c r="AP10" s="5" t="s">
+      <c r="AO10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ10" s="1">
+      <c r="AP10" s="1">
         <v>0.78</v>
       </c>
-      <c r="AR10" s="5" t="s">
+      <c r="AQ10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="5" t="s">
+      <c r="AR10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU10" s="1">
+      <c r="AT10" s="1">
         <v>-0.74</v>
       </c>
-      <c r="AV10" s="5" t="s">
+      <c r="AU10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW10" s="1">
+      <c r="AV10" s="1">
         <v>0.42</v>
       </c>
-      <c r="AX10" s="5" t="s">
+      <c r="AW10" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY10" s="1">
+      <c r="AX10" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AZ10" s="1" t="s">
+      <c r="AY10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA10" s="1">
+      <c r="AZ10" s="1">
         <v>0.81</v>
       </c>
-      <c r="BB10" s="1" t="s">
+      <c r="BA10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC10" s="1">
+      <c r="BB10" s="1">
         <v>0.71</v>
       </c>
-      <c r="BD10" s="1" t="s">
+      <c r="BC10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE10" s="1">
+      <c r="BD10" s="1">
         <v>-0.45</v>
       </c>
-      <c r="BF10" s="1" t="s">
+      <c r="BE10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG10" s="1">
+      <c r="BF10" s="1">
         <v>0.68</v>
       </c>
-      <c r="BH10" s="1" t="s">
+      <c r="BG10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI10" s="1">
+      <c r="BH10" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="BJ10" s="1" t="s">
+      <c r="BI10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK10" s="1">
+      <c r="BJ10" s="1">
         <v>-0.74</v>
       </c>
     </row>
-    <row r="11" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:62" ht="12.75">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -4244,49 +4217,49 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="16"/>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S11" s="1">
-        <v>0</v>
-      </c>
-      <c r="T11" s="1" t="s">
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U11" s="1">
-        <v>0</v>
-      </c>
-      <c r="V11" s="1" t="s">
+      <c r="T11" s="1">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W11" s="1">
-        <v>0</v>
-      </c>
-      <c r="X11" s="1" t="s">
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y11" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="1" t="s">
+      <c r="X11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="1" t="s">
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC11" s="1">
-        <v>0</v>
-      </c>
+      <c r="AB11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
@@ -4294,87 +4267,86 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="9" t="s">
+      <c r="AK11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM11" s="1">
+      <c r="AL11" s="1">
         <v>-0.78</v>
       </c>
-      <c r="AN11" s="5" t="s">
+      <c r="AM11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO11" s="1">
+      <c r="AN11" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AP11" s="5" t="s">
+      <c r="AO11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ11" s="1">
+      <c r="AP11" s="1">
         <v>-0.65</v>
       </c>
-      <c r="AR11" s="5" t="s">
+      <c r="AQ11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS11" s="1">
+      <c r="AR11" s="1">
         <v>0.8</v>
       </c>
-      <c r="AT11" s="5" t="s">
+      <c r="AS11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU11" s="1">
+      <c r="AT11" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AV11" s="5" t="s">
+      <c r="AU11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW11" s="1">
+      <c r="AV11" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX11" s="5" t="s">
+      <c r="AW11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY11" s="1">
+      <c r="AX11" s="1">
         <v>0.7</v>
       </c>
-      <c r="AZ11" s="1" t="s">
+      <c r="AY11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA11" s="1">
+      <c r="AZ11" s="1">
         <v>-0.78</v>
       </c>
-      <c r="BB11" s="1" t="s">
+      <c r="BA11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC11" s="1">
+      <c r="BB11" s="1">
         <v>-0.7</v>
       </c>
-      <c r="BD11" s="1" t="s">
+      <c r="BC11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE11" s="1">
+      <c r="BD11" s="1">
         <v>0.69</v>
       </c>
-      <c r="BF11" s="1" t="s">
+      <c r="BE11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG11" s="1">
+      <c r="BF11" s="1">
         <v>-0.95</v>
       </c>
-      <c r="BH11" s="1" t="s">
+      <c r="BG11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI11" s="1">
+      <c r="BH11" s="1">
         <v>0.78</v>
       </c>
-      <c r="BJ11" s="1" t="s">
+      <c r="BI11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK11" s="1">
+      <c r="BJ11" s="1">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="12" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:62" ht="12.75">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -4397,145 +4369,144 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M12" s="1">
+      <c r="L12" s="1">
         <v>0.74</v>
       </c>
+      <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1" t="s">
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U12" s="1">
+      <c r="T12" s="1">
         <v>0.74</v>
       </c>
-      <c r="V12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W12" s="1">
+      <c r="V12" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X12" s="1" t="s">
+      <c r="W12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="X12" s="1">
         <v>0.78</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="Y12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="Z12" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC12" s="12">
+      <c r="AB12" s="12">
         <v>-0.42</v>
       </c>
-      <c r="AD12" s="5" t="s">
+      <c r="AC12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AE12" s="1">
+      <c r="AD12" s="1">
         <v>0.55000000000000004</v>
       </c>
+      <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="9" t="s">
+      <c r="AK12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM12" s="1">
+      <c r="AL12" s="1">
         <v>0.75</v>
       </c>
-      <c r="AN12" s="5" t="s">
+      <c r="AM12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO12" s="1">
+      <c r="AN12" s="1">
         <v>0.74</v>
       </c>
-      <c r="AP12" s="5" t="s">
+      <c r="AO12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ12" s="1">
+      <c r="AP12" s="1">
         <v>0.7</v>
       </c>
-      <c r="AR12" s="5" t="s">
+      <c r="AQ12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="5" t="s">
+      <c r="AR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU12" s="1">
+      <c r="AT12" s="1">
         <v>-0.6</v>
       </c>
-      <c r="AV12" s="5" t="s">
+      <c r="AU12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW12" s="1">
+      <c r="AV12" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX12" s="5" t="s">
+      <c r="AW12" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY12" s="1">
+      <c r="AX12" s="1">
         <v>-0.26</v>
       </c>
-      <c r="AZ12" s="1" t="s">
+      <c r="AY12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA12" s="1">
+      <c r="AZ12" s="1">
         <v>0.74</v>
       </c>
-      <c r="BB12" s="1" t="s">
+      <c r="BA12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC12" s="1">
+      <c r="BB12" s="1">
         <v>0.74</v>
       </c>
-      <c r="BD12" s="1" t="s">
+      <c r="BC12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE12" s="1">
+      <c r="BD12" s="1">
         <v>-0.16</v>
       </c>
-      <c r="BF12" s="1" t="s">
+      <c r="BE12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG12" s="1">
+      <c r="BF12" s="1">
         <v>0.7</v>
       </c>
-      <c r="BH12" s="1" t="s">
+      <c r="BG12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI12" s="1">
+      <c r="BH12" s="1">
         <v>-0.26</v>
       </c>
-      <c r="BJ12" s="1" t="s">
+      <c r="BI12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK12" s="1">
+      <c r="BJ12" s="1">
         <v>-0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:62" ht="12.75">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
@@ -4558,53 +4529,53 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="1">
+      <c r="L13" s="1">
         <v>0.74</v>
       </c>
+      <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S13" s="1">
-        <v>0</v>
-      </c>
-      <c r="T13" s="1" t="s">
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U13" s="1">
+      <c r="T13" s="1">
         <v>0.73</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="U13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W13" s="1">
+      <c r="V13" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="X13" s="1">
         <v>0.78</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="Y13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="Z13" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC13" s="12">
+      <c r="AB13" s="12">
         <v>-0.65</v>
       </c>
+      <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
@@ -4612,87 +4583,86 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="9" t="s">
+      <c r="AK13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM13" s="1">
+      <c r="AL13" s="1">
         <v>0.6</v>
       </c>
-      <c r="AN13" s="5" t="s">
+      <c r="AM13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO13" s="1">
+      <c r="AN13" s="1">
         <v>0.73</v>
       </c>
-      <c r="AP13" s="5" t="s">
+      <c r="AO13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ13" s="1">
+      <c r="AP13" s="1">
         <v>0.51</v>
       </c>
-      <c r="AR13" s="5" t="s">
+      <c r="AQ13" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="5" t="s">
+      <c r="AR13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU13" s="1">
+      <c r="AT13" s="1">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="AV13" s="5" t="s">
+      <c r="AU13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW13" s="1">
+      <c r="AV13" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX13" s="5" t="s">
+      <c r="AW13" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY13" s="1">
+      <c r="AX13" s="1">
         <v>-0.48</v>
       </c>
-      <c r="AZ13" s="1" t="s">
+      <c r="AY13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA13" s="1">
+      <c r="AZ13" s="1">
         <v>0.73</v>
       </c>
-      <c r="BB13" s="1" t="s">
+      <c r="BA13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC13" s="1">
+      <c r="BB13" s="1">
         <v>0.73</v>
       </c>
-      <c r="BD13" s="1" t="s">
+      <c r="BC13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE13" s="1">
+      <c r="BD13" s="1">
         <v>-0.38</v>
       </c>
-      <c r="BF13" s="1" t="s">
+      <c r="BE13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG13" s="1">
+      <c r="BF13" s="1">
         <v>0.51</v>
       </c>
-      <c r="BH13" s="1" t="s">
+      <c r="BG13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI13" s="1">
+      <c r="BH13" s="1">
         <v>-0.48</v>
       </c>
-      <c r="BJ13" s="1" t="s">
+      <c r="BI13" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK13" s="1">
+      <c r="BJ13" s="1">
         <v>-0.14000000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:62" ht="12.75">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
@@ -4715,149 +4685,148 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="1">
+      <c r="L14" s="1">
         <v>0.7</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O14" s="1">
+      <c r="N14" s="1">
         <v>0.3</v>
       </c>
+      <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S14" s="1">
-        <v>0</v>
-      </c>
-      <c r="T14" s="1" t="s">
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U14" s="1">
+      <c r="T14" s="1">
         <v>0.76</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W14" s="1">
+      <c r="V14" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X14" s="1" t="s">
+      <c r="W14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="X14" s="1">
         <v>0.78</v>
       </c>
-      <c r="Z14" s="1" t="s">
+      <c r="Y14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="Z14" s="1">
         <v>-0.54</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC14" s="12">
+      <c r="AB14" s="12">
         <v>-0.42</v>
       </c>
-      <c r="AD14" s="5" t="s">
+      <c r="AC14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="AE14" s="1">
+      <c r="AD14" s="1">
         <v>0.67</v>
       </c>
+      <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="9" t="s">
+      <c r="AK14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM14" s="1">
+      <c r="AL14" s="1">
         <v>0.77</v>
       </c>
-      <c r="AN14" s="5" t="s">
+      <c r="AM14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO14" s="1">
+      <c r="AN14" s="1">
         <v>0.76</v>
       </c>
-      <c r="AP14" s="5" t="s">
+      <c r="AO14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ14" s="1">
+      <c r="AP14" s="1">
         <v>0.6</v>
       </c>
-      <c r="AR14" s="5" t="s">
+      <c r="AQ14" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="5" t="s">
+      <c r="AR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU14" s="1">
+      <c r="AT14" s="1">
         <v>-0.35</v>
       </c>
-      <c r="AV14" s="5" t="s">
+      <c r="AU14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW14" s="1">
+      <c r="AV14" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX14" s="5" t="s">
+      <c r="AW14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY14" s="1">
+      <c r="AX14" s="1">
         <v>-0.4</v>
       </c>
-      <c r="AZ14" s="1" t="s">
+      <c r="AY14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA14" s="1">
+      <c r="AZ14" s="1">
         <v>0.76</v>
       </c>
-      <c r="BB14" s="1" t="s">
+      <c r="BA14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC14" s="1">
+      <c r="BB14" s="1">
         <v>0.76</v>
       </c>
-      <c r="BD14" s="1" t="s">
+      <c r="BC14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE14" s="1">
+      <c r="BD14" s="1">
         <v>-0.35</v>
       </c>
-      <c r="BF14" s="1" t="s">
+      <c r="BE14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG14" s="1">
+      <c r="BF14" s="1">
         <v>0.6</v>
       </c>
-      <c r="BH14" s="1" t="s">
+      <c r="BG14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI14" s="1">
+      <c r="BH14" s="1">
         <v>-0.4</v>
       </c>
-      <c r="BJ14" s="1" t="s">
+      <c r="BI14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK14" s="1">
+      <c r="BJ14" s="1">
         <v>-0.35</v>
       </c>
     </row>
-    <row r="15" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:62" ht="12.75">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -4884,161 +4853,160 @@
       <c r="J15" s="1">
         <v>0.05</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="1">
+      <c r="L15" s="1">
         <v>0.65</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="O15" s="1">
+      <c r="N15" s="1">
         <v>0.15</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="O15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="P15" s="1">
         <v>0.2</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S15" s="1">
-        <v>0</v>
-      </c>
-      <c r="T15" s="1" t="s">
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U15" s="1">
+      <c r="T15" s="1">
         <v>-0.32</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="U15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W15" s="1">
+      <c r="V15" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="X15" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="Z15" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC15" s="12">
+      <c r="AB15" s="12">
         <v>-0.53</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AC15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE15" s="1">
+      <c r="AD15" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AF15" s="5" t="s">
+      <c r="AE15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AG15" s="1">
+      <c r="AF15" s="1">
         <v>0.3</v>
       </c>
-      <c r="AH15" s="5" t="s">
+      <c r="AG15" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AI15" s="1">
+      <c r="AH15" s="1">
         <v>0.15</v>
       </c>
+      <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="9" t="s">
+      <c r="AK15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM15" s="1">
+      <c r="AL15" s="1">
         <v>-0.65</v>
       </c>
-      <c r="AN15" s="5" t="s">
+      <c r="AM15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO15" s="1">
+      <c r="AN15" s="1">
         <v>-0.32</v>
       </c>
-      <c r="AP15" s="5" t="s">
+      <c r="AO15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ15" s="1">
+      <c r="AP15" s="1">
         <v>0.86</v>
       </c>
-      <c r="AR15" s="5" t="s">
+      <c r="AQ15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="5" t="s">
+      <c r="AR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU15" s="1">
+      <c r="AT15" s="1">
         <v>-0.05</v>
       </c>
-      <c r="AV15" s="5" t="s">
+      <c r="AU15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW15" s="1">
+      <c r="AV15" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX15" s="5" t="s">
+      <c r="AW15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY15" s="1">
+      <c r="AX15" s="1">
         <v>0.75</v>
       </c>
-      <c r="AZ15" s="1" t="s">
+      <c r="AY15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA15" s="1">
+      <c r="AZ15" s="1">
         <v>-0.32</v>
       </c>
-      <c r="BB15" s="1" t="s">
+      <c r="BA15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC15" s="1">
+      <c r="BB15" s="1">
         <v>-0.32</v>
       </c>
-      <c r="BD15" s="1" t="s">
+      <c r="BC15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE15" s="1">
+      <c r="BD15" s="1">
         <v>0.75</v>
       </c>
-      <c r="BF15" s="1" t="s">
+      <c r="BE15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG15" s="1">
+      <c r="BF15" s="1">
         <v>0.76</v>
       </c>
-      <c r="BH15" s="1" t="s">
+      <c r="BG15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI15" s="1">
+      <c r="BH15" s="1">
         <v>0.65</v>
       </c>
-      <c r="BJ15" s="1" t="s">
+      <c r="BI15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK15" s="1">
+      <c r="BJ15" s="1">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:62" ht="12.75">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -5061,57 +5029,57 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="1">
+      <c r="L16" s="1">
         <v>0.65</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O16" s="1">
+      <c r="N16" s="1">
         <v>0.15</v>
       </c>
+      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S16" s="1">
-        <v>0</v>
-      </c>
-      <c r="T16" s="1" t="s">
+      <c r="R16" s="1">
+        <v>0</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U16" s="1">
+      <c r="T16" s="1">
         <v>-0.42</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="U16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W16" s="1">
+      <c r="V16" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y16" s="12">
+      <c r="X16" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="Z16" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC16" s="12">
+      <c r="AB16" s="12">
         <v>-0.42</v>
       </c>
+      <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
@@ -5119,87 +5087,86 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="9" t="s">
+      <c r="AK16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM16" s="1">
+      <c r="AL16" s="1">
         <v>-0.65</v>
       </c>
-      <c r="AN16" s="5" t="s">
+      <c r="AM16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO16" s="1">
+      <c r="AN16" s="1">
         <v>-0.42</v>
       </c>
-      <c r="AP16" s="5" t="s">
+      <c r="AO16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ16" s="1">
+      <c r="AP16" s="1">
         <v>0.85</v>
       </c>
-      <c r="AR16" s="5" t="s">
+      <c r="AQ16" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="5" t="s">
+      <c r="AR16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU16" s="1">
+      <c r="AT16" s="1">
         <v>-0.02</v>
       </c>
-      <c r="AV16" s="5" t="s">
+      <c r="AU16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW16" s="1">
+      <c r="AV16" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX16" s="5" t="s">
+      <c r="AW16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY16" s="1">
+      <c r="AX16" s="1">
         <v>0.75</v>
       </c>
-      <c r="AZ16" s="1" t="s">
+      <c r="AY16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA16" s="1">
+      <c r="AZ16" s="1">
         <v>-0.42</v>
       </c>
-      <c r="BB16" s="1" t="s">
+      <c r="BA16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC16" s="1">
+      <c r="BB16" s="1">
         <v>-0.42</v>
       </c>
-      <c r="BD16" s="1" t="s">
+      <c r="BC16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE16" s="1">
+      <c r="BD16" s="1">
         <v>0.75</v>
       </c>
-      <c r="BF16" s="1" t="s">
+      <c r="BE16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG16" s="1">
+      <c r="BF16" s="1">
         <v>0.75</v>
       </c>
-      <c r="BH16" s="1" t="s">
+      <c r="BG16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI16" s="1">
+      <c r="BH16" s="1">
         <v>0.65</v>
       </c>
-      <c r="BJ16" s="1" t="s">
+      <c r="BI16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK16" s="1">
+      <c r="BJ16" s="1">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="17" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:62" ht="12.75">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -5226,153 +5193,152 @@
       <c r="J17" s="1">
         <v>0.1</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M17" s="1">
+      <c r="L17" s="1">
         <v>0.65</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="O17" s="1">
+      <c r="N17" s="1">
         <v>0.15</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="P17" s="1">
         <v>0.2</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S17" s="1">
-        <v>0</v>
-      </c>
-      <c r="T17" s="1" t="s">
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U17" s="1">
+      <c r="T17" s="1">
         <v>0.2</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W17" s="1">
+      <c r="V17" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y17" s="12">
+      <c r="X17" s="12">
         <v>-0.31</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="Z17" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC17" s="12">
+      <c r="AB17" s="12">
         <v>-0.41</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AC17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE17" s="1">
+      <c r="AD17" s="1">
         <v>0.76</v>
       </c>
+      <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="9" t="s">
+      <c r="AK17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM17" s="1">
+      <c r="AL17" s="1">
         <v>-0.35</v>
       </c>
-      <c r="AN17" s="5" t="s">
+      <c r="AM17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO17" s="1">
+      <c r="AN17" s="1">
         <v>0.2</v>
       </c>
-      <c r="AP17" s="5" t="s">
+      <c r="AO17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ17" s="1">
+      <c r="AP17" s="1">
         <v>0.85</v>
       </c>
-      <c r="AR17" s="5" t="s">
+      <c r="AQ17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="5" t="s">
+      <c r="AR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU17" s="1">
+      <c r="AT17" s="1">
         <v>-0.1</v>
       </c>
-      <c r="AV17" s="5" t="s">
+      <c r="AU17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW17" s="1">
+      <c r="AV17" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX17" s="5" t="s">
+      <c r="AW17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY17" s="1">
+      <c r="AX17" s="1">
         <v>0.7</v>
       </c>
-      <c r="AZ17" s="1" t="s">
+      <c r="AY17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA17" s="1">
+      <c r="AZ17" s="1">
         <v>0.2</v>
       </c>
-      <c r="BB17" s="1" t="s">
+      <c r="BA17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC17" s="1">
+      <c r="BB17" s="1">
         <v>0.2</v>
       </c>
-      <c r="BD17" s="1" t="s">
+      <c r="BC17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE17" s="1">
+      <c r="BD17" s="1">
         <v>0.6</v>
       </c>
-      <c r="BF17" s="1" t="s">
+      <c r="BE17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG17" s="1">
+      <c r="BF17" s="1">
         <v>0.75</v>
       </c>
-      <c r="BH17" s="1" t="s">
+      <c r="BG17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI17" s="1">
+      <c r="BH17" s="1">
         <v>0.7</v>
       </c>
-      <c r="BJ17" s="1" t="s">
+      <c r="BI17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK17" s="1">
+      <c r="BJ17" s="1">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:62" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -5395,57 +5361,57 @@
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="1">
+      <c r="L18" s="1">
         <v>0.8</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="M18" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="O18" s="1">
+      <c r="N18" s="1">
         <v>0.2</v>
       </c>
+      <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S18" s="1">
-        <v>0</v>
-      </c>
-      <c r="T18" s="1" t="s">
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U18" s="1">
+      <c r="T18" s="1">
         <v>0.02</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W18" s="1">
+      <c r="V18" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y18" s="12">
+      <c r="X18" s="12">
         <v>-0.42</v>
       </c>
-      <c r="Z18" s="1" t="s">
+      <c r="Y18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="Z18" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC18" s="12">
+      <c r="AB18" s="12">
         <v>-0.42</v>
       </c>
+      <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
@@ -5453,87 +5419,86 @@
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="9" t="s">
+      <c r="AK18" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM18" s="1">
+      <c r="AL18" s="1">
         <v>0.35</v>
       </c>
-      <c r="AN18" s="5" t="s">
+      <c r="AM18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO18" s="1">
+      <c r="AN18" s="1">
         <v>0.02</v>
       </c>
-      <c r="AP18" s="5" t="s">
+      <c r="AO18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ18" s="1">
+      <c r="AP18" s="1">
         <v>0.79</v>
       </c>
-      <c r="AR18" s="5" t="s">
+      <c r="AQ18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="5" t="s">
+      <c r="AR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU18" s="1">
+      <c r="AT18" s="1">
         <v>0.05</v>
       </c>
-      <c r="AV18" s="5" t="s">
+      <c r="AU18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW18" s="1">
+      <c r="AV18" s="1">
         <v>0.2</v>
       </c>
-      <c r="AX18" s="5" t="s">
+      <c r="AW18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY18" s="1">
+      <c r="AX18" s="1">
         <v>0.75</v>
       </c>
-      <c r="AZ18" s="1" t="s">
+      <c r="AY18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA18" s="1">
+      <c r="AZ18" s="1">
         <v>0.02</v>
       </c>
-      <c r="BB18" s="1" t="s">
+      <c r="BA18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC18" s="1">
+      <c r="BB18" s="1">
         <v>0.02</v>
       </c>
-      <c r="BD18" s="1" t="s">
+      <c r="BC18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE18" s="1">
+      <c r="BD18" s="1">
         <v>0.65</v>
       </c>
-      <c r="BF18" s="1" t="s">
+      <c r="BE18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG18" s="1">
+      <c r="BF18" s="1">
         <v>0.75</v>
       </c>
-      <c r="BH18" s="1" t="s">
+      <c r="BG18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI18" s="1">
+      <c r="BH18" s="1">
         <v>0.75</v>
       </c>
-      <c r="BJ18" s="1" t="s">
+      <c r="BI18" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK18" s="1">
+      <c r="BJ18" s="1">
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:62" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -5556,149 +5521,148 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="1">
+      <c r="L19" s="1">
         <v>0.8</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O19" s="1">
+      <c r="N19" s="1">
         <v>0.2</v>
       </c>
+      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S19" s="1">
-        <v>0</v>
-      </c>
-      <c r="T19" s="1" t="s">
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U19" s="1">
+      <c r="T19" s="1">
         <v>-0.45</v>
       </c>
-      <c r="V19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W19" s="1">
+      <c r="V19" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y19" s="12">
+      <c r="X19" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Z19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="Z19" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB19" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC19" s="1">
+      <c r="AB19" s="1">
         <v>0.3</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AC19" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="AE19" s="1">
+      <c r="AD19" s="1">
         <v>0.75</v>
       </c>
+      <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="9" t="s">
+      <c r="AK19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM19" s="1">
+      <c r="AL19" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AN19" s="5" t="s">
+      <c r="AM19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO19" s="1">
+      <c r="AN19" s="1">
         <v>-0.45</v>
       </c>
-      <c r="AP19" s="5" t="s">
+      <c r="AO19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ19" s="1">
+      <c r="AP19" s="1">
         <v>0.32</v>
       </c>
-      <c r="AR19" s="5" t="s">
+      <c r="AQ19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="5" t="s">
+      <c r="AR19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU19" s="1">
+      <c r="AT19" s="1">
         <v>0.7</v>
       </c>
-      <c r="AV19" s="5" t="s">
+      <c r="AU19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW19" s="1">
+      <c r="AV19" s="1">
         <v>0.65</v>
       </c>
-      <c r="AX19" s="5" t="s">
+      <c r="AW19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY19" s="1">
+      <c r="AX19" s="1">
         <v>0.64</v>
       </c>
-      <c r="AZ19" s="1" t="s">
+      <c r="AY19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA19" s="1">
+      <c r="AZ19" s="1">
         <v>-0.45</v>
       </c>
-      <c r="BB19" s="1" t="s">
+      <c r="BA19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC19" s="1">
+      <c r="BB19" s="1">
         <v>-0.45</v>
       </c>
-      <c r="BD19" s="1" t="s">
+      <c r="BC19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE19" s="1">
+      <c r="BD19" s="1">
         <v>0.54</v>
       </c>
-      <c r="BF19" s="1" t="s">
+      <c r="BE19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG19" s="1">
+      <c r="BF19" s="1">
         <v>0.32</v>
       </c>
-      <c r="BH19" s="1" t="s">
+      <c r="BG19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI19" s="1">
+      <c r="BH19" s="1">
         <v>0.64</v>
       </c>
-      <c r="BJ19" s="1" t="s">
+      <c r="BI19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK19" s="1">
+      <c r="BJ19" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="20" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:62" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -5721,153 +5685,152 @@
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="M20" s="1">
+      <c r="L20" s="1">
         <v>0.8</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="O20" s="1">
+      <c r="N20" s="1">
         <v>0.2</v>
       </c>
+      <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S20" s="1">
-        <v>0</v>
-      </c>
-      <c r="T20" s="1" t="s">
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U20" s="1">
+      <c r="T20" s="1">
         <v>0.38</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="U20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W20" s="1">
+      <c r="V20" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y20" s="12">
+      <c r="X20" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="Z20" s="1">
         <v>-0.78</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC20" s="1">
+      <c r="AB20" s="1">
         <v>0.3</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AC20" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AE20" s="1">
+      <c r="AD20" s="1">
         <v>0.7</v>
       </c>
-      <c r="AF20" s="1" t="s">
+      <c r="AE20" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AG20" s="1">
+      <c r="AF20" s="1">
         <v>0.3</v>
       </c>
+      <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="9" t="s">
+      <c r="AK20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM20" s="1">
+      <c r="AL20" s="1">
         <v>0.12</v>
       </c>
-      <c r="AN20" s="5" t="s">
+      <c r="AM20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO20" s="1">
+      <c r="AN20" s="1">
         <v>0.38</v>
       </c>
-      <c r="AP20" s="5" t="s">
+      <c r="AO20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ20" s="1">
+      <c r="AP20" s="1">
         <v>0.3</v>
       </c>
-      <c r="AR20" s="5" t="s">
+      <c r="AQ20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS20" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="5" t="s">
+      <c r="AR20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU20" s="1">
+      <c r="AT20" s="1">
         <v>0.7</v>
       </c>
-      <c r="AV20" s="5" t="s">
+      <c r="AU20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW20" s="1">
+      <c r="AV20" s="1">
         <v>0.6</v>
       </c>
-      <c r="AX20" s="5" t="s">
+      <c r="AW20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY20" s="1">
+      <c r="AX20" s="1">
         <v>0.72</v>
       </c>
-      <c r="AZ20" s="1" t="s">
+      <c r="AY20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA20" s="1">
+      <c r="AZ20" s="1">
         <v>0.38</v>
       </c>
-      <c r="BB20" s="1" t="s">
+      <c r="BA20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC20" s="1">
+      <c r="BB20" s="1">
         <v>0.38</v>
       </c>
-      <c r="BD20" s="1" t="s">
+      <c r="BC20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE20" s="1">
+      <c r="BD20" s="1">
         <v>0.62</v>
       </c>
-      <c r="BF20" s="1" t="s">
+      <c r="BE20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG20" s="1">
+      <c r="BF20" s="1">
         <v>0.3</v>
       </c>
-      <c r="BH20" s="1" t="s">
+      <c r="BG20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI20" s="1">
+      <c r="BH20" s="1">
         <v>0.72</v>
       </c>
-      <c r="BJ20" s="1" t="s">
+      <c r="BI20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK20" s="1">
+      <c r="BJ20" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:62" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -5882,115 +5845,115 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="16"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S21" s="1">
-        <v>0</v>
-      </c>
-      <c r="T21" s="1" t="s">
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U21" s="1">
+      <c r="T21" s="1">
         <v>0.65</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="U21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W21" s="1">
+      <c r="V21" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="X21" s="1">
         <v>0.65</v>
       </c>
-      <c r="Z21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="Z21" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AB21" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AD21" s="5" t="s">
+      <c r="AC21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE21" s="5">
+      <c r="AD21" s="5">
         <v>0.79</v>
       </c>
-      <c r="AF21" s="5" t="s">
+      <c r="AE21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG21" s="5">
+      <c r="AF21" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AH21" s="5" t="s">
+      <c r="AG21" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI21" s="1">
+      <c r="AH21" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ21" s="5" t="s">
+      <c r="AI21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="9" t="s">
+      <c r="AJ21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM21" s="1">
+      <c r="AL21" s="1">
         <v>0.74</v>
       </c>
-      <c r="AN21" s="5" t="s">
+      <c r="AM21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO21" s="1">
+      <c r="AN21" s="1">
         <v>0.7</v>
       </c>
-      <c r="AP21" s="5" t="s">
+      <c r="AO21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ21" s="1">
+      <c r="AP21" s="1">
         <v>0.8</v>
       </c>
-      <c r="AR21" s="5" t="s">
+      <c r="AQ21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS21" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="5" t="s">
+      <c r="AR21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU21" s="1">
+      <c r="AT21" s="1">
         <v>-0.6</v>
       </c>
-      <c r="AV21" s="5" t="s">
+      <c r="AU21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW21" s="1">
+      <c r="AV21" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX21" s="5" t="s">
+      <c r="AW21" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY21" s="1">
+      <c r="AX21" s="1">
         <v>-0.65</v>
       </c>
+      <c r="AY21" s="1"/>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
@@ -6002,9 +5965,8 @@
       <c r="BH21" s="1"/>
       <c r="BI21" s="1"/>
       <c r="BJ21" s="1"/>
-      <c r="BK21" s="1"/>
     </row>
-    <row r="22" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:62" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -6019,115 +5981,115 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="16"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S22" s="1">
-        <v>0</v>
-      </c>
-      <c r="T22" s="1" t="s">
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U22" s="1">
+      <c r="T22" s="1">
         <v>0.65</v>
       </c>
-      <c r="V22" s="1" t="s">
+      <c r="U22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W22" s="1">
+      <c r="V22" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X22" s="1" t="s">
+      <c r="W22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="X22" s="1">
         <v>0.65</v>
       </c>
-      <c r="Z22" s="1" t="s">
+      <c r="Y22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="Z22" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB22" s="1" t="s">
+      <c r="AA22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AB22" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AD22" s="5" t="s">
+      <c r="AC22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE22" s="5">
+      <c r="AD22" s="5">
         <v>0.79</v>
       </c>
-      <c r="AF22" s="5" t="s">
+      <c r="AE22" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG22" s="5">
+      <c r="AF22" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AH22" s="5" t="s">
+      <c r="AG22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI22" s="1">
+      <c r="AH22" s="1">
         <v>0.47</v>
       </c>
-      <c r="AJ22" s="5" t="s">
+      <c r="AI22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="9" t="s">
+      <c r="AJ22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM22" s="1">
+      <c r="AL22" s="1">
         <v>0.75</v>
       </c>
-      <c r="AN22" s="5" t="s">
+      <c r="AM22" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO22" s="1">
+      <c r="AN22" s="1">
         <v>0.71</v>
       </c>
-      <c r="AP22" s="5" t="s">
+      <c r="AO22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ22" s="1">
+      <c r="AP22" s="1">
         <v>0.61</v>
       </c>
-      <c r="AR22" s="5" t="s">
+      <c r="AQ22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS22" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="5" t="s">
+      <c r="AR22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU22" s="1">
+      <c r="AT22" s="1">
         <v>-0.4</v>
       </c>
-      <c r="AV22" s="5" t="s">
+      <c r="AU22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW22" s="1">
+      <c r="AV22" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX22" s="5" t="s">
+      <c r="AW22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY22" s="1">
+      <c r="AX22" s="1">
         <v>-0.75</v>
       </c>
+      <c r="AY22" s="1"/>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
@@ -6139,9 +6101,8 @@
       <c r="BH22" s="1"/>
       <c r="BI22" s="1"/>
       <c r="BJ22" s="1"/>
-      <c r="BK22" s="1"/>
     </row>
-    <row r="23" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:62" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -6156,115 +6117,115 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="16"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S23" s="1">
-        <v>0</v>
-      </c>
-      <c r="T23" s="1" t="s">
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U23" s="1">
+      <c r="T23" s="1">
         <v>0.65</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="U23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W23" s="1">
+      <c r="V23" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y23" s="12">
+      <c r="X23" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Z23" s="1" t="s">
+      <c r="Y23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="Z23" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB23" s="1" t="s">
+      <c r="AA23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC23" s="12">
+      <c r="AB23" s="12">
         <v>-0.41</v>
       </c>
-      <c r="AD23" s="5" t="s">
+      <c r="AC23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE23" s="5">
+      <c r="AD23" s="5">
         <v>0.4</v>
       </c>
-      <c r="AF23" s="5" t="s">
+      <c r="AE23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG23" s="5">
+      <c r="AF23" s="5">
         <v>-0.3</v>
       </c>
-      <c r="AH23" s="5" t="s">
+      <c r="AG23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI23" s="1">
+      <c r="AH23" s="1">
         <v>0.7</v>
       </c>
-      <c r="AJ23" s="5" t="s">
+      <c r="AI23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="9" t="s">
+      <c r="AJ23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM23" s="1">
+      <c r="AL23" s="1">
         <v>0.01</v>
       </c>
-      <c r="AN23" s="5" t="s">
+      <c r="AM23" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO23" s="1">
+      <c r="AN23" s="1">
         <v>-0.74</v>
       </c>
-      <c r="AP23" s="5" t="s">
+      <c r="AO23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ23" s="1">
+      <c r="AP23" s="1">
         <v>0.75</v>
       </c>
-      <c r="AR23" s="5" t="s">
+      <c r="AQ23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS23" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="5" t="s">
+      <c r="AR23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU23" s="1">
+      <c r="AT23" s="1">
         <v>-0.1</v>
       </c>
-      <c r="AV23" s="5" t="s">
+      <c r="AU23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW23" s="1">
+      <c r="AV23" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX23" s="5" t="s">
+      <c r="AW23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY23" s="1">
+      <c r="AX23" s="1">
         <v>0.7</v>
       </c>
+      <c r="AY23" s="1"/>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
@@ -6276,9 +6237,8 @@
       <c r="BH23" s="1"/>
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
-      <c r="BK23" s="1"/>
     </row>
-    <row r="24" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:62" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -6293,115 +6253,115 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="16"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S24" s="1">
-        <v>0</v>
-      </c>
-      <c r="T24" s="1" t="s">
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U24" s="1">
+      <c r="T24" s="1">
         <v>0.75</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="U24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W24" s="1">
+      <c r="V24" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="W24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y24" s="12">
+      <c r="X24" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Z24" s="1" t="s">
+      <c r="Y24" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="Z24" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB24" s="1" t="s">
+      <c r="AA24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC24" s="1">
+      <c r="AB24" s="1">
         <v>-0.77</v>
       </c>
-      <c r="AD24" s="5" t="s">
+      <c r="AC24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE24" s="5">
+      <c r="AD24" s="5">
         <v>0.65</v>
       </c>
-      <c r="AF24" s="5" t="s">
+      <c r="AE24" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG24" s="5">
+      <c r="AF24" s="5">
         <v>0.25</v>
       </c>
-      <c r="AH24" s="5" t="s">
+      <c r="AG24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI24" s="1">
+      <c r="AH24" s="1">
         <v>0.73</v>
       </c>
-      <c r="AJ24" s="5" t="s">
+      <c r="AI24" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="9" t="s">
+      <c r="AJ24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM24" s="1">
+      <c r="AL24" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AN24" s="5" t="s">
+      <c r="AM24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO24" s="1">
+      <c r="AN24" s="1">
         <v>0.2</v>
       </c>
-      <c r="AP24" s="5" t="s">
+      <c r="AO24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ24" s="1">
+      <c r="AP24" s="1">
         <v>0.9</v>
       </c>
-      <c r="AR24" s="5" t="s">
+      <c r="AQ24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="5" t="s">
+      <c r="AR24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU24" s="1">
+      <c r="AT24" s="1">
         <v>-0.2</v>
       </c>
-      <c r="AV24" s="5" t="s">
+      <c r="AU24" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW24" s="1">
+      <c r="AV24" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX24" s="5" t="s">
+      <c r="AW24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY24" s="1">
+      <c r="AX24" s="1">
         <v>0.42</v>
       </c>
+      <c r="AY24" s="1"/>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
@@ -6413,9 +6373,8 @@
       <c r="BH24" s="1"/>
       <c r="BI24" s="1"/>
       <c r="BJ24" s="1"/>
-      <c r="BK24" s="1"/>
     </row>
-    <row r="25" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:62" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -6430,115 +6389,115 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="16"/>
+      <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S25" s="1">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1" t="s">
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="1">
+      <c r="T25" s="1">
         <v>0.65</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="U25" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W25" s="1">
+      <c r="V25" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X25" s="1" t="s">
+      <c r="W25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y25" s="12">
+      <c r="X25" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Z25" s="1" t="s">
+      <c r="Y25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="Z25" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB25" s="1" t="s">
+      <c r="AA25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC25" s="12">
+      <c r="AB25" s="12">
         <v>-0.41</v>
       </c>
-      <c r="AD25" s="5" t="s">
+      <c r="AC25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE25" s="5">
+      <c r="AD25" s="5">
         <v>0.5</v>
       </c>
-      <c r="AF25" s="5" t="s">
+      <c r="AE25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG25" s="5">
+      <c r="AF25" s="5">
         <v>0.05</v>
       </c>
-      <c r="AH25" s="5" t="s">
+      <c r="AG25" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI25" s="1">
+      <c r="AH25" s="1">
         <v>0.68</v>
       </c>
-      <c r="AJ25" s="5" t="s">
+      <c r="AI25" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="9" t="s">
+      <c r="AJ25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM25" s="1">
+      <c r="AL25" s="1">
         <v>-0.4</v>
       </c>
-      <c r="AN25" s="5" t="s">
+      <c r="AM25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO25" s="1">
+      <c r="AN25" s="1">
         <v>-0.48</v>
       </c>
-      <c r="AP25" s="5" t="s">
+      <c r="AO25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ25" s="1">
+      <c r="AP25" s="1">
         <v>0.74</v>
       </c>
-      <c r="AR25" s="5" t="s">
+      <c r="AQ25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="5" t="s">
+      <c r="AR25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU25" s="1">
+      <c r="AT25" s="1">
         <v>0.1</v>
       </c>
-      <c r="AV25" s="5" t="s">
+      <c r="AU25" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW25" s="1">
+      <c r="AV25" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX25" s="5" t="s">
+      <c r="AW25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY25" s="1">
+      <c r="AX25" s="1">
         <v>0.73</v>
       </c>
+      <c r="AY25" s="1"/>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
@@ -6550,9 +6509,8 @@
       <c r="BH25" s="1"/>
       <c r="BI25" s="1"/>
       <c r="BJ25" s="1"/>
-      <c r="BK25" s="1"/>
     </row>
-    <row r="26" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:62" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>86</v>
       </c>
@@ -6567,115 +6525,115 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="16"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S26" s="1">
-        <v>0</v>
-      </c>
-      <c r="T26" s="1" t="s">
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U26" s="1">
+      <c r="T26" s="1">
         <v>0.12</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="U26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W26" s="1">
+      <c r="V26" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y26" s="12">
+      <c r="X26" s="12">
         <v>-0.1</v>
       </c>
-      <c r="Z26" s="1" t="s">
+      <c r="Y26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="Z26" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB26" s="1" t="s">
+      <c r="AA26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC26" s="1">
+      <c r="AB26" s="1">
         <v>-0.67</v>
       </c>
-      <c r="AD26" s="5" t="s">
+      <c r="AC26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE26" s="5">
+      <c r="AD26" s="5">
         <v>0.35</v>
       </c>
-      <c r="AF26" s="5" t="s">
+      <c r="AE26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG26" s="5">
+      <c r="AF26" s="5">
         <v>-0.4</v>
       </c>
-      <c r="AH26" s="5" t="s">
+      <c r="AG26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI26" s="1">
+      <c r="AH26" s="1">
         <v>0.3</v>
       </c>
-      <c r="AJ26" s="5" t="s">
+      <c r="AI26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="9" t="s">
+      <c r="AJ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM26" s="1">
+      <c r="AL26" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AN26" s="5" t="s">
+      <c r="AM26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO26" s="1">
+      <c r="AN26" s="1">
         <v>-0.5</v>
       </c>
-      <c r="AP26" s="5" t="s">
+      <c r="AO26" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ26" s="1">
+      <c r="AP26" s="1">
         <v>-0.1</v>
       </c>
-      <c r="AR26" s="5" t="s">
+      <c r="AQ26" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS26" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="5" t="s">
+      <c r="AR26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU26" s="1">
+      <c r="AT26" s="1">
         <v>0.71</v>
       </c>
-      <c r="AV26" s="5" t="s">
+      <c r="AU26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW26" s="1">
+      <c r="AV26" s="1">
         <v>0.72</v>
       </c>
-      <c r="AX26" s="5" t="s">
+      <c r="AW26" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY26" s="1">
+      <c r="AX26" s="1">
         <v>0.78</v>
       </c>
+      <c r="AY26" s="1"/>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
@@ -6687,9 +6645,8 @@
       <c r="BH26" s="1"/>
       <c r="BI26" s="1"/>
       <c r="BJ26" s="1"/>
-      <c r="BK26" s="1"/>
     </row>
-    <row r="27" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:62" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -6704,115 +6661,115 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="16"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S27" s="1">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1" t="s">
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U27" s="1">
+      <c r="T27" s="1">
         <v>0.65</v>
       </c>
-      <c r="V27" s="1" t="s">
+      <c r="U27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W27" s="1">
+      <c r="V27" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X27" s="1" t="s">
+      <c r="W27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="X27" s="1">
         <v>0.65</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="Y27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="Z27" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB27" s="1" t="s">
+      <c r="AA27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC27" s="1">
+      <c r="AB27" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AD27" s="5" t="s">
+      <c r="AC27" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE27" s="5">
+      <c r="AD27" s="5">
         <v>0.8</v>
       </c>
-      <c r="AF27" s="5" t="s">
+      <c r="AE27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG27" s="5">
+      <c r="AF27" s="5">
         <v>0.69</v>
       </c>
-      <c r="AH27" s="5" t="s">
+      <c r="AG27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI27" s="1">
+      <c r="AH27" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ27" s="5" t="s">
+      <c r="AI27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="9" t="s">
+      <c r="AJ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM27" s="1">
+      <c r="AL27" s="1">
         <v>0.75</v>
       </c>
-      <c r="AN27" s="5" t="s">
+      <c r="AM27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO27" s="1">
+      <c r="AN27" s="1">
         <v>0.7</v>
       </c>
-      <c r="AP27" s="5" t="s">
+      <c r="AO27" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ27" s="1">
+      <c r="AP27" s="1">
         <v>0.9</v>
       </c>
-      <c r="AR27" s="5" t="s">
+      <c r="AQ27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS27" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="5" t="s">
+      <c r="AR27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU27" s="1">
+      <c r="AT27" s="1">
         <v>-0.65</v>
       </c>
-      <c r="AV27" s="5" t="s">
+      <c r="AU27" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW27" s="1">
+      <c r="AV27" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX27" s="5" t="s">
+      <c r="AW27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY27" s="1">
+      <c r="AX27" s="1">
         <v>-0.6</v>
       </c>
+      <c r="AY27" s="1"/>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
@@ -6824,9 +6781,8 @@
       <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
-      <c r="BK27" s="1"/>
     </row>
-    <row r="28" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:62" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -6841,115 +6797,115 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="16"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S28" s="1">
-        <v>0</v>
-      </c>
-      <c r="T28" s="1" t="s">
+      <c r="R28" s="1">
+        <v>0</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U28" s="1">
+      <c r="T28" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="V28" s="1" t="s">
+      <c r="U28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W28" s="1">
+      <c r="V28" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="W28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="X28" s="1">
         <v>-0.2</v>
       </c>
-      <c r="Z28" s="1" t="s">
+      <c r="Y28" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="Z28" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB28" s="1" t="s">
+      <c r="AA28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC28" s="12">
+      <c r="AB28" s="12">
         <v>-0.41</v>
       </c>
-      <c r="AD28" s="5" t="s">
+      <c r="AC28" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE28" s="5">
+      <c r="AD28" s="5">
         <v>0.4</v>
       </c>
-      <c r="AF28" s="5" t="s">
+      <c r="AE28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG28" s="5">
+      <c r="AF28" s="5">
         <v>-0.45</v>
       </c>
-      <c r="AH28" s="5" t="s">
+      <c r="AG28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI28" s="1">
+      <c r="AH28" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AJ28" s="5" t="s">
+      <c r="AI28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="9" t="s">
+      <c r="AJ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM28" s="1">
+      <c r="AL28" s="1">
         <v>-0.69</v>
       </c>
-      <c r="AN28" s="5" t="s">
+      <c r="AM28" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO28" s="1">
+      <c r="AN28" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AP28" s="5" t="s">
+      <c r="AO28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ28" s="1">
+      <c r="AP28" s="1">
         <v>0.74</v>
       </c>
-      <c r="AR28" s="5" t="s">
+      <c r="AQ28" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS28" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="5" t="s">
+      <c r="AR28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU28" s="1">
+      <c r="AT28" s="1">
         <v>0.42</v>
       </c>
-      <c r="AV28" s="5" t="s">
+      <c r="AU28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW28" s="1">
+      <c r="AV28" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX28" s="5" t="s">
+      <c r="AW28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY28" s="1">
+      <c r="AX28" s="1">
         <v>0.78</v>
       </c>
+      <c r="AY28" s="1"/>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
@@ -6961,9 +6917,8 @@
       <c r="BH28" s="1"/>
       <c r="BI28" s="1"/>
       <c r="BJ28" s="1"/>
-      <c r="BK28" s="1"/>
     </row>
-    <row r="29" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:62" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -6978,115 +6933,115 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="16"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S29" s="1">
-        <v>0</v>
-      </c>
-      <c r="T29" s="1" t="s">
+      <c r="R29" s="1">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U29" s="1">
+      <c r="T29" s="1">
         <v>0.12</v>
       </c>
-      <c r="V29" s="1" t="s">
+      <c r="U29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W29" s="1">
+      <c r="V29" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="W29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="X29" s="1">
         <v>0.1</v>
       </c>
-      <c r="Z29" s="1" t="s">
+      <c r="Y29" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="Z29" s="1">
         <v>-0.73</v>
       </c>
-      <c r="AB29" s="1" t="s">
+      <c r="AA29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC29" s="12">
+      <c r="AB29" s="12">
         <v>-0.41</v>
       </c>
-      <c r="AD29" s="5" t="s">
+      <c r="AC29" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE29" s="5">
+      <c r="AD29" s="5">
         <v>0.4</v>
       </c>
-      <c r="AF29" s="5" t="s">
+      <c r="AE29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG29" s="5">
+      <c r="AF29" s="5">
         <v>-0.3</v>
       </c>
-      <c r="AH29" s="5" t="s">
+      <c r="AG29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI29" s="1">
+      <c r="AH29" s="1">
         <v>0.3</v>
       </c>
-      <c r="AJ29" s="5" t="s">
+      <c r="AI29" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="9" t="s">
+      <c r="AJ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM29" s="1">
+      <c r="AL29" s="1">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="AN29" s="5" t="s">
+      <c r="AM29" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO29" s="1">
+      <c r="AN29" s="1">
         <v>-0.69</v>
       </c>
-      <c r="AP29" s="5" t="s">
+      <c r="AO29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ29" s="1">
+      <c r="AP29" s="1">
         <v>-0.4</v>
       </c>
-      <c r="AR29" s="5" t="s">
+      <c r="AQ29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS29" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="5" t="s">
+      <c r="AR29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU29" s="1">
+      <c r="AT29" s="1">
         <v>0.78</v>
       </c>
-      <c r="AV29" s="5" t="s">
+      <c r="AU29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW29" s="1">
+      <c r="AV29" s="1">
         <v>0.75</v>
       </c>
-      <c r="AX29" s="5" t="s">
+      <c r="AW29" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY29" s="1">
+      <c r="AX29" s="1">
         <v>0.72</v>
       </c>
+      <c r="AY29" s="1"/>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
@@ -7098,9 +7053,8 @@
       <c r="BH29" s="1"/>
       <c r="BI29" s="1"/>
       <c r="BJ29" s="1"/>
-      <c r="BK29" s="1"/>
     </row>
-    <row r="30" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:62" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -7115,153 +7069,152 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="16"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S30" s="1">
-        <v>0</v>
-      </c>
-      <c r="T30" s="1" t="s">
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="U30" s="1">
-        <v>0</v>
-      </c>
-      <c r="V30" s="1" t="s">
+      <c r="T30" s="1">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="W30" s="1">
+      <c r="V30" s="1">
         <v>-0.79</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="W30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y30" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="1" t="s">
+      <c r="X30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AA30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="1" t="s">
+      <c r="Z30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AC30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="5" t="s">
+      <c r="AB30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE30" s="5">
+      <c r="AD30" s="5">
         <v>-0.75</v>
       </c>
-      <c r="AF30" s="5" t="s">
+      <c r="AE30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG30" s="5">
+      <c r="AF30" s="5">
         <v>-0.75</v>
       </c>
-      <c r="AH30" s="5" t="s">
+      <c r="AG30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AH30" s="1">
         <v>-0.6</v>
       </c>
-      <c r="AJ30" s="5" t="s">
+      <c r="AI30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="9" t="s">
+      <c r="AJ30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM30" s="1">
+      <c r="AL30" s="1">
         <v>-0.78</v>
       </c>
-      <c r="AN30" s="5" t="s">
+      <c r="AM30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO30" s="1">
+      <c r="AN30" s="1">
         <v>-0.79</v>
       </c>
-      <c r="AP30" s="5" t="s">
+      <c r="AO30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ30" s="1">
+      <c r="AP30" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AR30" s="5" t="s">
+      <c r="AQ30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS30" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT30" s="5" t="s">
+      <c r="AR30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU30" s="1">
+      <c r="AT30" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AV30" s="5" t="s">
+      <c r="AU30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW30" s="1">
+      <c r="AV30" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX30" s="5" t="s">
+      <c r="AW30" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY30" s="1">
+      <c r="AX30" s="1">
         <v>0.7</v>
       </c>
-      <c r="AZ30" s="1" t="s">
+      <c r="AY30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA30" s="1">
+      <c r="AZ30" s="1">
         <v>-0.7</v>
       </c>
-      <c r="BB30" s="1" t="s">
+      <c r="BA30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC30" s="1">
+      <c r="BB30" s="1">
         <v>-0.7</v>
       </c>
-      <c r="BD30" s="1" t="s">
+      <c r="BC30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE30" s="1">
+      <c r="BD30" s="1">
         <v>0.71</v>
       </c>
-      <c r="BF30" s="1" t="s">
+      <c r="BE30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG30" s="1">
+      <c r="BF30" s="1">
         <v>-0.75</v>
       </c>
-      <c r="BH30" s="1" t="s">
+      <c r="BG30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI30" s="1">
+      <c r="BH30" s="1">
         <v>0.78</v>
       </c>
-      <c r="BJ30" s="1" t="s">
+      <c r="BI30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK30" s="1">
+      <c r="BJ30" s="1">
         <v>-0.35</v>
       </c>
     </row>
-    <row r="31" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:62" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -7276,7 +7229,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="16"/>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -7294,111 +7247,110 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="5" t="s">
+      <c r="AC31" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE31" s="5">
+      <c r="AD31" s="5">
         <v>0.72</v>
       </c>
-      <c r="AF31" s="5" t="s">
+      <c r="AE31" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG31" s="5">
+      <c r="AF31" s="5">
         <v>0.77</v>
       </c>
-      <c r="AH31" s="5" t="s">
+      <c r="AG31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI31" s="1">
+      <c r="AH31" s="1">
         <v>0.5</v>
       </c>
-      <c r="AJ31" s="5" t="s">
+      <c r="AI31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="9" t="s">
+      <c r="AJ31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM31" s="1">
+      <c r="AL31" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AN31" s="5" t="s">
+      <c r="AM31" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO31" s="1">
+      <c r="AN31" s="1">
         <v>0.71</v>
       </c>
-      <c r="AP31" s="5" t="s">
+      <c r="AO31" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ31" s="1">
+      <c r="AP31" s="1">
         <v>0.78</v>
       </c>
-      <c r="AR31" s="5" t="s">
+      <c r="AQ31" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS31" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT31" s="5" t="s">
+      <c r="AR31" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU31" s="1">
+      <c r="AT31" s="1">
         <v>-0.74</v>
       </c>
-      <c r="AV31" s="5" t="s">
+      <c r="AU31" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW31" s="1">
+      <c r="AV31" s="1">
         <v>0.42</v>
       </c>
-      <c r="AX31" s="5" t="s">
+      <c r="AW31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY31" s="1">
+      <c r="AX31" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AZ31" s="1" t="s">
+      <c r="AY31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA31" s="1">
+      <c r="AZ31" s="1">
         <v>0.71</v>
       </c>
-      <c r="BB31" s="1" t="s">
+      <c r="BA31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC31" s="1">
+      <c r="BB31" s="1">
         <v>0.71</v>
       </c>
-      <c r="BD31" s="1" t="s">
+      <c r="BC31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE31" s="1">
+      <c r="BD31" s="1">
         <v>-0.45</v>
       </c>
-      <c r="BF31" s="1" t="s">
+      <c r="BE31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG31" s="1">
+      <c r="BF31" s="1">
         <v>0.78</v>
       </c>
-      <c r="BH31" s="1" t="s">
+      <c r="BG31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI31" s="1">
+      <c r="BH31" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="BJ31" s="1" t="s">
+      <c r="BI31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK31" s="1">
+      <c r="BJ31" s="1">
         <v>-0.74</v>
       </c>
     </row>
-    <row r="32" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:62" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -7413,7 +7365,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="16"/>
+      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -7431,111 +7383,110 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="5" t="s">
+      <c r="AC32" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE32" s="5">
+      <c r="AD32" s="5">
         <v>-0.6</v>
       </c>
-      <c r="AF32" s="5" t="s">
+      <c r="AE32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG32" s="5">
+      <c r="AF32" s="5">
         <v>-0.6</v>
       </c>
-      <c r="AH32" s="5" t="s">
+      <c r="AG32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI32" s="1">
+      <c r="AH32" s="1">
         <v>-0.64</v>
       </c>
-      <c r="AJ32" s="5" t="s">
+      <c r="AI32" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="9" t="s">
+      <c r="AJ32" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM32" s="1">
+      <c r="AL32" s="1">
         <v>-0.78</v>
       </c>
-      <c r="AN32" s="5" t="s">
+      <c r="AM32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO32" s="1">
+      <c r="AN32" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AP32" s="5" t="s">
+      <c r="AO32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ32" s="1">
+      <c r="AP32" s="1">
         <v>-0.15</v>
       </c>
-      <c r="AR32" s="5" t="s">
+      <c r="AQ32" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS32" s="1">
+      <c r="AR32" s="1">
         <v>0.35</v>
       </c>
-      <c r="AT32" s="5" t="s">
+      <c r="AS32" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU32" s="1">
+      <c r="AT32" s="1">
         <v>-0.25</v>
       </c>
-      <c r="AV32" s="5" t="s">
+      <c r="AU32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW32" s="1">
+      <c r="AV32" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX32" s="5" t="s">
+      <c r="AW32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY32" s="1">
+      <c r="AX32" s="1">
         <v>0.7</v>
       </c>
-      <c r="AZ32" s="1" t="s">
+      <c r="AY32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA32" s="1">
+      <c r="AZ32" s="1">
         <v>-0.7</v>
       </c>
-      <c r="BB32" s="1" t="s">
+      <c r="BA32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC32" s="1">
+      <c r="BB32" s="1">
         <v>-0.7</v>
       </c>
-      <c r="BD32" s="1" t="s">
+      <c r="BC32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE32" s="1">
+      <c r="BD32" s="1">
         <v>0.75</v>
       </c>
-      <c r="BF32" s="1" t="s">
+      <c r="BE32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG32" s="1">
+      <c r="BF32" s="1">
         <v>-0.15</v>
       </c>
-      <c r="BH32" s="1" t="s">
+      <c r="BG32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI32" s="1">
+      <c r="BH32" s="1">
         <v>0.7</v>
       </c>
-      <c r="BJ32" s="1" t="s">
+      <c r="BI32" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK32" s="1">
+      <c r="BJ32" s="1">
         <v>0.15</v>
       </c>
     </row>
-    <row r="33" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:62" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -7550,7 +7501,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="16"/>
+      <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -7568,111 +7519,110 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="5" t="s">
+      <c r="AC33" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE33" s="5">
+      <c r="AD33" s="5">
         <v>0.69</v>
       </c>
-      <c r="AF33" s="5" t="s">
+      <c r="AE33" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG33" s="5">
+      <c r="AF33" s="5">
         <v>0.73</v>
       </c>
-      <c r="AH33" s="5" t="s">
+      <c r="AG33" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI33" s="1">
+      <c r="AH33" s="1">
         <v>0.2</v>
       </c>
-      <c r="AJ33" s="5" t="s">
+      <c r="AI33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="9" t="s">
+      <c r="AJ33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM33" s="1">
+      <c r="AL33" s="1">
         <v>0.7</v>
       </c>
-      <c r="AN33" s="5" t="s">
+      <c r="AM33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO33" s="1">
+      <c r="AN33" s="1">
         <v>0.75</v>
       </c>
-      <c r="AP33" s="5" t="s">
+      <c r="AO33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ33" s="1">
+      <c r="AP33" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AR33" s="5" t="s">
+      <c r="AQ33" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT33" s="5" t="s">
+      <c r="AR33" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU33" s="1">
+      <c r="AT33" s="1">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="AV33" s="5" t="s">
+      <c r="AU33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW33" s="1">
+      <c r="AV33" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AX33" s="5" t="s">
+      <c r="AW33" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY33" s="1">
+      <c r="AX33" s="1">
         <v>-0.79</v>
       </c>
-      <c r="AZ33" s="1" t="s">
+      <c r="AY33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA33" s="1">
+      <c r="AZ33" s="1">
         <v>0.77</v>
       </c>
-      <c r="BB33" s="1" t="s">
+      <c r="BA33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC33" s="1">
+      <c r="BB33" s="1">
         <v>0.77</v>
       </c>
-      <c r="BD33" s="1" t="s">
+      <c r="BC33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE33" s="1">
+      <c r="BD33" s="1">
         <v>-0.59</v>
       </c>
-      <c r="BF33" s="1" t="s">
+      <c r="BE33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG33" s="1">
+      <c r="BF33" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BH33" s="1" t="s">
+      <c r="BG33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI33" s="1">
+      <c r="BH33" s="1">
         <v>-0.73</v>
       </c>
-      <c r="BJ33" s="1" t="s">
+      <c r="BI33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK33" s="1">
+      <c r="BJ33" s="1">
         <v>-0.28999999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:62" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -7687,7 +7637,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="16"/>
+      <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -7705,111 +7655,110 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="5" t="s">
+      <c r="AC34" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE34" s="5">
+      <c r="AD34" s="5">
         <v>-0.7</v>
       </c>
-      <c r="AF34" s="5" t="s">
+      <c r="AE34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG34" s="5">
+      <c r="AF34" s="5">
         <v>-0.54</v>
       </c>
-      <c r="AH34" s="5" t="s">
+      <c r="AG34" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI34" s="1">
+      <c r="AH34" s="1">
         <v>-0.59</v>
       </c>
-      <c r="AJ34" s="5" t="s">
+      <c r="AI34" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="9" t="s">
+      <c r="AJ34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM34" s="1">
+      <c r="AL34" s="1">
         <v>-0.7</v>
       </c>
-      <c r="AN34" s="5" t="s">
+      <c r="AM34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO34" s="1">
+      <c r="AN34" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AP34" s="5" t="s">
+      <c r="AO34" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ34" s="1">
+      <c r="AP34" s="1">
         <v>-0.75</v>
       </c>
-      <c r="AR34" s="5" t="s">
+      <c r="AQ34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT34" s="5" t="s">
+      <c r="AR34" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU34" s="1">
+      <c r="AT34" s="1">
         <v>-0.49</v>
       </c>
-      <c r="AV34" s="5" t="s">
+      <c r="AU34" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW34" s="1">
+      <c r="AV34" s="1">
         <v>-0.8</v>
       </c>
-      <c r="AX34" s="5" t="s">
+      <c r="AW34" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY34" s="1">
+      <c r="AX34" s="1">
         <v>0.79</v>
       </c>
-      <c r="AZ34" s="1" t="s">
+      <c r="AY34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA34" s="1">
+      <c r="AZ34" s="1">
         <v>-0.7</v>
       </c>
-      <c r="BB34" s="1" t="s">
+      <c r="BA34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC34" s="1">
+      <c r="BB34" s="1">
         <v>-0.7</v>
       </c>
-      <c r="BD34" s="1" t="s">
+      <c r="BC34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE34" s="1">
+      <c r="BD34" s="1">
         <v>0.71</v>
       </c>
-      <c r="BF34" s="1" t="s">
+      <c r="BE34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG34" s="1">
+      <c r="BF34" s="1">
         <v>0.68</v>
       </c>
-      <c r="BH34" s="1" t="s">
+      <c r="BG34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI34" s="1">
+      <c r="BH34" s="1">
         <v>0.7</v>
       </c>
-      <c r="BJ34" s="1" t="s">
+      <c r="BI34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK34" s="1">
+      <c r="BJ34" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:62" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -7824,7 +7773,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="16"/>
+      <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -7842,107 +7791,106 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="5" t="s">
+      <c r="AC35" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AE35" s="5">
+      <c r="AD35" s="5">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AF35" s="5" t="s">
+      <c r="AE35" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AG35" s="5">
+      <c r="AF35" s="5">
         <v>-0.5</v>
       </c>
-      <c r="AH35" s="5" t="s">
+      <c r="AG35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AI35" s="1">
+      <c r="AH35" s="1">
         <v>-0.45</v>
       </c>
-      <c r="AJ35" s="5" t="s">
+      <c r="AI35" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AK35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="9" t="s">
+      <c r="AJ35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AM35" s="1">
+      <c r="AL35" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AN35" s="5" t="s">
+      <c r="AM35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AO35" s="1">
+      <c r="AN35" s="1">
         <v>0.71</v>
       </c>
-      <c r="AP35" s="5" t="s">
+      <c r="AO35" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AQ35" s="1">
+      <c r="AP35" s="1">
         <v>0.78</v>
       </c>
-      <c r="AR35" s="5" t="s">
+      <c r="AQ35" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AS35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT35" s="5" t="s">
+      <c r="AR35" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AU35" s="1">
+      <c r="AT35" s="1">
         <v>-0.74</v>
       </c>
-      <c r="AV35" s="5" t="s">
+      <c r="AU35" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AW35" s="1">
+      <c r="AV35" s="1">
         <v>0.42</v>
       </c>
-      <c r="AX35" s="5" t="s">
+      <c r="AW35" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AY35" s="1">
+      <c r="AX35" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="AZ35" s="1" t="s">
+      <c r="AY35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="BA35" s="1">
+      <c r="AZ35" s="1">
         <v>0.71</v>
       </c>
-      <c r="BB35" s="1" t="s">
+      <c r="BA35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="BC35" s="1">
+      <c r="BB35" s="1">
         <v>0.71</v>
       </c>
-      <c r="BD35" s="1" t="s">
+      <c r="BC35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BE35" s="1">
+      <c r="BD35" s="1">
         <v>-0.45</v>
       </c>
-      <c r="BF35" s="1" t="s">
+      <c r="BE35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="BG35" s="1">
+      <c r="BF35" s="1">
         <v>0.68</v>
       </c>
-      <c r="BH35" s="1" t="s">
+      <c r="BG35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BI35" s="1">
+      <c r="BH35" s="1">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="BJ35" s="1" t="s">
+      <c r="BI35" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BK35" s="1">
+      <c r="BJ35" s="1">
         <v>-0.74</v>
       </c>
     </row>

--- a/static/sample/sna/Iranian_Influence.xlsx
+++ b/static/sample/sna/Iranian_Influence.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ryan/lucas/GAT/static/sample/sna/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harry/Desktop/LUCAS/GAT/GAT/static/sample/sna/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" activeTab="1"/>
+    <workbookView xWindow="26320" yWindow="460" windowWidth="25600" windowHeight="14380"/>
   </bookViews>
   <sheets>
     <sheet name="Data Node Sheet" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -385,6 +385,12 @@
   </si>
   <si>
     <t>Masoud Barzani</t>
+  </si>
+  <si>
+    <t>Img</t>
+  </si>
+  <si>
+    <t>static/sample/sna/images/tony.jpg</t>
   </si>
 </sst>
 </file>
@@ -800,11 +806,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W1" sqref="W1:W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -824,7 +830,7 @@
     <col min="13" max="16384" width="14.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -891,8 +897,9 @@
       <c r="V1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -945,8 +952,9 @@
         <v>21</v>
       </c>
       <c r="V2" s="1"/>
+      <c r="W2"/>
     </row>
-    <row r="3" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -993,8 +1001,9 @@
         <v>21</v>
       </c>
       <c r="V3" s="1"/>
+      <c r="W3"/>
     </row>
-    <row r="4" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -1049,8 +1058,9 @@
         <v>21</v>
       </c>
       <c r="V4" s="1"/>
+      <c r="W4"/>
     </row>
-    <row r="5" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1097,8 +1107,9 @@
         <v>21</v>
       </c>
       <c r="V5" s="1"/>
+      <c r="W5"/>
     </row>
-    <row r="6" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -1143,8 +1154,9 @@
         <v>21</v>
       </c>
       <c r="V6" s="1"/>
+      <c r="W6"/>
     </row>
-    <row r="7" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -1191,8 +1203,9 @@
         <v>21</v>
       </c>
       <c r="V7" s="1"/>
+      <c r="W7"/>
     </row>
-    <row r="8" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -1249,8 +1262,9 @@
         <v>21</v>
       </c>
       <c r="V8" s="1"/>
+      <c r="W8"/>
     </row>
-    <row r="9" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -1307,8 +1321,9 @@
       <c r="V9" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="W9"/>
     </row>
-    <row r="10" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -1359,8 +1374,9 @@
         <v>21</v>
       </c>
       <c r="V10" s="1"/>
+      <c r="W10"/>
     </row>
-    <row r="11" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -1407,8 +1423,9 @@
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
+      <c r="W11"/>
     </row>
-    <row r="12" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1459,8 +1476,9 @@
         <v>21</v>
       </c>
       <c r="V12" s="1"/>
+      <c r="W12"/>
     </row>
-    <row r="13" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
@@ -1509,8 +1527,9 @@
         <v>21</v>
       </c>
       <c r="V13" s="1"/>
+      <c r="W13"/>
     </row>
-    <row r="14" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
@@ -1565,8 +1584,9 @@
         <v>21</v>
       </c>
       <c r="V14" s="1"/>
+      <c r="W14"/>
     </row>
-    <row r="15" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -1627,8 +1647,9 @@
       <c r="V15" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="W15"/>
     </row>
-    <row r="16" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -1673,8 +1694,9 @@
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
+      <c r="W16"/>
     </row>
-    <row r="17" spans="1:22" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -1727,8 +1749,9 @@
         <v>20</v>
       </c>
       <c r="V17" s="1"/>
+      <c r="W17"/>
     </row>
-    <row r="18" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1779,8 +1802,9 @@
       <c r="V18" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="W18"/>
     </row>
-    <row r="19" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -1833,8 +1857,9 @@
         <v>20</v>
       </c>
       <c r="V19" s="1"/>
+      <c r="W19"/>
     </row>
-    <row r="20" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -1889,8 +1914,9 @@
         <v>20</v>
       </c>
       <c r="V20" s="1"/>
+      <c r="W20"/>
     </row>
-    <row r="21" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1937,8 +1963,9 @@
         <v>21</v>
       </c>
       <c r="V21" s="1"/>
+      <c r="W21"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -1985,8 +2012,9 @@
         <v>21</v>
       </c>
       <c r="V22" s="1"/>
+      <c r="W22"/>
     </row>
-    <row r="23" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -2019,8 +2047,9 @@
       <c r="T23" s="5"/>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
+      <c r="W23"/>
     </row>
-    <row r="24" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -2053,8 +2082,9 @@
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="1"/>
+      <c r="W24"/>
     </row>
-    <row r="25" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -2087,8 +2117,9 @@
       <c r="T25" s="5"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
+      <c r="W25"/>
     </row>
-    <row r="26" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>86</v>
       </c>
@@ -2125,8 +2156,9 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
+      <c r="W26"/>
     </row>
-    <row r="27" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -2165,8 +2197,9 @@
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="1"/>
+      <c r="W27"/>
     </row>
-    <row r="28" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -2201,8 +2234,9 @@
       <c r="T28" s="5"/>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
+      <c r="W28"/>
     </row>
-    <row r="29" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -2237,8 +2271,9 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
+      <c r="W29"/>
     </row>
-    <row r="30" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -2279,8 +2314,9 @@
         <v>52</v>
       </c>
       <c r="V30" s="1"/>
+      <c r="W30"/>
     </row>
-    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -2327,8 +2363,9 @@
       <c r="V31" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="W31"/>
     </row>
-    <row r="32" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -2365,8 +2402,9 @@
       </c>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
+      <c r="W32"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -2408,8 +2446,9 @@
       <c r="U33" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="W33"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -2445,8 +2484,9 @@
         <v>52</v>
       </c>
       <c r="U34" s="1"/>
+      <c r="W34"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -2484,6 +2524,7 @@
         <v>52</v>
       </c>
       <c r="U35" s="1"/>
+      <c r="W35"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -2492,11 +2533,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK35"/>
+  <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K1" sqref="K1"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="BC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BL1" sqref="BL1:BL35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2567,7 +2608,7 @@
     <col min="64" max="16384" width="14.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2755,8 +2796,11 @@
       <c r="BK1" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="BL1" s="2" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2920,8 +2964,11 @@
       <c r="BK2" s="1">
         <v>-0.28999999999999998</v>
       </c>
+      <c r="BL2" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="3" spans="1:63" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:64" s="8" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>22</v>
       </c>
@@ -3077,8 +3124,11 @@
       <c r="BK3" s="12">
         <v>-0.48</v>
       </c>
+      <c r="BL3" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>
@@ -3250,8 +3300,11 @@
       <c r="BK4" s="1">
         <v>-0.5</v>
       </c>
+      <c r="BL4" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -3403,8 +3456,11 @@
       <c r="BK5" s="1">
         <v>-0.49</v>
       </c>
+      <c r="BL5" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -3560,8 +3616,11 @@
       <c r="BK6" s="1">
         <v>-0.47</v>
       </c>
+      <c r="BL6" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
@@ -3713,8 +3772,11 @@
       <c r="BK7" s="1">
         <v>-0.55000000000000004</v>
       </c>
+      <c r="BL7" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -3890,8 +3952,11 @@
       <c r="BK8" s="1">
         <v>-0.2</v>
       </c>
+      <c r="BL8" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -4059,8 +4124,11 @@
       <c r="BK9" s="1">
         <v>-0.6</v>
       </c>
+      <c r="BL9" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
@@ -4224,8 +4292,11 @@
       <c r="BK10" s="1">
         <v>-0.74</v>
       </c>
+      <c r="BL10" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>54</v>
       </c>
@@ -4373,8 +4444,11 @@
       <c r="BK11" s="1">
         <v>-0.75</v>
       </c>
+      <c r="BL11" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -4534,8 +4608,11 @@
       <c r="BK12" s="1">
         <v>-0.6</v>
       </c>
+      <c r="BL12" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>63</v>
       </c>
@@ -4691,8 +4768,11 @@
       <c r="BK13" s="1">
         <v>-0.14000000000000001</v>
       </c>
+      <c r="BL13" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="14" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>66</v>
       </c>
@@ -4856,8 +4936,11 @@
       <c r="BK14" s="1">
         <v>-0.35</v>
       </c>
+      <c r="BL14" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="15" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>68</v>
       </c>
@@ -5037,8 +5120,11 @@
       <c r="BK15" s="1">
         <v>-0.05</v>
       </c>
+      <c r="BL15" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="16" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
         <v>73</v>
       </c>
@@ -5198,8 +5284,11 @@
       <c r="BK16" s="1">
         <v>-0.02</v>
       </c>
+      <c r="BL16" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="17" spans="1:63" ht="13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:64" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -5371,8 +5460,11 @@
       <c r="BK17" s="1">
         <v>-0.1</v>
       </c>
+      <c r="BL17" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="18" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -5532,8 +5624,11 @@
       <c r="BK18" s="1">
         <v>0.05</v>
       </c>
+      <c r="BL18" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="19" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>80</v>
       </c>
@@ -5697,8 +5792,11 @@
       <c r="BK19" s="1">
         <v>0.9</v>
       </c>
+      <c r="BL19" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="20" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>83</v>
       </c>
@@ -5866,8 +5964,11 @@
       <c r="BK20" s="1">
         <v>0.9</v>
       </c>
+      <c r="BL20" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="21" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -6003,8 +6104,11 @@
       <c r="BI21" s="1"/>
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
+      <c r="BL21" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="22" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -6140,8 +6244,11 @@
       <c r="BI22" s="1"/>
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
+      <c r="BL22" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="23" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -6277,8 +6384,11 @@
       <c r="BI23" s="1"/>
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
+      <c r="BL23" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="24" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -6414,8 +6524,11 @@
       <c r="BI24" s="1"/>
       <c r="BJ24" s="1"/>
       <c r="BK24" s="1"/>
+      <c r="BL24" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="25" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
@@ -6551,8 +6664,11 @@
       <c r="BI25" s="1"/>
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
+      <c r="BL25" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="26" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>86</v>
       </c>
@@ -6688,8 +6804,11 @@
       <c r="BI26" s="1"/>
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
+      <c r="BL26" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="27" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
@@ -6825,8 +6944,11 @@
       <c r="BI27" s="1"/>
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
+      <c r="BL27" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="28" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
@@ -6962,8 +7084,11 @@
       <c r="BI28" s="1"/>
       <c r="BJ28" s="1"/>
       <c r="BK28" s="1"/>
+      <c r="BL28" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="29" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>90</v>
       </c>
@@ -7099,8 +7224,11 @@
       <c r="BI29" s="1"/>
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
+      <c r="BL29" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="30" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>55</v>
       </c>
@@ -7260,8 +7388,11 @@
       <c r="BK30" s="1">
         <v>-0.35</v>
       </c>
+      <c r="BL30" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="31" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -7397,8 +7528,11 @@
       <c r="BK31" s="1">
         <v>-0.74</v>
       </c>
+      <c r="BL31" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="32" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>56</v>
       </c>
@@ -7534,8 +7668,11 @@
       <c r="BK32" s="1">
         <v>0.15</v>
       </c>
+      <c r="BL32" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="33" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
@@ -7671,8 +7808,11 @@
       <c r="BK33" s="1">
         <v>-0.28999999999999998</v>
       </c>
+      <c r="BL33" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="34" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>92</v>
       </c>
@@ -7808,8 +7948,11 @@
       <c r="BK34" s="1">
         <v>0.5</v>
       </c>
+      <c r="BL34" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="35" spans="1:63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -7945,6 +8088,9 @@
       <c r="BK35" s="1">
         <v>-0.74</v>
       </c>
+      <c r="BL35" t="s">
+        <v>120</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
